--- a/data/cci/cci-sensor.xlsx
+++ b/data/cci/cci-sensor.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies/data/cci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies2/data/cci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F481A578-5276-AC45-A87F-6E4641CF203A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3301A262-25CD-874C-B069-3DFD0625195F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{2B8D4097-40DB-1748-9B87-0EEE9ABEA6E2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{AC6267AA-9592-A246-9899-93CEA800D98F}"/>
   </bookViews>
   <sheets>
     <sheet name="cci-sensor" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="382">
   <si>
     <t>URI</t>
   </si>
@@ -726,6 +726,9 @@
     <t>VEGETATION</t>
   </si>
   <si>
+    <t>Végétation</t>
+  </si>
+  <si>
     <t>Vegetation observation</t>
   </si>
   <si>
@@ -1156,6 +1159,15 @@
   </si>
   <si>
     <t>https://space.oscar.wmo.int/instruments/view/tanso_fts_2</t>
+  </si>
+  <si>
+    <t>sens_poseidon4</t>
+  </si>
+  <si>
+    <t>Poseidon-4</t>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/instruments/view/poseidon_4</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1374,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
@@ -1382,6 +1394,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -1425,27 +1440,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="20">
-    <cellStyle name="Accent" xfId="7" xr:uid="{3456A10C-517C-B742-8791-CF5F0BFF7721}"/>
-    <cellStyle name="Accent 1" xfId="8" xr:uid="{4D0A29BD-28C3-FC48-A4B6-594AB096CC60}"/>
-    <cellStyle name="Accent 2" xfId="9" xr:uid="{B5BD0EE1-DB06-C441-BEF6-A3B63935CB00}"/>
-    <cellStyle name="Accent 3" xfId="10" xr:uid="{9684524A-6F00-3446-8BBE-9C3FD1496A73}"/>
+  <cellStyles count="21">
+    <cellStyle name="Accent" xfId="7" xr:uid="{7985A975-9802-3248-9910-E2AB4182EA1B}"/>
+    <cellStyle name="Accent 1" xfId="8" xr:uid="{CBA61D9C-7906-824D-A270-1C08B7E9FA57}"/>
+    <cellStyle name="Accent 2" xfId="9" xr:uid="{C2DDAEB8-A92C-EA4D-83F2-A3CFC1C88E21}"/>
+    <cellStyle name="Accent 3" xfId="10" xr:uid="{9702C365-C31E-E840-AA35-F7D93635182D}"/>
     <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="11" xr:uid="{1666C4B0-0A61-5447-B120-6A646A856172}"/>
-    <cellStyle name="Footnote" xfId="12" xr:uid="{071CDD1D-DD22-364F-956C-D1387945A6CE}"/>
+    <cellStyle name="Error" xfId="11" xr:uid="{8EE4CBED-4EB5-5140-B76D-0AE200D129C8}"/>
+    <cellStyle name="Footnote" xfId="12" xr:uid="{50B4D6BF-2940-C54B-8672-3806DAB1CC45}"/>
     <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="13" xr:uid="{881DE593-93A0-D941-B998-02B71A4A7874}"/>
+    <cellStyle name="Heading" xfId="13" xr:uid="{7BDC2E56-733E-174A-B87F-4810A9F3B2C8}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="14" xr:uid="{40ED2662-2085-7646-B068-6C862EDAEB33}"/>
+    <cellStyle name="Heading1" xfId="14" xr:uid="{79820B51-E05C-1C43-9262-8E553FCC0608}"/>
+    <cellStyle name="Hyperlink" xfId="15" xr:uid="{04085602-6EB9-E941-9BBC-0922263957A5}"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="15" xr:uid="{92E1099E-BCEB-A44D-8077-39B8C816F1F5}"/>
-    <cellStyle name="Result2" xfId="16" xr:uid="{3691DCC3-E171-BF42-818E-EC18B772C280}"/>
-    <cellStyle name="Status" xfId="17" xr:uid="{F34FD9E1-8666-C04A-819A-EA0DF960AF54}"/>
-    <cellStyle name="Text" xfId="18" xr:uid="{4D045A91-EE75-854A-B165-709892EE3061}"/>
-    <cellStyle name="Warning" xfId="19" xr:uid="{CD3D618D-49EA-2149-8F4C-F001F72B8A5C}"/>
+    <cellStyle name="Result" xfId="16" xr:uid="{20C31649-600B-C948-8F7E-A5210D3043FC}"/>
+    <cellStyle name="Result2" xfId="17" xr:uid="{A3BD2E0E-6DF6-4344-AA76-49ADC451F2F9}"/>
+    <cellStyle name="Status" xfId="18" xr:uid="{49BD5034-70F8-264C-8375-AABD80834EA2}"/>
+    <cellStyle name="Text" xfId="19" xr:uid="{9D04CBA5-3306-5E42-94C2-BFAB3DE6EC27}"/>
+    <cellStyle name="Warning" xfId="20" xr:uid="{D212F283-457E-E34E-94F9-DD2FB6BF83DE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1461,1035 +1477,1035 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{613A4E61-BA7D-984E-81E8-8239D65E992A}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:AMJ1048573" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BB551DD-9BDF-5E4F-A297-96B94B882E5C}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:AMJ1048573" headerRowCount="0" totalsRowShown="0">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AMJ1048573">
     <sortCondition ref="A1:A1048573"/>
   </sortState>
   <tableColumns count="1024">
-    <tableColumn id="1" xr3:uid="{F4FA7C70-3A2D-534D-8938-E97E55B30B3A}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{38505F15-B47F-EB46-AE3D-59E4A9E7A5B5}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{0B9193AD-4F02-CC40-AA59-A3FDB3444404}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{445AC194-54DC-A848-816E-B8AA3D348889}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{908F1B9B-7925-9B40-A733-06FD9F943CFC}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{44B15D8D-B779-3049-94FE-9CCA1895438C}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{6E0F6F34-4997-894E-9BA0-116C55D9C724}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{BD05E62C-34D6-D24E-8096-B03623A56CC8}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{E609BB61-4ACC-B148-A618-2D666457CFEC}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{934F3C5C-8B96-A94F-89B2-C243CD1C628F}" name="Column10"/>
-    <tableColumn id="11" xr3:uid="{E8CCC788-A553-2B48-9265-5FA063807141}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{93E405EC-08E7-0142-B46B-FE8EBD748F81}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{27BF6050-D6A5-6D4F-8ECF-C85AC2CC7DA2}" name="Column13"/>
-    <tableColumn id="14" xr3:uid="{0E1E06B1-6DCE-4545-8EA2-126741D20B4C}" name="Column14"/>
-    <tableColumn id="15" xr3:uid="{AA7AAA53-1FB8-6F45-B536-25F559504EC1}" name="Column15"/>
-    <tableColumn id="16" xr3:uid="{BFB920CD-3446-204F-A4D0-9CBE9E7A0A5F}" name="Column16"/>
-    <tableColumn id="17" xr3:uid="{A9890561-4E8C-7C46-A51F-ED8D567CB4F5}" name="Column17"/>
-    <tableColumn id="18" xr3:uid="{30766C7D-B8DA-D34B-BC65-586B1128E5BD}" name="Column18"/>
-    <tableColumn id="19" xr3:uid="{BCFF3E08-2048-D54E-BA69-9F5764309B6E}" name="Column19"/>
-    <tableColumn id="20" xr3:uid="{0AC97A13-7FEF-604C-A6C6-8CBED327617E}" name="Column20"/>
-    <tableColumn id="21" xr3:uid="{DBF24A1A-7671-A84E-9ED6-0FEA3F9EB67B}" name="Column21"/>
-    <tableColumn id="22" xr3:uid="{55EE7286-37F2-EC4D-BB14-0AC6860EB3BC}" name="Column22"/>
-    <tableColumn id="23" xr3:uid="{D2FB67F9-C9D5-E048-9F05-C0D527ABD509}" name="Column23"/>
-    <tableColumn id="24" xr3:uid="{5372C185-F43F-D34F-ADEA-491A9BB2CA3F}" name="Column24"/>
-    <tableColumn id="25" xr3:uid="{99A3483F-1A29-384A-85C3-5548AD55E9EF}" name="Column25"/>
-    <tableColumn id="26" xr3:uid="{2D93F53F-8C1B-6548-A2AA-8AA11993B4BF}" name="Column26"/>
-    <tableColumn id="27" xr3:uid="{C7C7E479-183A-0D45-A273-515478C20A99}" name="Column27"/>
-    <tableColumn id="28" xr3:uid="{CCA6A76E-E6F4-5741-9363-2A0E4099956C}" name="Column28"/>
-    <tableColumn id="29" xr3:uid="{6CAFD3E5-4B1F-334F-BBD2-DF89EFB7E4C2}" name="Column29"/>
-    <tableColumn id="30" xr3:uid="{C4C61B9A-7CC5-C843-87AC-D69543C64660}" name="Column30"/>
-    <tableColumn id="31" xr3:uid="{CF6E253E-59E9-FB4C-89E8-663BDCBC6F83}" name="Column31"/>
-    <tableColumn id="32" xr3:uid="{DB7C38C1-F7D5-9F4C-9DC6-A44143135421}" name="Column32"/>
-    <tableColumn id="33" xr3:uid="{95F26CCD-63E3-3947-B3E1-F4187617F464}" name="Column33"/>
-    <tableColumn id="34" xr3:uid="{D7BA10F1-BA68-294B-8208-531040A3B244}" name="Column34"/>
-    <tableColumn id="35" xr3:uid="{478CB949-B208-9247-B768-54B903F682E0}" name="Column35"/>
-    <tableColumn id="36" xr3:uid="{1D458B79-0D9C-3D43-9F47-621284C64A48}" name="Column36"/>
-    <tableColumn id="37" xr3:uid="{0AD84D5D-6FBA-224C-8138-672CB046F0C3}" name="Column37"/>
-    <tableColumn id="38" xr3:uid="{CCB0ED1E-FE10-4B49-9A9C-99EE0F134A2F}" name="Column38"/>
-    <tableColumn id="39" xr3:uid="{C667472B-ADDF-AC4D-BB7B-0ECD30E3B99B}" name="Column39"/>
-    <tableColumn id="40" xr3:uid="{D468DFB1-9452-2C4E-8D3D-5BC23ED8CF38}" name="Column40"/>
-    <tableColumn id="41" xr3:uid="{2AF033E5-385C-634C-84ED-D0D25470B4B0}" name="Column41"/>
-    <tableColumn id="42" xr3:uid="{C557FEEF-40FD-F943-8362-398AD58C12A3}" name="Column42"/>
-    <tableColumn id="43" xr3:uid="{6165B40F-3C4A-AB4E-97BB-4A41ADB7DC34}" name="Column43"/>
-    <tableColumn id="44" xr3:uid="{3034C41B-208B-3D42-A1B1-B744032EFC51}" name="Column44"/>
-    <tableColumn id="45" xr3:uid="{46D6A4A3-9DEB-EC45-A234-9202DDBC3137}" name="Column45"/>
-    <tableColumn id="46" xr3:uid="{AF79B888-5EA8-BA44-9CC2-896BDF5773A7}" name="Column46"/>
-    <tableColumn id="47" xr3:uid="{E44CF3FA-7A5B-1742-B968-75C4140898C2}" name="Column47"/>
-    <tableColumn id="48" xr3:uid="{D8141AAC-E196-9746-BB72-C2ADB68D7DB1}" name="Column48"/>
-    <tableColumn id="49" xr3:uid="{670B8044-4A69-284F-8923-57B7A17EF1F5}" name="Column49"/>
-    <tableColumn id="50" xr3:uid="{942F0338-78AD-B14D-B193-B94B7F255942}" name="Column50"/>
-    <tableColumn id="51" xr3:uid="{EE395A96-4CD5-1A46-897C-A1839F3F0D06}" name="Column51"/>
-    <tableColumn id="52" xr3:uid="{60374181-BD9B-4B47-9956-453E1D12C6BA}" name="Column52"/>
-    <tableColumn id="53" xr3:uid="{8ED580A2-AA67-C34B-BBD2-E868E9A842D7}" name="Column53"/>
-    <tableColumn id="54" xr3:uid="{C59C9B89-7DE2-F44C-8058-9C4D850D914D}" name="Column54"/>
-    <tableColumn id="55" xr3:uid="{D1B02AFC-AD63-0B48-B93C-1E32C4EDAFA0}" name="Column55"/>
-    <tableColumn id="56" xr3:uid="{08AF1366-00C8-3347-BC1E-C36D359C1CFC}" name="Column56"/>
-    <tableColumn id="57" xr3:uid="{9B817D98-F9A0-2349-913F-8CB3BED1359F}" name="Column57"/>
-    <tableColumn id="58" xr3:uid="{45E384C2-E6DF-344A-A8EB-43E0E8A14BA7}" name="Column58"/>
-    <tableColumn id="59" xr3:uid="{36C7724B-1E46-BF49-A9F9-42BAE743AFF9}" name="Column59"/>
-    <tableColumn id="60" xr3:uid="{8575382F-2565-E64D-9749-437DC07953F8}" name="Column60"/>
-    <tableColumn id="61" xr3:uid="{39DEDED9-55FC-A440-B9A3-3358A23B7955}" name="Column61"/>
-    <tableColumn id="62" xr3:uid="{AE56115A-37D3-FE4F-91F0-68CBD1FE48EC}" name="Column62"/>
-    <tableColumn id="63" xr3:uid="{C4A891FA-7928-B842-94E0-029E48367055}" name="Column63"/>
-    <tableColumn id="64" xr3:uid="{DA08FA00-277A-4B4E-8E48-792BE1DB97B2}" name="Column64"/>
-    <tableColumn id="65" xr3:uid="{07DB2A47-3806-AF4E-8511-AA914582526F}" name="Column65"/>
-    <tableColumn id="66" xr3:uid="{5DE83167-2770-684D-9F2E-874B2DAC86E2}" name="Column66"/>
-    <tableColumn id="67" xr3:uid="{4F4619C5-B1AD-EF4A-BE1B-0C9D1EF87B28}" name="Column67"/>
-    <tableColumn id="68" xr3:uid="{CF7FB7B3-B6D1-A547-8958-C38D427AACB1}" name="Column68"/>
-    <tableColumn id="69" xr3:uid="{CE011B4C-EC50-A342-8BA7-7D048DC25647}" name="Column69"/>
-    <tableColumn id="70" xr3:uid="{ADBB305D-5D0E-7A45-BEB4-AB4688633121}" name="Column70"/>
-    <tableColumn id="71" xr3:uid="{8556CB31-7549-E945-94BC-FB113FD115A4}" name="Column71"/>
-    <tableColumn id="72" xr3:uid="{0EBB8E13-EA62-B241-8B37-5979A131A399}" name="Column72"/>
-    <tableColumn id="73" xr3:uid="{5397AC39-34B4-BF4B-A59F-85626EEE6FD5}" name="Column73"/>
-    <tableColumn id="74" xr3:uid="{95873EDE-0125-6048-B917-2E26D2AC10BA}" name="Column74"/>
-    <tableColumn id="75" xr3:uid="{439DA5B7-8986-A840-AA9B-96561E7B45AA}" name="Column75"/>
-    <tableColumn id="76" xr3:uid="{38DB170E-CBF6-AB44-A0F0-25BDEBE5AF54}" name="Column76"/>
-    <tableColumn id="77" xr3:uid="{81D3CDED-66E9-7B4D-B64C-010679C37CD2}" name="Column77"/>
-    <tableColumn id="78" xr3:uid="{77EA634A-0ABB-D54E-A7AC-06E3B16233C3}" name="Column78"/>
-    <tableColumn id="79" xr3:uid="{6CBC0729-D0BA-EC4E-898B-D158104FBF71}" name="Column79"/>
-    <tableColumn id="80" xr3:uid="{BECC7CBA-540C-3E47-BE83-2340705B9F75}" name="Column80"/>
-    <tableColumn id="81" xr3:uid="{4E535F44-7740-1144-8F19-C47C6C8BF591}" name="Column81"/>
-    <tableColumn id="82" xr3:uid="{CDDD6C39-450E-DE4C-98B9-0E0108AA8D0B}" name="Column82"/>
-    <tableColumn id="83" xr3:uid="{A402B364-B3A3-824E-A333-6DDDF441F70A}" name="Column83"/>
-    <tableColumn id="84" xr3:uid="{1A5B0351-F85B-AE41-994D-A30826FE1CAB}" name="Column84"/>
-    <tableColumn id="85" xr3:uid="{398456B9-626B-EA44-9BF4-47DC4A4E4E3D}" name="Column85"/>
-    <tableColumn id="86" xr3:uid="{4AE33E95-2AB5-6F47-A04E-0E5C12D93FAB}" name="Column86"/>
-    <tableColumn id="87" xr3:uid="{AA324CEE-40A8-5E4C-982D-B8FFCF54649C}" name="Column87"/>
-    <tableColumn id="88" xr3:uid="{4C6D6D44-104A-3243-BE63-D106E9949F2C}" name="Column88"/>
-    <tableColumn id="89" xr3:uid="{D45DDA55-49BF-3944-BF54-46B14BC40462}" name="Column89"/>
-    <tableColumn id="90" xr3:uid="{27F962ED-01B7-EB48-86F6-372C1217AE93}" name="Column90"/>
-    <tableColumn id="91" xr3:uid="{5C6B412D-238C-E840-8C54-1D77AFA90119}" name="Column91"/>
-    <tableColumn id="92" xr3:uid="{BF771B6E-A60D-C34B-AD9E-9C94759940D6}" name="Column92"/>
-    <tableColumn id="93" xr3:uid="{05BE0F3C-5BD9-2643-98A2-3DDF751A47E3}" name="Column93"/>
-    <tableColumn id="94" xr3:uid="{2A0B3CE4-47B0-644D-B1E7-70DBAC044DD5}" name="Column94"/>
-    <tableColumn id="95" xr3:uid="{ACCC2273-F906-3244-86F9-2DB9FA68AF5D}" name="Column95"/>
-    <tableColumn id="96" xr3:uid="{7CA33A70-4E38-4743-AB3C-141E71A723F2}" name="Column96"/>
-    <tableColumn id="97" xr3:uid="{09BE5861-0897-6848-8690-72BFF6822B82}" name="Column97"/>
-    <tableColumn id="98" xr3:uid="{9D90D3DE-2A1B-984F-A614-53B75C1D63BE}" name="Column98"/>
-    <tableColumn id="99" xr3:uid="{1B595A7F-1949-1741-AAE7-857142D3C0D3}" name="Column99"/>
-    <tableColumn id="100" xr3:uid="{1084E6E7-C595-3740-ADD1-E2A10E6C8455}" name="Column100"/>
-    <tableColumn id="101" xr3:uid="{CD74E853-C4E1-2241-A0B8-0E2AB8332C8C}" name="Column101"/>
-    <tableColumn id="102" xr3:uid="{699AF891-3160-9345-AEF4-14DB7D8A7876}" name="Column102"/>
-    <tableColumn id="103" xr3:uid="{85EF8756-2368-714B-A8FA-94D2EF96A1DE}" name="Column103"/>
-    <tableColumn id="104" xr3:uid="{2C52FAD4-CA04-CB45-81E6-93B3C26E4319}" name="Column104"/>
-    <tableColumn id="105" xr3:uid="{7EFA672C-F559-F74C-B4C7-81757411771D}" name="Column105"/>
-    <tableColumn id="106" xr3:uid="{FE3F2001-1852-C94F-8608-E00AC73CE4FC}" name="Column106"/>
-    <tableColumn id="107" xr3:uid="{1738C1C0-C69A-9C42-8791-CE4C85B87FE4}" name="Column107"/>
-    <tableColumn id="108" xr3:uid="{A7E9BA2D-4E52-284F-A2DC-D684D4D1A8FD}" name="Column108"/>
-    <tableColumn id="109" xr3:uid="{2E07F43F-D1E0-3646-B724-69F129066435}" name="Column109"/>
-    <tableColumn id="110" xr3:uid="{AD80428C-4A84-8F41-913F-E912E513059D}" name="Column110"/>
-    <tableColumn id="111" xr3:uid="{2AB212C7-404C-2641-80B6-4815F97DF90E}" name="Column111"/>
-    <tableColumn id="112" xr3:uid="{5A9E091B-9DB6-7746-8B82-A8030D79DB8D}" name="Column112"/>
-    <tableColumn id="113" xr3:uid="{EA6FAB94-9B93-7241-8D97-6E91E77865B6}" name="Column113"/>
-    <tableColumn id="114" xr3:uid="{1C49AC41-6881-D140-A813-8063BB6F864C}" name="Column114"/>
-    <tableColumn id="115" xr3:uid="{F6FEEDDF-AF5C-654C-8328-3F612EFAD5A0}" name="Column115"/>
-    <tableColumn id="116" xr3:uid="{2911472E-7948-0848-8D41-DB9647918EC4}" name="Column116"/>
-    <tableColumn id="117" xr3:uid="{1F550BE8-1882-DD40-B0EC-C3C6F50067C2}" name="Column117"/>
-    <tableColumn id="118" xr3:uid="{62D14351-9663-BC4B-B8E7-DEACC41156BD}" name="Column118"/>
-    <tableColumn id="119" xr3:uid="{92ED682F-057B-CC47-9104-2CF1C6F21392}" name="Column119"/>
-    <tableColumn id="120" xr3:uid="{878DDADE-15E0-AE42-AC9E-2BE38C6948D0}" name="Column120"/>
-    <tableColumn id="121" xr3:uid="{8145987B-0014-494F-960B-2D7FA4F9D3C5}" name="Column121"/>
-    <tableColumn id="122" xr3:uid="{4C45045F-7975-F246-B833-DE35B6E63AA2}" name="Column122"/>
-    <tableColumn id="123" xr3:uid="{E51A9E77-9F92-9A41-B5C4-157A2992E0FF}" name="Column123"/>
-    <tableColumn id="124" xr3:uid="{412B059E-A77F-CD47-888D-6378F32679AB}" name="Column124"/>
-    <tableColumn id="125" xr3:uid="{275E352A-DC96-A845-931B-8D6D6F400F30}" name="Column125"/>
-    <tableColumn id="126" xr3:uid="{820CDC73-6C51-FD49-8B84-2A9A5FFD6922}" name="Column126"/>
-    <tableColumn id="127" xr3:uid="{0447FF42-0050-7F4D-822C-5B9A68148ED7}" name="Column127"/>
-    <tableColumn id="128" xr3:uid="{5149FFD3-F0FD-C942-BBD0-684016588A8F}" name="Column128"/>
-    <tableColumn id="129" xr3:uid="{5623B97F-3B4E-7E42-86F5-D07A19B313C7}" name="Column129"/>
-    <tableColumn id="130" xr3:uid="{A9AD463F-C8E0-F041-9A9E-4B5AA85C5B19}" name="Column130"/>
-    <tableColumn id="131" xr3:uid="{D817F331-C626-7341-B9EF-9BF1FE6AF3A4}" name="Column131"/>
-    <tableColumn id="132" xr3:uid="{7DBC4586-F129-DB4E-8957-E6929B9340E6}" name="Column132"/>
-    <tableColumn id="133" xr3:uid="{C757B2D1-9CEA-A94F-BBA8-4D0F4FF49CB3}" name="Column133"/>
-    <tableColumn id="134" xr3:uid="{7EE3E355-1356-D444-935E-042553855F54}" name="Column134"/>
-    <tableColumn id="135" xr3:uid="{1D86B37A-0EEF-C342-A895-6DD1A737A9E9}" name="Column135"/>
-    <tableColumn id="136" xr3:uid="{60A9C199-9C82-2945-8CCF-9C8DC10586F8}" name="Column136"/>
-    <tableColumn id="137" xr3:uid="{E3AB6213-0099-7143-9187-D953362A3220}" name="Column137"/>
-    <tableColumn id="138" xr3:uid="{DD903DD9-8579-DE43-BE9E-498F76077B9D}" name="Column138"/>
-    <tableColumn id="139" xr3:uid="{7615696E-F236-784B-879F-E96C27EB8BCD}" name="Column139"/>
-    <tableColumn id="140" xr3:uid="{13FC611A-7F4F-4147-B7B4-93E17B61810B}" name="Column140"/>
-    <tableColumn id="141" xr3:uid="{4CC0DF2B-36B7-AD4C-929A-B0BA0A227BF2}" name="Column141"/>
-    <tableColumn id="142" xr3:uid="{F99B3343-3A92-A845-AB21-4EF54CD441A4}" name="Column142"/>
-    <tableColumn id="143" xr3:uid="{B17D9661-7115-E640-AFE1-B5DF481967E3}" name="Column143"/>
-    <tableColumn id="144" xr3:uid="{CB63652F-211E-2A46-9189-D5D635C54E82}" name="Column144"/>
-    <tableColumn id="145" xr3:uid="{CBAF6393-2DD0-0A42-8ACC-619BDEDDEA64}" name="Column145"/>
-    <tableColumn id="146" xr3:uid="{A994BDBA-8B84-3742-A685-29C90A1378D5}" name="Column146"/>
-    <tableColumn id="147" xr3:uid="{A6B49EF2-A086-914E-878A-37222192421F}" name="Column147"/>
-    <tableColumn id="148" xr3:uid="{8BAB4B02-546C-D24F-A699-92C844614D3C}" name="Column148"/>
-    <tableColumn id="149" xr3:uid="{CBAA3FF5-4DFD-3C4D-9A44-3A315944ACAD}" name="Column149"/>
-    <tableColumn id="150" xr3:uid="{9F6B7C08-702C-5949-B00D-7BA6776D30A9}" name="Column150"/>
-    <tableColumn id="151" xr3:uid="{7646A901-0E47-CD46-8F69-2FB0333163BA}" name="Column151"/>
-    <tableColumn id="152" xr3:uid="{DF09FC8F-182F-2A41-8D95-E14A22870483}" name="Column152"/>
-    <tableColumn id="153" xr3:uid="{CB57469C-B2C0-524B-AD1D-33589D8777E8}" name="Column153"/>
-    <tableColumn id="154" xr3:uid="{154C4AC3-E2C8-8040-8CF5-4370F3F3626B}" name="Column154"/>
-    <tableColumn id="155" xr3:uid="{6D47F72F-538C-C749-9661-A93E084B28C6}" name="Column155"/>
-    <tableColumn id="156" xr3:uid="{53BC6210-7070-0542-B667-D00031A1663B}" name="Column156"/>
-    <tableColumn id="157" xr3:uid="{E8199869-02D1-2C4B-AA6F-DBC800FCB996}" name="Column157"/>
-    <tableColumn id="158" xr3:uid="{04F40140-86C4-B748-A5EB-87876A01FECF}" name="Column158"/>
-    <tableColumn id="159" xr3:uid="{6B7AAD3D-D641-1945-9C75-F99BD6D4D068}" name="Column159"/>
-    <tableColumn id="160" xr3:uid="{6F2E3831-D6A9-8741-BD57-A83C7EDA4187}" name="Column160"/>
-    <tableColumn id="161" xr3:uid="{A6D725AE-F1B0-4B43-AF8C-BB362446E276}" name="Column161"/>
-    <tableColumn id="162" xr3:uid="{4EAF446C-4158-6C44-8835-3462071FB787}" name="Column162"/>
-    <tableColumn id="163" xr3:uid="{A198F075-E7DC-D54F-AAB8-3BA962CA497B}" name="Column163"/>
-    <tableColumn id="164" xr3:uid="{EA9396C0-68AA-664D-8A73-094DBC2BE635}" name="Column164"/>
-    <tableColumn id="165" xr3:uid="{70CA1790-A2C0-1940-93EE-E69C7CBE0056}" name="Column165"/>
-    <tableColumn id="166" xr3:uid="{30C8E514-FD13-9844-9EE0-B335F375D623}" name="Column166"/>
-    <tableColumn id="167" xr3:uid="{B0CCE7E6-8996-F94D-8208-14284170D761}" name="Column167"/>
-    <tableColumn id="168" xr3:uid="{3EEDE0E2-6D61-734A-8423-F762BB633C31}" name="Column168"/>
-    <tableColumn id="169" xr3:uid="{F5D18F62-24A4-0546-B5B8-F851FD5ECF82}" name="Column169"/>
-    <tableColumn id="170" xr3:uid="{A7EE44CE-C764-A649-8D98-B78D30C89D3D}" name="Column170"/>
-    <tableColumn id="171" xr3:uid="{5FBA8371-7C01-144E-846C-A524D9874759}" name="Column171"/>
-    <tableColumn id="172" xr3:uid="{625FF50B-AD51-5148-8716-FDB21BF50E4A}" name="Column172"/>
-    <tableColumn id="173" xr3:uid="{1E715B1A-CEEF-F54C-BC3F-1C1A5F4B906C}" name="Column173"/>
-    <tableColumn id="174" xr3:uid="{1C0FADB2-2FB3-E345-B7E0-DA95C993C87E}" name="Column174"/>
-    <tableColumn id="175" xr3:uid="{D985FEB3-F072-8144-A0B0-38836676EADA}" name="Column175"/>
-    <tableColumn id="176" xr3:uid="{9FD14BBA-E22B-BE42-8378-DC6C3C510EBD}" name="Column176"/>
-    <tableColumn id="177" xr3:uid="{B7200240-68B6-B047-904F-5ECAC547C0F5}" name="Column177"/>
-    <tableColumn id="178" xr3:uid="{E95E48F2-AC42-FE4A-81D4-73F000880373}" name="Column178"/>
-    <tableColumn id="179" xr3:uid="{6117C423-F5DC-A944-8BD6-CBAA03AF057A}" name="Column179"/>
-    <tableColumn id="180" xr3:uid="{4DD65717-9F43-3740-A9B5-3633BC6A9D09}" name="Column180"/>
-    <tableColumn id="181" xr3:uid="{6AC5D33E-4E8B-154B-B99F-8DA484693CC8}" name="Column181"/>
-    <tableColumn id="182" xr3:uid="{70ABB5B2-B9CD-A740-85B4-434A99012F0D}" name="Column182"/>
-    <tableColumn id="183" xr3:uid="{FC88F9B7-64C7-B740-A74C-B57B09B701A4}" name="Column183"/>
-    <tableColumn id="184" xr3:uid="{F8DED7D0-EA90-7C46-9B45-2D95FF4BECFB}" name="Column184"/>
-    <tableColumn id="185" xr3:uid="{943C9E59-5909-2D4D-BF12-A6805B1F1B47}" name="Column185"/>
-    <tableColumn id="186" xr3:uid="{5C3A8EF6-0925-3A4A-B8E1-4B045CFDFF66}" name="Column186"/>
-    <tableColumn id="187" xr3:uid="{8BECDC48-39CF-884F-91B4-24AC22E7ABAD}" name="Column187"/>
-    <tableColumn id="188" xr3:uid="{3FA68C3E-E664-0448-BC36-5946AE1D51D5}" name="Column188"/>
-    <tableColumn id="189" xr3:uid="{BE901376-027C-DC4E-905C-9CEF2957E591}" name="Column189"/>
-    <tableColumn id="190" xr3:uid="{69E67363-FDBE-C644-9F76-5D89F100055C}" name="Column190"/>
-    <tableColumn id="191" xr3:uid="{A9A53E42-5C41-EE46-BC9A-70BB2AE8A94B}" name="Column191"/>
-    <tableColumn id="192" xr3:uid="{5198ABE2-A033-FE46-BA78-DA2A0481DBA9}" name="Column192"/>
-    <tableColumn id="193" xr3:uid="{47A6852B-0AE9-9849-9D18-02CE93B5EB75}" name="Column193"/>
-    <tableColumn id="194" xr3:uid="{1382CF91-3597-C34D-A9D3-C7575FA13073}" name="Column194"/>
-    <tableColumn id="195" xr3:uid="{0D97DBC2-0AFF-DF45-8CEC-6C4CB35940AF}" name="Column195"/>
-    <tableColumn id="196" xr3:uid="{4089E294-6553-A542-9AE0-B4D61CAD0AD9}" name="Column196"/>
-    <tableColumn id="197" xr3:uid="{81EB7398-B335-664A-B909-993AE36AFA2D}" name="Column197"/>
-    <tableColumn id="198" xr3:uid="{F3876EE4-8513-7B4A-8C4B-26B8556911C8}" name="Column198"/>
-    <tableColumn id="199" xr3:uid="{3F36BCC5-FE62-434E-945D-7E69BAF24D22}" name="Column199"/>
-    <tableColumn id="200" xr3:uid="{6CC6EF7C-132A-1648-8262-3265D276E0E7}" name="Column200"/>
-    <tableColumn id="201" xr3:uid="{6612EE83-0313-9F41-8453-6DB1B72437C6}" name="Column201"/>
-    <tableColumn id="202" xr3:uid="{331E5534-8668-C642-B172-4B1549C104B0}" name="Column202"/>
-    <tableColumn id="203" xr3:uid="{F3F5EABC-BA48-E74C-ABD3-81099DC1BFA2}" name="Column203"/>
-    <tableColumn id="204" xr3:uid="{07E3ECD9-2E38-9645-ACBD-36846642FD28}" name="Column204"/>
-    <tableColumn id="205" xr3:uid="{79666920-D780-E14C-9D71-07B581616AFC}" name="Column205"/>
-    <tableColumn id="206" xr3:uid="{1A6D7320-7C2F-7247-85F8-C7972E332F40}" name="Column206"/>
-    <tableColumn id="207" xr3:uid="{D721037D-AAFC-0445-8C56-4745A70837CB}" name="Column207"/>
-    <tableColumn id="208" xr3:uid="{093323FA-0F94-5047-8383-8B6707F09E9E}" name="Column208"/>
-    <tableColumn id="209" xr3:uid="{3A3F01DC-A087-EB4C-9F28-B570DEEA23DD}" name="Column209"/>
-    <tableColumn id="210" xr3:uid="{DAE73220-ACFC-FA44-9D0B-8F2CD16EDB64}" name="Column210"/>
-    <tableColumn id="211" xr3:uid="{6C1A31D6-B083-394D-933E-B774BE1A71BD}" name="Column211"/>
-    <tableColumn id="212" xr3:uid="{9284DB7E-6A9A-734F-8252-5E015DFF4DCF}" name="Column212"/>
-    <tableColumn id="213" xr3:uid="{853086A2-572F-8447-A2B5-BEB2CFEECC77}" name="Column213"/>
-    <tableColumn id="214" xr3:uid="{123A41E7-CF32-2141-B2CE-E75D1BC5104A}" name="Column214"/>
-    <tableColumn id="215" xr3:uid="{BD53FEF0-AEB2-4147-9D8D-6D95EA100474}" name="Column215"/>
-    <tableColumn id="216" xr3:uid="{B5A8A93E-E2AA-5B4B-BAA4-CEBE4DF62809}" name="Column216"/>
-    <tableColumn id="217" xr3:uid="{D254BB19-3E41-F54C-9135-638DAC1C7001}" name="Column217"/>
-    <tableColumn id="218" xr3:uid="{4F2D1DF6-D1D8-BE46-982C-997CF5F85F37}" name="Column218"/>
-    <tableColumn id="219" xr3:uid="{43EE6395-5A51-5C48-B3CE-28EBE580B961}" name="Column219"/>
-    <tableColumn id="220" xr3:uid="{DA90A2A4-DE83-F043-A10F-CE825E334CD3}" name="Column220"/>
-    <tableColumn id="221" xr3:uid="{1EA13EAD-F23D-EA41-9EB9-EAAA01802184}" name="Column221"/>
-    <tableColumn id="222" xr3:uid="{9BB6A57A-0D3C-9C4D-B6DE-74F85D683567}" name="Column222"/>
-    <tableColumn id="223" xr3:uid="{53A65F15-9E6B-8042-BA31-BE755382CBB8}" name="Column223"/>
-    <tableColumn id="224" xr3:uid="{E0F4F8DE-9031-6543-B518-888A7905D1E9}" name="Column224"/>
-    <tableColumn id="225" xr3:uid="{8A6BA5FD-1BEF-B442-95AC-6FC6DDC15E23}" name="Column225"/>
-    <tableColumn id="226" xr3:uid="{8EDC922A-CBE2-8449-842C-13B7F2647376}" name="Column226"/>
-    <tableColumn id="227" xr3:uid="{BF015AF3-DCF0-8C4F-88E2-CE316BEE12EC}" name="Column227"/>
-    <tableColumn id="228" xr3:uid="{74DBB45A-6A6E-DD4D-84B7-87E9103BDDE0}" name="Column228"/>
-    <tableColumn id="229" xr3:uid="{DC6B4497-5667-9449-8636-17E32878086F}" name="Column229"/>
-    <tableColumn id="230" xr3:uid="{0DB69E62-FF25-9C4A-9B6D-DBB121739CF9}" name="Column230"/>
-    <tableColumn id="231" xr3:uid="{51771196-818D-A24D-B523-01ED520A153C}" name="Column231"/>
-    <tableColumn id="232" xr3:uid="{7406F79D-F646-9441-BDD7-1F7FAA6DD1CD}" name="Column232"/>
-    <tableColumn id="233" xr3:uid="{59F879E6-81EB-3D46-83B0-42B4AE4093D1}" name="Column233"/>
-    <tableColumn id="234" xr3:uid="{003DC5C5-34E7-C84D-8DDE-E3572274939A}" name="Column234"/>
-    <tableColumn id="235" xr3:uid="{36CAAAAF-02EB-244B-9AD8-03D50A614EDF}" name="Column235"/>
-    <tableColumn id="236" xr3:uid="{8A9515E8-5969-6145-8C5F-AACFD426A3B5}" name="Column236"/>
-    <tableColumn id="237" xr3:uid="{7B6C0B6F-CA06-4542-BCAD-EB7E44522131}" name="Column237"/>
-    <tableColumn id="238" xr3:uid="{0D111325-174B-B642-A00B-D2E648484FA3}" name="Column238"/>
-    <tableColumn id="239" xr3:uid="{42951DBF-672E-FB4D-9B7A-CA19706647AC}" name="Column239"/>
-    <tableColumn id="240" xr3:uid="{7723FD45-1AAC-FE4E-ACF2-3487660FED10}" name="Column240"/>
-    <tableColumn id="241" xr3:uid="{BA4F6A08-77EF-CB41-8295-603E81E205C5}" name="Column241"/>
-    <tableColumn id="242" xr3:uid="{A944F4AA-09D5-5945-8DE3-6A2DDC468E4A}" name="Column242"/>
-    <tableColumn id="243" xr3:uid="{3C06DE40-D4C6-4E47-9EFF-764D424E5880}" name="Column243"/>
-    <tableColumn id="244" xr3:uid="{4BAAC585-4A0D-DF43-907E-76A0959B3A10}" name="Column244"/>
-    <tableColumn id="245" xr3:uid="{482B33BE-5D7A-AD44-B977-BCFC5964E868}" name="Column245"/>
-    <tableColumn id="246" xr3:uid="{EECE3EDF-2204-A844-81D8-0A63B624CFB4}" name="Column246"/>
-    <tableColumn id="247" xr3:uid="{5A30D43C-6749-454F-B67A-CA8EB7B6590C}" name="Column247"/>
-    <tableColumn id="248" xr3:uid="{62AD2DA4-56A3-6542-885B-C44543CAF138}" name="Column248"/>
-    <tableColumn id="249" xr3:uid="{1BE46E7D-B847-4C4C-9566-A1E8A6562E77}" name="Column249"/>
-    <tableColumn id="250" xr3:uid="{3E3B34F2-A80D-1248-94C0-ED9CA60881D0}" name="Column250"/>
-    <tableColumn id="251" xr3:uid="{CCBF6E18-DE34-D74C-99E7-22FECDF89DC7}" name="Column251"/>
-    <tableColumn id="252" xr3:uid="{9596D912-9648-6F42-86A9-AA5ED1BE7022}" name="Column252"/>
-    <tableColumn id="253" xr3:uid="{5D2D1F46-679D-F942-B1AD-8CF4985A3563}" name="Column253"/>
-    <tableColumn id="254" xr3:uid="{77C40FA5-E494-1540-9EB7-B58056A132D9}" name="Column254"/>
-    <tableColumn id="255" xr3:uid="{B1111B4D-B750-444E-845B-2247E11BFE67}" name="Column255"/>
-    <tableColumn id="256" xr3:uid="{620EC2A8-E748-6541-9267-B0B91AB4A4F9}" name="Column256"/>
-    <tableColumn id="257" xr3:uid="{09754C6D-C5B6-F14E-AC56-F19BE5E109B4}" name="Column257"/>
-    <tableColumn id="258" xr3:uid="{6005303B-5E44-B040-8675-5FC2F76A8370}" name="Column258"/>
-    <tableColumn id="259" xr3:uid="{90BA739A-31E3-294A-9F0D-C1603673DFD7}" name="Column259"/>
-    <tableColumn id="260" xr3:uid="{E7209E6C-60C7-B945-9106-B7618EBE9B11}" name="Column260"/>
-    <tableColumn id="261" xr3:uid="{CA288665-0896-C541-86C5-1BD7FA7C4D99}" name="Column261"/>
-    <tableColumn id="262" xr3:uid="{88D558DE-931C-E744-BAF3-FB671AA30DEA}" name="Column262"/>
-    <tableColumn id="263" xr3:uid="{ED008293-4E9D-0443-897E-B87BCA217AA3}" name="Column263"/>
-    <tableColumn id="264" xr3:uid="{E11DC084-ADBB-D040-A00D-B25976295C60}" name="Column264"/>
-    <tableColumn id="265" xr3:uid="{68190E4D-AAA9-3E46-8714-839D387D42B3}" name="Column265"/>
-    <tableColumn id="266" xr3:uid="{9327C972-6DD4-1E4A-85AC-9305F2591321}" name="Column266"/>
-    <tableColumn id="267" xr3:uid="{D11AC79E-1E1D-B342-9143-D0F7E9197BD1}" name="Column267"/>
-    <tableColumn id="268" xr3:uid="{5F208EED-BCDB-3E4B-A648-8CFA9AD626AD}" name="Column268"/>
-    <tableColumn id="269" xr3:uid="{AA43D794-BE34-AA47-BEE6-6D354598D149}" name="Column269"/>
-    <tableColumn id="270" xr3:uid="{2ECA315D-AF7D-E94F-AAAC-0C1AFC8720BF}" name="Column270"/>
-    <tableColumn id="271" xr3:uid="{13A97387-B285-C243-86E0-0E6E8D9CD7CF}" name="Column271"/>
-    <tableColumn id="272" xr3:uid="{6E0300AC-4965-CF4D-9526-98E1022AF27B}" name="Column272"/>
-    <tableColumn id="273" xr3:uid="{B88673F8-6933-F14C-A7A4-245BF915AC5B}" name="Column273"/>
-    <tableColumn id="274" xr3:uid="{3A9C8960-8DDB-664C-A3AB-FAA2E98A7159}" name="Column274"/>
-    <tableColumn id="275" xr3:uid="{4FED4949-D8C8-BD48-BF8E-601CE41EC49D}" name="Column275"/>
-    <tableColumn id="276" xr3:uid="{8D982BA9-3EE5-574B-9FC6-F38BEA2D30E3}" name="Column276"/>
-    <tableColumn id="277" xr3:uid="{90804266-2E1C-5E48-B7A7-08CE455496D9}" name="Column277"/>
-    <tableColumn id="278" xr3:uid="{08CE79CE-8F25-8249-82DD-A3F73A3BEA3A}" name="Column278"/>
-    <tableColumn id="279" xr3:uid="{AEF11FEB-4E38-7244-9F4E-280CDC42CFB7}" name="Column279"/>
-    <tableColumn id="280" xr3:uid="{C59134F6-6083-D84A-B660-E523E7FE9235}" name="Column280"/>
-    <tableColumn id="281" xr3:uid="{61764B6A-6847-3B49-9CD4-51E3D092270C}" name="Column281"/>
-    <tableColumn id="282" xr3:uid="{6A166419-DADF-E149-B8AD-2DFC8D7DE8D9}" name="Column282"/>
-    <tableColumn id="283" xr3:uid="{818F34DC-25B1-6545-87DF-56B735055C62}" name="Column283"/>
-    <tableColumn id="284" xr3:uid="{52BD87F0-0171-D449-87A9-D34A27C581A4}" name="Column284"/>
-    <tableColumn id="285" xr3:uid="{3AC3B073-2096-2C4C-9385-9BF386C8BC85}" name="Column285"/>
-    <tableColumn id="286" xr3:uid="{85094345-519F-2F4E-9574-82E085476DCE}" name="Column286"/>
-    <tableColumn id="287" xr3:uid="{ADD21047-1845-4541-905E-9FBAD7A4AFB4}" name="Column287"/>
-    <tableColumn id="288" xr3:uid="{F392DAA7-0764-E64C-A5C6-BCEF627BFE9B}" name="Column288"/>
-    <tableColumn id="289" xr3:uid="{2657A927-47E7-DA49-8EDB-3960C6DB4CDB}" name="Column289"/>
-    <tableColumn id="290" xr3:uid="{A60D069E-E422-C74B-858F-1343B2342E4D}" name="Column290"/>
-    <tableColumn id="291" xr3:uid="{399C3FD4-DC2D-3C43-A11B-911E9CCD7A72}" name="Column291"/>
-    <tableColumn id="292" xr3:uid="{29470B1D-1478-5446-8E0B-4EE1B10492B1}" name="Column292"/>
-    <tableColumn id="293" xr3:uid="{7D573D0B-5B8A-EB4E-B936-C8454C87A1AE}" name="Column293"/>
-    <tableColumn id="294" xr3:uid="{59A74B58-D477-9F43-8B98-218032DD5216}" name="Column294"/>
-    <tableColumn id="295" xr3:uid="{3CE7B577-B9C4-0143-BE80-71810253390C}" name="Column295"/>
-    <tableColumn id="296" xr3:uid="{6C6C304D-4FC7-824F-9F90-14A1E0F843CF}" name="Column296"/>
-    <tableColumn id="297" xr3:uid="{809E749C-41A3-8140-A90B-2E5DEE5EF6F9}" name="Column297"/>
-    <tableColumn id="298" xr3:uid="{A342E585-BA74-D644-B881-FF65EE0764F2}" name="Column298"/>
-    <tableColumn id="299" xr3:uid="{D535EEC1-DB16-AA4E-922A-7E32612A8BD1}" name="Column299"/>
-    <tableColumn id="300" xr3:uid="{1868895C-695F-F341-A159-04C7D46DFB68}" name="Column300"/>
-    <tableColumn id="301" xr3:uid="{66B69B40-1FE6-274A-BAE5-3C46B37B5624}" name="Column301"/>
-    <tableColumn id="302" xr3:uid="{05F2DB0E-4530-0D41-84EA-E961571128B6}" name="Column302"/>
-    <tableColumn id="303" xr3:uid="{E1B3A58C-C8A1-EF45-B432-3619DC781A6F}" name="Column303"/>
-    <tableColumn id="304" xr3:uid="{42A399A7-FD11-0D46-A933-150F41D0A015}" name="Column304"/>
-    <tableColumn id="305" xr3:uid="{C7CB0787-DC21-9149-9BDC-A52ED58E10BB}" name="Column305"/>
-    <tableColumn id="306" xr3:uid="{E94380FC-25E2-0445-9E9F-291962E34018}" name="Column306"/>
-    <tableColumn id="307" xr3:uid="{D57DFE75-0ED6-3C43-B6E4-6C940B807738}" name="Column307"/>
-    <tableColumn id="308" xr3:uid="{7ECE585E-BCCD-1A4A-80FF-D77EC3FB700B}" name="Column308"/>
-    <tableColumn id="309" xr3:uid="{29005370-CCD7-E547-B0D0-B8E6CA80877D}" name="Column309"/>
-    <tableColumn id="310" xr3:uid="{3B24BA46-279F-8A4B-B48E-E3F8047BD93D}" name="Column310"/>
-    <tableColumn id="311" xr3:uid="{54B9D137-5A60-AB42-98E7-2D95A8149947}" name="Column311"/>
-    <tableColumn id="312" xr3:uid="{99B4A849-EB32-CB4A-905F-5DDF76D39873}" name="Column312"/>
-    <tableColumn id="313" xr3:uid="{163AE6AF-EA33-A34B-BDB4-E1B5E56256A3}" name="Column313"/>
-    <tableColumn id="314" xr3:uid="{C746D8E8-4D0A-3840-A375-FFEB77699DFD}" name="Column314"/>
-    <tableColumn id="315" xr3:uid="{B8DDDAAC-A097-584E-9D55-0FB74992C531}" name="Column315"/>
-    <tableColumn id="316" xr3:uid="{7C243D13-2B66-9441-8A41-9AD4C0C5E215}" name="Column316"/>
-    <tableColumn id="317" xr3:uid="{E973F4DA-0184-FC4F-B5F8-5DADDD5A8EE3}" name="Column317"/>
-    <tableColumn id="318" xr3:uid="{B613D643-109C-4C48-AB1F-C5367CE86C1A}" name="Column318"/>
-    <tableColumn id="319" xr3:uid="{6ED087FB-B04D-5941-B50C-3D97DA082FF4}" name="Column319"/>
-    <tableColumn id="320" xr3:uid="{8549834E-9E4C-7E44-A079-90E9E0698268}" name="Column320"/>
-    <tableColumn id="321" xr3:uid="{74E63D51-D5E2-2444-B44C-D1EE93C80192}" name="Column321"/>
-    <tableColumn id="322" xr3:uid="{D1E04F97-7DCF-584D-A7F2-CFC973BE97BE}" name="Column322"/>
-    <tableColumn id="323" xr3:uid="{A3A1C774-FB87-7F4E-AB2A-77B188EAAB0C}" name="Column323"/>
-    <tableColumn id="324" xr3:uid="{18C92C86-9F83-F148-BEF5-E15375CF0086}" name="Column324"/>
-    <tableColumn id="325" xr3:uid="{44362988-0AD9-8143-8DBC-1E892F31C581}" name="Column325"/>
-    <tableColumn id="326" xr3:uid="{B37178B3-A892-6848-93AD-DD5355959731}" name="Column326"/>
-    <tableColumn id="327" xr3:uid="{4439973E-E7D8-224D-92A7-408245323776}" name="Column327"/>
-    <tableColumn id="328" xr3:uid="{F2522DCD-67A8-174E-B99A-1E42D1E6988C}" name="Column328"/>
-    <tableColumn id="329" xr3:uid="{5ABFED3B-8E64-2E4E-BFB9-2CD23EF09A18}" name="Column329"/>
-    <tableColumn id="330" xr3:uid="{7431F1F6-0A1C-B142-A467-928426284E3E}" name="Column330"/>
-    <tableColumn id="331" xr3:uid="{AD16ECCB-29CD-FC45-AAEC-2DCC37A08E08}" name="Column331"/>
-    <tableColumn id="332" xr3:uid="{59B2A13F-ADAA-1C48-8F11-80EBFA0211BE}" name="Column332"/>
-    <tableColumn id="333" xr3:uid="{1CA1C876-E5CC-BA42-907D-511B14124F03}" name="Column333"/>
-    <tableColumn id="334" xr3:uid="{B2C7AB27-8509-B24F-A3D7-64F4A4370DA1}" name="Column334"/>
-    <tableColumn id="335" xr3:uid="{0F0C0CCD-0EF5-DA4E-89B5-196E4ABBC1F9}" name="Column335"/>
-    <tableColumn id="336" xr3:uid="{B12737F3-28F8-E245-BDBB-B688D81CE522}" name="Column336"/>
-    <tableColumn id="337" xr3:uid="{C349E2E8-DE98-954F-8533-AFB3BEE57057}" name="Column337"/>
-    <tableColumn id="338" xr3:uid="{923CECD9-61AB-6741-BB2F-C42A54189568}" name="Column338"/>
-    <tableColumn id="339" xr3:uid="{E7330276-58CA-2246-B984-3210E0F344E3}" name="Column339"/>
-    <tableColumn id="340" xr3:uid="{A9CD4985-05EB-8D4C-AC20-485BFDD068AB}" name="Column340"/>
-    <tableColumn id="341" xr3:uid="{7E23BC96-9D03-7B43-869B-06C00C53A9E3}" name="Column341"/>
-    <tableColumn id="342" xr3:uid="{83C037BF-945A-B147-A616-38DA16DB8652}" name="Column342"/>
-    <tableColumn id="343" xr3:uid="{4128474C-77D5-7B41-8DE5-09E4DE93AE50}" name="Column343"/>
-    <tableColumn id="344" xr3:uid="{07A92721-6F6C-8E4C-82F7-130096017B42}" name="Column344"/>
-    <tableColumn id="345" xr3:uid="{E20C79A2-0470-5A44-9F4A-C729AF6F164D}" name="Column345"/>
-    <tableColumn id="346" xr3:uid="{3E8CFFA5-A483-7140-9C38-2B2C0AB5E686}" name="Column346"/>
-    <tableColumn id="347" xr3:uid="{4F725C13-B14F-AA4C-80D0-B7CDF0B36DEF}" name="Column347"/>
-    <tableColumn id="348" xr3:uid="{78211EB7-02B2-6045-AC2F-BBCCAD7C3A35}" name="Column348"/>
-    <tableColumn id="349" xr3:uid="{786577D5-2763-5F47-825C-FD14B7313CBE}" name="Column349"/>
-    <tableColumn id="350" xr3:uid="{205D315B-7C52-224E-9C43-0B082311A16B}" name="Column350"/>
-    <tableColumn id="351" xr3:uid="{167E7790-B4C7-8446-827A-4896EB77AC04}" name="Column351"/>
-    <tableColumn id="352" xr3:uid="{B33D8E8D-570A-4D4B-A33E-AB87F5C5E294}" name="Column352"/>
-    <tableColumn id="353" xr3:uid="{85E20C1F-CF17-6E4F-A812-D047ACAB9712}" name="Column353"/>
-    <tableColumn id="354" xr3:uid="{9D780792-D4E3-B54C-BF64-E2B8E40C11B4}" name="Column354"/>
-    <tableColumn id="355" xr3:uid="{47D0AAB4-7719-B74D-9F31-FE1217D9CC0B}" name="Column355"/>
-    <tableColumn id="356" xr3:uid="{A2025F60-FADD-5E43-B5B6-49D8E0F1EE14}" name="Column356"/>
-    <tableColumn id="357" xr3:uid="{69D5D420-2439-F047-92F9-837055B93C24}" name="Column357"/>
-    <tableColumn id="358" xr3:uid="{3CA34E32-0F84-BE4C-91B7-999A87D04D87}" name="Column358"/>
-    <tableColumn id="359" xr3:uid="{0BF733B4-D60D-F74B-A231-F62CCA504EBB}" name="Column359"/>
-    <tableColumn id="360" xr3:uid="{F8BCD558-E97C-D94E-943F-4E8AC3F16548}" name="Column360"/>
-    <tableColumn id="361" xr3:uid="{607BF2E2-0AB2-8D41-A446-075886D848AC}" name="Column361"/>
-    <tableColumn id="362" xr3:uid="{079B3CFB-E66D-934A-95CD-3BB2BA81BB91}" name="Column362"/>
-    <tableColumn id="363" xr3:uid="{D991EC97-1D6F-C64F-9BE3-F19A9D77D1F0}" name="Column363"/>
-    <tableColumn id="364" xr3:uid="{15B781C2-E5E3-4C4B-974F-6800D35518BB}" name="Column364"/>
-    <tableColumn id="365" xr3:uid="{4B1D6058-982D-8144-B54F-4AB4515CC9AB}" name="Column365"/>
-    <tableColumn id="366" xr3:uid="{A60878EC-8854-B74B-BA8E-2B12D52AE30F}" name="Column366"/>
-    <tableColumn id="367" xr3:uid="{471CBDD6-6E1F-FC40-B7B0-67DF828C4578}" name="Column367"/>
-    <tableColumn id="368" xr3:uid="{58B0A495-80D5-C441-B201-C17961EE1BF8}" name="Column368"/>
-    <tableColumn id="369" xr3:uid="{6D95CF40-4726-684E-A3B7-148989B16209}" name="Column369"/>
-    <tableColumn id="370" xr3:uid="{7325ECD0-8F2C-1744-985E-36CDCF569E58}" name="Column370"/>
-    <tableColumn id="371" xr3:uid="{7AECA46D-57D8-CF4D-A8B9-7406298ED017}" name="Column371"/>
-    <tableColumn id="372" xr3:uid="{946323C3-7057-B84F-BCBD-AA5A37434EDD}" name="Column372"/>
-    <tableColumn id="373" xr3:uid="{34616F1C-D037-8940-9925-767889CC570B}" name="Column373"/>
-    <tableColumn id="374" xr3:uid="{4A9A4F5A-B188-0C40-B1FF-15BDAB67F12F}" name="Column374"/>
-    <tableColumn id="375" xr3:uid="{BF95316B-FF5F-D246-BB23-C3FFACF0D9E5}" name="Column375"/>
-    <tableColumn id="376" xr3:uid="{CD0C624F-68FC-2147-84C8-396CF06F5580}" name="Column376"/>
-    <tableColumn id="377" xr3:uid="{87D632F3-BEA9-AF49-A980-4EF95C1DAE70}" name="Column377"/>
-    <tableColumn id="378" xr3:uid="{8A7B0388-E07E-AC4D-BB65-53BC5E25F22F}" name="Column378"/>
-    <tableColumn id="379" xr3:uid="{2E302FCF-2AA5-0E4D-9B32-58E1CFB896D4}" name="Column379"/>
-    <tableColumn id="380" xr3:uid="{E86FF1A5-B6D3-AF4E-9B81-5685D9D3C30F}" name="Column380"/>
-    <tableColumn id="381" xr3:uid="{DCB2C722-F6C3-F34D-A908-2C322DD6BD43}" name="Column381"/>
-    <tableColumn id="382" xr3:uid="{CF8AD5D0-894B-664A-BE8F-2773D7C337F3}" name="Column382"/>
-    <tableColumn id="383" xr3:uid="{5BB2BD06-B3B9-6D4F-9BCC-E5318DAAD3F3}" name="Column383"/>
-    <tableColumn id="384" xr3:uid="{9C133863-C156-7641-8154-FAADC16EC9B6}" name="Column384"/>
-    <tableColumn id="385" xr3:uid="{D5D24BD8-E356-3B40-8D6A-415F006868BC}" name="Column385"/>
-    <tableColumn id="386" xr3:uid="{1599BE1B-12AD-714A-8BC7-6C335ABD4BEE}" name="Column386"/>
-    <tableColumn id="387" xr3:uid="{D7638EC2-9210-AD43-A160-8DDFF8ADED94}" name="Column387"/>
-    <tableColumn id="388" xr3:uid="{FC7E4E3A-8FFF-544F-87D3-857B4DE7B68D}" name="Column388"/>
-    <tableColumn id="389" xr3:uid="{971332FE-76FF-474E-9674-02FB1FAEC797}" name="Column389"/>
-    <tableColumn id="390" xr3:uid="{125CC38B-0FD2-6F41-A6B8-BA43F8E3377B}" name="Column390"/>
-    <tableColumn id="391" xr3:uid="{CA2E260A-281F-CF4F-A12E-C96A729B1BA3}" name="Column391"/>
-    <tableColumn id="392" xr3:uid="{80FD32B8-305A-084E-9381-092B99ED6580}" name="Column392"/>
-    <tableColumn id="393" xr3:uid="{9BDBFCF0-5204-7E40-9D5E-56202052EFCE}" name="Column393"/>
-    <tableColumn id="394" xr3:uid="{272BE2EE-39A2-BA4D-B589-E7710B0CAFAA}" name="Column394"/>
-    <tableColumn id="395" xr3:uid="{0DA02FA8-AB37-1F4F-BD22-5FE8B82BCAD2}" name="Column395"/>
-    <tableColumn id="396" xr3:uid="{F0C7D06E-D89D-7546-A1B8-6D19AF4857F8}" name="Column396"/>
-    <tableColumn id="397" xr3:uid="{3A541A57-F203-3D4C-A5D4-D7EFBFE3B0E0}" name="Column397"/>
-    <tableColumn id="398" xr3:uid="{0CC8312F-3DCD-1F40-BFDF-DB717183FCFD}" name="Column398"/>
-    <tableColumn id="399" xr3:uid="{5AE11970-81B1-E840-BD18-E399BF0458DF}" name="Column399"/>
-    <tableColumn id="400" xr3:uid="{07A6CACC-3F6F-114A-884A-70BA6503298C}" name="Column400"/>
-    <tableColumn id="401" xr3:uid="{4B4BF5B8-9E65-F34D-B524-B2224BA81745}" name="Column401"/>
-    <tableColumn id="402" xr3:uid="{29E491E7-88CA-184F-9E65-96ECF84F65DC}" name="Column402"/>
-    <tableColumn id="403" xr3:uid="{0F41D7C7-7DA4-A440-9716-327675374080}" name="Column403"/>
-    <tableColumn id="404" xr3:uid="{C96206B6-C2FD-CE4F-B0A7-7CC967A3E5D8}" name="Column404"/>
-    <tableColumn id="405" xr3:uid="{01140CEE-2EA7-5F4E-928B-FF159C8C26B8}" name="Column405"/>
-    <tableColumn id="406" xr3:uid="{6AC89AC5-CB86-294F-A35D-D85293770BEC}" name="Column406"/>
-    <tableColumn id="407" xr3:uid="{F2D617F6-DA08-DC42-81AE-C83D52CA5607}" name="Column407"/>
-    <tableColumn id="408" xr3:uid="{1603B2DA-0240-5542-A1F9-A61CE2153DEE}" name="Column408"/>
-    <tableColumn id="409" xr3:uid="{18537931-1A8C-984D-AC05-FEB4020D81B9}" name="Column409"/>
-    <tableColumn id="410" xr3:uid="{BB97EA2C-0C7F-5848-A2EE-A054E3CF8CF3}" name="Column410"/>
-    <tableColumn id="411" xr3:uid="{9E95A577-DCAC-EE44-B509-05E95BFAE9F7}" name="Column411"/>
-    <tableColumn id="412" xr3:uid="{3CD01941-3BEB-3147-9BCB-556C0822659E}" name="Column412"/>
-    <tableColumn id="413" xr3:uid="{F82C4EA3-790A-9A48-AF99-60737DFE340A}" name="Column413"/>
-    <tableColumn id="414" xr3:uid="{84DFB4FE-3708-C142-9418-0B72C67032BA}" name="Column414"/>
-    <tableColumn id="415" xr3:uid="{00901DDF-A34E-E44A-A11F-A3678736AE6E}" name="Column415"/>
-    <tableColumn id="416" xr3:uid="{E9ADD31D-FF27-2F4A-A87C-22647BAEB98E}" name="Column416"/>
-    <tableColumn id="417" xr3:uid="{3461D85B-05A7-574B-A4CB-3FF05B2DCCE2}" name="Column417"/>
-    <tableColumn id="418" xr3:uid="{507A46A7-59BD-EC4F-89BF-A76CA8F9FB1F}" name="Column418"/>
-    <tableColumn id="419" xr3:uid="{3C07C6A1-FBC7-8B44-BFAA-3099CD67DEBF}" name="Column419"/>
-    <tableColumn id="420" xr3:uid="{BF3C1837-880B-0544-9D83-EEA0F52C9894}" name="Column420"/>
-    <tableColumn id="421" xr3:uid="{44E40E32-AB91-CA44-973A-3BD8942C6DD1}" name="Column421"/>
-    <tableColumn id="422" xr3:uid="{05B10D5B-E744-0344-A240-D757D35EB0B7}" name="Column422"/>
-    <tableColumn id="423" xr3:uid="{027E4204-BB35-1746-8E50-8C0CB146F45E}" name="Column423"/>
-    <tableColumn id="424" xr3:uid="{400800A2-F01C-EB46-87C0-9BD2C15BDA2C}" name="Column424"/>
-    <tableColumn id="425" xr3:uid="{7A9A6B7F-1E42-D447-BDE6-C5B1E2CAAD88}" name="Column425"/>
-    <tableColumn id="426" xr3:uid="{1EB2B984-8D5C-6F46-8D38-7F4B88E7584F}" name="Column426"/>
-    <tableColumn id="427" xr3:uid="{D853E243-2ABA-5542-B73A-F0F4A7B39F2D}" name="Column427"/>
-    <tableColumn id="428" xr3:uid="{C52C93FB-7246-E64E-ABFE-C05E78377694}" name="Column428"/>
-    <tableColumn id="429" xr3:uid="{73B828F8-366D-E04B-BE3D-1A8D3624675C}" name="Column429"/>
-    <tableColumn id="430" xr3:uid="{F3E52690-9733-6F48-90B0-F037450DFB7B}" name="Column430"/>
-    <tableColumn id="431" xr3:uid="{56A04E4B-B38C-F84C-986A-00A9EAC61B80}" name="Column431"/>
-    <tableColumn id="432" xr3:uid="{59E8795B-B9D9-EC42-958F-85BCC9246009}" name="Column432"/>
-    <tableColumn id="433" xr3:uid="{806F127E-988C-3046-9A5B-178CBDD330C0}" name="Column433"/>
-    <tableColumn id="434" xr3:uid="{6FBDD23F-821A-B946-8054-2F1BAE5B379D}" name="Column434"/>
-    <tableColumn id="435" xr3:uid="{1B0EDC66-0FD4-A044-A4A5-DFC181BDF47F}" name="Column435"/>
-    <tableColumn id="436" xr3:uid="{4DC7F02B-D595-204B-923D-E2F687794A19}" name="Column436"/>
-    <tableColumn id="437" xr3:uid="{2FF13368-539A-3643-B428-176A835931D9}" name="Column437"/>
-    <tableColumn id="438" xr3:uid="{EAD2D0E4-9513-704D-9306-BF7004F1B173}" name="Column438"/>
-    <tableColumn id="439" xr3:uid="{ECD46353-79FB-A64D-B92B-ED0345E51105}" name="Column439"/>
-    <tableColumn id="440" xr3:uid="{7386DCD1-FA33-644F-A2BE-9FFAE88DB2A5}" name="Column440"/>
-    <tableColumn id="441" xr3:uid="{FFB9025E-AB2A-5C4A-9CC3-B7555162A802}" name="Column441"/>
-    <tableColumn id="442" xr3:uid="{E831A82D-66DB-714C-A6CB-610099D70BAE}" name="Column442"/>
-    <tableColumn id="443" xr3:uid="{7CD2B19E-4665-2445-9689-905D050814A1}" name="Column443"/>
-    <tableColumn id="444" xr3:uid="{F1A20C02-6968-8643-B8B5-30C1E04F74A1}" name="Column444"/>
-    <tableColumn id="445" xr3:uid="{6EC3B191-40C8-224A-935D-B2D46426C8F0}" name="Column445"/>
-    <tableColumn id="446" xr3:uid="{426E21E7-97F9-7E4C-AE78-F66B2E7FA3AF}" name="Column446"/>
-    <tableColumn id="447" xr3:uid="{7C700A33-DD21-BC4D-9E04-C1728602B0C7}" name="Column447"/>
-    <tableColumn id="448" xr3:uid="{E03F3B1D-01BD-FA41-99B8-C92FB5736FAF}" name="Column448"/>
-    <tableColumn id="449" xr3:uid="{6836E2C8-E1AE-6345-924D-AB1C94411953}" name="Column449"/>
-    <tableColumn id="450" xr3:uid="{5E874BCC-5E52-B344-855A-B8847CDCD662}" name="Column450"/>
-    <tableColumn id="451" xr3:uid="{DCEBC12F-CDCE-D24A-B96B-8C98FE5D1B1A}" name="Column451"/>
-    <tableColumn id="452" xr3:uid="{C8BD87B9-AF89-4949-AC27-DC3A857D6432}" name="Column452"/>
-    <tableColumn id="453" xr3:uid="{7E3AC302-465C-EE43-A0C5-1FD0208CBF28}" name="Column453"/>
-    <tableColumn id="454" xr3:uid="{9DE29A6B-73F1-DF40-B803-549B1351E5EC}" name="Column454"/>
-    <tableColumn id="455" xr3:uid="{3A2AAA8D-6651-0B46-B0BC-DF346BBA4282}" name="Column455"/>
-    <tableColumn id="456" xr3:uid="{354E3CA6-3F73-0649-B14D-70D5C1467DF7}" name="Column456"/>
-    <tableColumn id="457" xr3:uid="{E53ED122-B854-AF42-B8E9-71CFFAF1B986}" name="Column457"/>
-    <tableColumn id="458" xr3:uid="{7C227632-CA83-7E42-B2AC-884C2D0D4D6C}" name="Column458"/>
-    <tableColumn id="459" xr3:uid="{E0FC2FFB-6E2D-6045-90AC-5E99FD1927A1}" name="Column459"/>
-    <tableColumn id="460" xr3:uid="{1B66528C-3C53-AC47-BE81-526EB17BAEB7}" name="Column460"/>
-    <tableColumn id="461" xr3:uid="{F6545266-816C-5C4A-9C74-6B9A347AC11B}" name="Column461"/>
-    <tableColumn id="462" xr3:uid="{E6C7A7A8-CCA1-D24D-9767-BBFF9CF1B182}" name="Column462"/>
-    <tableColumn id="463" xr3:uid="{AE5947F7-12EF-B74D-9EEE-6931900CC61D}" name="Column463"/>
-    <tableColumn id="464" xr3:uid="{75F28960-E20F-BF42-BF9B-8110DDDCBD17}" name="Column464"/>
-    <tableColumn id="465" xr3:uid="{98FCF7EF-4590-F549-BC36-02213725AFE6}" name="Column465"/>
-    <tableColumn id="466" xr3:uid="{27853BCF-87DA-EA4E-AE5B-F930B06F7464}" name="Column466"/>
-    <tableColumn id="467" xr3:uid="{D2BB50FD-7CCB-874D-BA1F-626D68429F70}" name="Column467"/>
-    <tableColumn id="468" xr3:uid="{074483E9-AD0C-2941-A5FB-9A606764A133}" name="Column468"/>
-    <tableColumn id="469" xr3:uid="{176ECAE6-51EA-4D4F-B9B5-D6CB9F5876DD}" name="Column469"/>
-    <tableColumn id="470" xr3:uid="{C5CB4FD6-5E25-FD4E-A966-C62024ECF26C}" name="Column470"/>
-    <tableColumn id="471" xr3:uid="{95367389-8749-B649-BB90-A8DC449C956C}" name="Column471"/>
-    <tableColumn id="472" xr3:uid="{CE0EF695-98EB-E743-BC76-3C6B40482744}" name="Column472"/>
-    <tableColumn id="473" xr3:uid="{EC00AD8B-3CA3-CE4B-9C9A-0F183DFDA7F7}" name="Column473"/>
-    <tableColumn id="474" xr3:uid="{0340DC89-65F8-E641-815D-A5F123343D20}" name="Column474"/>
-    <tableColumn id="475" xr3:uid="{3B78BE40-6712-E447-B797-EB1291C412E5}" name="Column475"/>
-    <tableColumn id="476" xr3:uid="{FD619D9E-BA8C-974D-9D88-020F9F06F029}" name="Column476"/>
-    <tableColumn id="477" xr3:uid="{64133EA5-9E31-924E-9280-47AA8672767A}" name="Column477"/>
-    <tableColumn id="478" xr3:uid="{82909095-F873-AA40-81E3-612DB69F706A}" name="Column478"/>
-    <tableColumn id="479" xr3:uid="{9F3C83CC-7DBF-B941-AD53-A977114F1658}" name="Column479"/>
-    <tableColumn id="480" xr3:uid="{158C0635-DCAA-7A44-8B31-CBCFCE679F4B}" name="Column480"/>
-    <tableColumn id="481" xr3:uid="{3D2188D0-9E48-3B43-B5EB-8567E91BA5B4}" name="Column481"/>
-    <tableColumn id="482" xr3:uid="{78C4DCFA-F3D2-2143-866C-4E8B37F2887D}" name="Column482"/>
-    <tableColumn id="483" xr3:uid="{C6A44783-E424-DF47-9980-76CC984A16C7}" name="Column483"/>
-    <tableColumn id="484" xr3:uid="{B08CE604-478F-1D42-B54C-9EEE1BAC8CB4}" name="Column484"/>
-    <tableColumn id="485" xr3:uid="{5A008792-1FAE-144E-A99B-BF1C215EDF3C}" name="Column485"/>
-    <tableColumn id="486" xr3:uid="{6B1FA843-E298-CF4E-A39F-E7123704A62D}" name="Column486"/>
-    <tableColumn id="487" xr3:uid="{A007AA58-9E3B-D942-9BD3-1B474498CC7C}" name="Column487"/>
-    <tableColumn id="488" xr3:uid="{FCEB365B-E9C8-2B44-AA3E-7B4CCC8C1B93}" name="Column488"/>
-    <tableColumn id="489" xr3:uid="{44A465FE-1DDA-E44A-B9B7-4F2313E289D7}" name="Column489"/>
-    <tableColumn id="490" xr3:uid="{AEDA4FE4-BD71-C447-B9CF-E28F4D51CC6E}" name="Column490"/>
-    <tableColumn id="491" xr3:uid="{C52CD394-A3E5-464A-9E87-FE17CFD7AE9C}" name="Column491"/>
-    <tableColumn id="492" xr3:uid="{6AC19FA5-626B-AE42-B179-D2E3ADB5F63C}" name="Column492"/>
-    <tableColumn id="493" xr3:uid="{3D985BBC-83C6-0B45-ABC7-340F85378532}" name="Column493"/>
-    <tableColumn id="494" xr3:uid="{6DCB20E4-2E19-2A46-8048-2CC2D8AAB372}" name="Column494"/>
-    <tableColumn id="495" xr3:uid="{4E754B15-E0DB-2346-9F40-B804D45191FB}" name="Column495"/>
-    <tableColumn id="496" xr3:uid="{48032632-FF62-AE4E-89B6-E606658598E3}" name="Column496"/>
-    <tableColumn id="497" xr3:uid="{D937F426-FB62-B048-A6FA-377FCA8737CB}" name="Column497"/>
-    <tableColumn id="498" xr3:uid="{2831AC54-8665-614D-AD7B-5BD3A745F943}" name="Column498"/>
-    <tableColumn id="499" xr3:uid="{F2D977CF-26A9-014A-88C5-BBF6BDA3E0C6}" name="Column499"/>
-    <tableColumn id="500" xr3:uid="{B9C6EDE7-0F88-4143-94B7-7920DDAD0E11}" name="Column500"/>
-    <tableColumn id="501" xr3:uid="{2D8B2C40-B5BD-6A4D-A5A5-2AD588C46437}" name="Column501"/>
-    <tableColumn id="502" xr3:uid="{F9B99A17-A465-F549-8BA1-7F1A0511703B}" name="Column502"/>
-    <tableColumn id="503" xr3:uid="{2C335E30-DA7A-2448-BCD0-AC0AB235C37F}" name="Column503"/>
-    <tableColumn id="504" xr3:uid="{1858A1F9-7FEF-0F47-842A-F84DDE1F477A}" name="Column504"/>
-    <tableColumn id="505" xr3:uid="{0527C80E-B551-974C-8C02-C47CC7BCC54C}" name="Column505"/>
-    <tableColumn id="506" xr3:uid="{75240BF4-1EB8-AA46-97AE-854831F542BA}" name="Column506"/>
-    <tableColumn id="507" xr3:uid="{C5729424-EAD9-B449-99D8-BF0627E27551}" name="Column507"/>
-    <tableColumn id="508" xr3:uid="{4773D0A9-564B-7E4E-80FB-851A010CF4AD}" name="Column508"/>
-    <tableColumn id="509" xr3:uid="{EA2AE64E-C3CB-BF46-A79C-6332E75934F3}" name="Column509"/>
-    <tableColumn id="510" xr3:uid="{0C597087-62CE-714B-9393-3034260E3D24}" name="Column510"/>
-    <tableColumn id="511" xr3:uid="{11111BDC-A73F-6B49-97B4-F72FE75169EF}" name="Column511"/>
-    <tableColumn id="512" xr3:uid="{D54B3A8D-99F8-3B49-AF57-D20F70F40537}" name="Column512"/>
-    <tableColumn id="513" xr3:uid="{DB6EA69A-EE35-3341-8CD2-25BD6E039CF0}" name="Column513"/>
-    <tableColumn id="514" xr3:uid="{C54BCF12-E287-3E43-ACF3-6583929DA080}" name="Column514"/>
-    <tableColumn id="515" xr3:uid="{C3BCC816-99AC-B140-996A-B347B39AA219}" name="Column515"/>
-    <tableColumn id="516" xr3:uid="{A06382A9-17D7-F74C-890C-7E4EAB9FBF6A}" name="Column516"/>
-    <tableColumn id="517" xr3:uid="{EE82080E-0894-A244-8E8F-39D316BCAD89}" name="Column517"/>
-    <tableColumn id="518" xr3:uid="{74F2C8B9-B9EA-EE4E-AAAB-AA23780E35C1}" name="Column518"/>
-    <tableColumn id="519" xr3:uid="{C4D1A6CC-EDE4-D54F-9CDA-0E921EB9895F}" name="Column519"/>
-    <tableColumn id="520" xr3:uid="{BD9FD156-A804-F242-AFBF-53C710A998AC}" name="Column520"/>
-    <tableColumn id="521" xr3:uid="{2036FA54-429A-A345-8612-D767BD273952}" name="Column521"/>
-    <tableColumn id="522" xr3:uid="{EEDF29A6-EBCC-3E42-9694-305F8867ABD2}" name="Column522"/>
-    <tableColumn id="523" xr3:uid="{519111B4-8D2A-7048-B5E5-A7FE7D19815C}" name="Column523"/>
-    <tableColumn id="524" xr3:uid="{9D154BC1-C4EE-EE48-ABFF-C38ABAABCF1B}" name="Column524"/>
-    <tableColumn id="525" xr3:uid="{E4F25E75-FA9C-824D-968D-64D507CBFD96}" name="Column525"/>
-    <tableColumn id="526" xr3:uid="{ACBBC11A-2D75-0A4E-9DEA-9AD21F54D7D1}" name="Column526"/>
-    <tableColumn id="527" xr3:uid="{FCCCBA3E-B942-9D44-80AA-4589068BC091}" name="Column527"/>
-    <tableColumn id="528" xr3:uid="{767D99B7-C1CE-E24E-AEDF-56E1AFF59815}" name="Column528"/>
-    <tableColumn id="529" xr3:uid="{DE0E4E64-A81E-AA43-AE2F-BDA45081FA4C}" name="Column529"/>
-    <tableColumn id="530" xr3:uid="{02D0E291-AB2B-CA47-B74A-36804AA8C399}" name="Column530"/>
-    <tableColumn id="531" xr3:uid="{E41A8032-3A7A-FA4F-821F-CCF398F23311}" name="Column531"/>
-    <tableColumn id="532" xr3:uid="{936F5F6D-1D53-B34D-9631-612C369798C0}" name="Column532"/>
-    <tableColumn id="533" xr3:uid="{6D89373F-1D07-894F-A29A-9760E8EC02B6}" name="Column533"/>
-    <tableColumn id="534" xr3:uid="{400C12CA-8BF6-7547-BCF7-E707E514A9A3}" name="Column534"/>
-    <tableColumn id="535" xr3:uid="{C275D0D5-6D2B-054F-BB2B-0C388E335389}" name="Column535"/>
-    <tableColumn id="536" xr3:uid="{26524546-6BBD-004F-BEC0-3AAAFC55663C}" name="Column536"/>
-    <tableColumn id="537" xr3:uid="{78870729-E4B0-F64C-A442-6B27B7084910}" name="Column537"/>
-    <tableColumn id="538" xr3:uid="{1CB8C995-1C2B-5B4C-A86A-5743A2843376}" name="Column538"/>
-    <tableColumn id="539" xr3:uid="{58CE3EE6-A22B-8F4A-8C78-28AAB4469F0C}" name="Column539"/>
-    <tableColumn id="540" xr3:uid="{B98AE009-D5BB-C046-A4B0-C1D9C9C758BA}" name="Column540"/>
-    <tableColumn id="541" xr3:uid="{06181BCB-D34F-2C43-BA17-23BAC25EE4EF}" name="Column541"/>
-    <tableColumn id="542" xr3:uid="{F0CF33C5-92DE-D847-B9B0-9764F0AB7E0E}" name="Column542"/>
-    <tableColumn id="543" xr3:uid="{5A626525-C602-9541-B9A3-6FFB10E1DB9F}" name="Column543"/>
-    <tableColumn id="544" xr3:uid="{DDD88B30-1AE9-AA4D-81AC-36C031420CAB}" name="Column544"/>
-    <tableColumn id="545" xr3:uid="{CF26503E-2F50-1F48-96D9-D26B9BF0B6CE}" name="Column545"/>
-    <tableColumn id="546" xr3:uid="{D92C9C59-68DE-6041-B1E0-9830E7426FB3}" name="Column546"/>
-    <tableColumn id="547" xr3:uid="{5E21792C-D048-8648-A252-F9EA23949B54}" name="Column547"/>
-    <tableColumn id="548" xr3:uid="{B524A1F8-78AB-3243-9304-98F3FBD83922}" name="Column548"/>
-    <tableColumn id="549" xr3:uid="{699B1F0C-EEE6-8148-A26B-1BEE7C73402A}" name="Column549"/>
-    <tableColumn id="550" xr3:uid="{AFB47ED0-F399-2E42-990E-224B5EE8BC15}" name="Column550"/>
-    <tableColumn id="551" xr3:uid="{CB3EF276-D158-AB49-A6CB-DFA6B75025B2}" name="Column551"/>
-    <tableColumn id="552" xr3:uid="{150ED604-AAC8-E143-B0B5-D455497A591F}" name="Column552"/>
-    <tableColumn id="553" xr3:uid="{563328F7-1377-D541-9EBB-73B1980CF117}" name="Column553"/>
-    <tableColumn id="554" xr3:uid="{BCC1C18B-EEF0-A14D-894D-37D62B145153}" name="Column554"/>
-    <tableColumn id="555" xr3:uid="{E720318B-C056-C34E-9558-F7576D30248E}" name="Column555"/>
-    <tableColumn id="556" xr3:uid="{400BA49E-6760-D645-88A5-78CB779B7312}" name="Column556"/>
-    <tableColumn id="557" xr3:uid="{5FC6DC92-C233-B145-A0FD-69441C8EB6E8}" name="Column557"/>
-    <tableColumn id="558" xr3:uid="{CCCB9047-A1B8-3347-B60F-4331843A18B0}" name="Column558"/>
-    <tableColumn id="559" xr3:uid="{F96AA643-4A6F-9F4E-AA1B-4DA7749F5F9B}" name="Column559"/>
-    <tableColumn id="560" xr3:uid="{B63E1939-2C90-E346-A36D-C378993A45A9}" name="Column560"/>
-    <tableColumn id="561" xr3:uid="{C6213F1F-D885-4149-AA4B-8C9714CC1336}" name="Column561"/>
-    <tableColumn id="562" xr3:uid="{A5E6EE30-1248-0D40-9E15-A801423CC3E5}" name="Column562"/>
-    <tableColumn id="563" xr3:uid="{9A4929A5-E0FE-B84C-AF27-2848A8201041}" name="Column563"/>
-    <tableColumn id="564" xr3:uid="{2572D034-8911-1F4D-AD7C-4E174DBD469F}" name="Column564"/>
-    <tableColumn id="565" xr3:uid="{9CAEE056-D5C8-E54F-B80F-D94EAF037EAA}" name="Column565"/>
-    <tableColumn id="566" xr3:uid="{C6063FFE-DF74-7A48-B5C9-916BF50A9B91}" name="Column566"/>
-    <tableColumn id="567" xr3:uid="{C25D381B-2858-DC40-BF9D-3CD1FD06F54D}" name="Column567"/>
-    <tableColumn id="568" xr3:uid="{FDBB6FFC-6C21-AE47-8028-0364CB1BF3F0}" name="Column568"/>
-    <tableColumn id="569" xr3:uid="{7ED27778-64A5-5747-9193-A8C6733D076D}" name="Column569"/>
-    <tableColumn id="570" xr3:uid="{35F91702-E1BF-3C4D-B652-379A0BC2962A}" name="Column570"/>
-    <tableColumn id="571" xr3:uid="{A89418F6-88C7-A747-B210-0977AA087376}" name="Column571"/>
-    <tableColumn id="572" xr3:uid="{2687E32F-0A20-C94F-B0FC-5E0F3F1C1191}" name="Column572"/>
-    <tableColumn id="573" xr3:uid="{817AC075-3939-8E48-9EDF-4EB0D64F5019}" name="Column573"/>
-    <tableColumn id="574" xr3:uid="{07A855BD-5534-2A4E-B24A-78CBC56E5D02}" name="Column574"/>
-    <tableColumn id="575" xr3:uid="{5B43647C-AE06-DA48-B3BE-632035488302}" name="Column575"/>
-    <tableColumn id="576" xr3:uid="{7AB9325D-800F-D34B-B824-40B0FDA637C5}" name="Column576"/>
-    <tableColumn id="577" xr3:uid="{45CF6547-163B-F74B-AA0E-876FD1D245CB}" name="Column577"/>
-    <tableColumn id="578" xr3:uid="{BD5C2344-02C7-E44C-B719-13A9CF031A48}" name="Column578"/>
-    <tableColumn id="579" xr3:uid="{B4E5E697-A468-1A45-96AC-5D8AEB597B76}" name="Column579"/>
-    <tableColumn id="580" xr3:uid="{FE18508E-8B84-6941-A3A4-5A52D5DE4EC7}" name="Column580"/>
-    <tableColumn id="581" xr3:uid="{0AA30ADD-B56B-374D-BC15-A059BF88339D}" name="Column581"/>
-    <tableColumn id="582" xr3:uid="{D89AA4D8-49F1-AA41-8528-6FEA2BFAA2FB}" name="Column582"/>
-    <tableColumn id="583" xr3:uid="{512333FA-509B-5345-A5C5-C20AD027F857}" name="Column583"/>
-    <tableColumn id="584" xr3:uid="{00A7FCBE-CD94-4947-8130-C21B275EFF7D}" name="Column584"/>
-    <tableColumn id="585" xr3:uid="{639F5CC9-AA3B-A848-9333-2065F8A3098F}" name="Column585"/>
-    <tableColumn id="586" xr3:uid="{2523C3F3-445B-4643-B00A-18DC2C77797C}" name="Column586"/>
-    <tableColumn id="587" xr3:uid="{9C589453-61F1-E94E-9067-08A8F294F3E6}" name="Column587"/>
-    <tableColumn id="588" xr3:uid="{C63EB81F-F91C-FF4A-995C-55B6DA2EB246}" name="Column588"/>
-    <tableColumn id="589" xr3:uid="{8CE0E309-3092-A649-B203-9A54B8CA0284}" name="Column589"/>
-    <tableColumn id="590" xr3:uid="{BE168629-BB80-D54E-A9FE-CB09FC3F7D5C}" name="Column590"/>
-    <tableColumn id="591" xr3:uid="{5E957717-A4D6-CB40-9B3E-F130A39938CA}" name="Column591"/>
-    <tableColumn id="592" xr3:uid="{F5C74B56-007A-A144-84AB-A0E9583A5B9D}" name="Column592"/>
-    <tableColumn id="593" xr3:uid="{31D3A581-57BF-DF46-8D88-FB99BB8E4AA8}" name="Column593"/>
-    <tableColumn id="594" xr3:uid="{1FD610BF-AE88-954E-9AE8-E22D1D6E1CE5}" name="Column594"/>
-    <tableColumn id="595" xr3:uid="{365F5DD4-9A8C-B84A-AD0C-2F8BD6C82BBF}" name="Column595"/>
-    <tableColumn id="596" xr3:uid="{4D5A78F7-A266-6E4F-BFA9-DD90B934D15F}" name="Column596"/>
-    <tableColumn id="597" xr3:uid="{A469A177-5882-1F4E-A9A1-9FBA410789F5}" name="Column597"/>
-    <tableColumn id="598" xr3:uid="{46F9979D-43A5-7842-8A98-9FA73183607A}" name="Column598"/>
-    <tableColumn id="599" xr3:uid="{591AC4CF-AA37-B542-A8B2-80EEBB76BF45}" name="Column599"/>
-    <tableColumn id="600" xr3:uid="{5F03A03D-509C-BF41-B460-79BFC89F78D4}" name="Column600"/>
-    <tableColumn id="601" xr3:uid="{4E42A98E-0A20-CA4D-8FC4-A91395B05E67}" name="Column601"/>
-    <tableColumn id="602" xr3:uid="{D8BCF512-D9B3-A347-A49D-85B6EB6540D4}" name="Column602"/>
-    <tableColumn id="603" xr3:uid="{D92FBEE7-B979-764D-B2CA-4B0DA5C1BA69}" name="Column603"/>
-    <tableColumn id="604" xr3:uid="{47F5420D-AB96-3C46-8EF0-AC3F021C08A7}" name="Column604"/>
-    <tableColumn id="605" xr3:uid="{8AA85478-2BA0-3C49-8CA9-DBB550C788AD}" name="Column605"/>
-    <tableColumn id="606" xr3:uid="{79549BE6-B790-794C-9922-2596DFF3768D}" name="Column606"/>
-    <tableColumn id="607" xr3:uid="{334349DD-B279-544A-A324-0E96F5F21A68}" name="Column607"/>
-    <tableColumn id="608" xr3:uid="{48755675-566E-604E-9A6D-3F47E8C98413}" name="Column608"/>
-    <tableColumn id="609" xr3:uid="{B1C5F75B-0C7C-1942-928C-30C1CEA9A69E}" name="Column609"/>
-    <tableColumn id="610" xr3:uid="{4DE6AA69-4DD4-C440-B735-675DED34F37D}" name="Column610"/>
-    <tableColumn id="611" xr3:uid="{5ADD19BC-2CB1-A342-8B5C-7CA2B4DC0C3A}" name="Column611"/>
-    <tableColumn id="612" xr3:uid="{1B6EEB6C-E6EC-9F41-B04D-E69D28C99A0C}" name="Column612"/>
-    <tableColumn id="613" xr3:uid="{B1AA0F3D-8FFC-7C48-A9D1-44D4F0076A0A}" name="Column613"/>
-    <tableColumn id="614" xr3:uid="{BD87A20B-9249-C64C-B3E0-6DADCA66B68A}" name="Column614"/>
-    <tableColumn id="615" xr3:uid="{84C15FCD-34FB-3D42-94F6-40EC82DB23A4}" name="Column615"/>
-    <tableColumn id="616" xr3:uid="{D2354491-1CE7-0A48-B06B-40AC988EEA23}" name="Column616"/>
-    <tableColumn id="617" xr3:uid="{5ACCA205-7234-B244-AD8B-1B0DF6D7F31E}" name="Column617"/>
-    <tableColumn id="618" xr3:uid="{B1438F90-AD57-FC46-95C2-5BEF749857D1}" name="Column618"/>
-    <tableColumn id="619" xr3:uid="{827B875E-C6D2-0B48-9E82-9D685755E469}" name="Column619"/>
-    <tableColumn id="620" xr3:uid="{5AA008FD-C01A-E341-8CF8-B8F967800207}" name="Column620"/>
-    <tableColumn id="621" xr3:uid="{0FC510FE-4EF9-1546-8DA0-13487CDDE458}" name="Column621"/>
-    <tableColumn id="622" xr3:uid="{55D09CD1-E457-564A-83DA-E07ED7BB6CB6}" name="Column622"/>
-    <tableColumn id="623" xr3:uid="{C0FD458F-D294-4F41-9F5E-07489FBAC7FD}" name="Column623"/>
-    <tableColumn id="624" xr3:uid="{7C9F8724-DAA0-7A44-B349-69906CF4551F}" name="Column624"/>
-    <tableColumn id="625" xr3:uid="{16BB12AD-C8C4-FF42-9340-CED5A8051A6A}" name="Column625"/>
-    <tableColumn id="626" xr3:uid="{686ACDBB-316A-3C45-B6DF-E92368C473D7}" name="Column626"/>
-    <tableColumn id="627" xr3:uid="{2EAA77A8-F742-7545-98A5-4B81E63AA2E2}" name="Column627"/>
-    <tableColumn id="628" xr3:uid="{25D2713E-97D2-BE4C-8C78-ADD5BC665D87}" name="Column628"/>
-    <tableColumn id="629" xr3:uid="{5C6DBA32-8AE5-2842-8354-963767BCAAAB}" name="Column629"/>
-    <tableColumn id="630" xr3:uid="{0C1F7C09-3E10-7842-91CE-6FEC1FED1567}" name="Column630"/>
-    <tableColumn id="631" xr3:uid="{A1B3DF1C-9BF5-0A49-8D12-937330780EFA}" name="Column631"/>
-    <tableColumn id="632" xr3:uid="{76DF1AD9-E498-6845-BE65-DB8A6A32F4F9}" name="Column632"/>
-    <tableColumn id="633" xr3:uid="{3EFFDC5A-F46C-BB4C-830A-CC555C9311F2}" name="Column633"/>
-    <tableColumn id="634" xr3:uid="{075D28E6-1415-F84E-90E6-C66BE10CC6D0}" name="Column634"/>
-    <tableColumn id="635" xr3:uid="{B230B13D-D86E-D04A-A4F6-E65EEBBC4DC0}" name="Column635"/>
-    <tableColumn id="636" xr3:uid="{05E0A263-4E48-E447-A601-AD32A16745FC}" name="Column636"/>
-    <tableColumn id="637" xr3:uid="{DF3B5910-8879-FB40-86C9-F301D1449EA2}" name="Column637"/>
-    <tableColumn id="638" xr3:uid="{ACA4CEB8-C165-0C47-AEDA-F382426BA0C2}" name="Column638"/>
-    <tableColumn id="639" xr3:uid="{72325CEC-03B7-9447-987E-A7E67A8A5334}" name="Column639"/>
-    <tableColumn id="640" xr3:uid="{2DA7DB3B-E0B7-284E-94DC-1D4BC5B4C6C3}" name="Column640"/>
-    <tableColumn id="641" xr3:uid="{49209B4B-E3BA-0940-99F4-10431C39FFC1}" name="Column641"/>
-    <tableColumn id="642" xr3:uid="{1A62D1D7-F910-9140-B954-CEAD26F634DE}" name="Column642"/>
-    <tableColumn id="643" xr3:uid="{23933645-9F53-9343-95B9-6C96E0B33EB0}" name="Column643"/>
-    <tableColumn id="644" xr3:uid="{3B7E094E-463D-5C4E-B33F-8FB1B8A27B9C}" name="Column644"/>
-    <tableColumn id="645" xr3:uid="{BDFE4982-0824-2D41-9912-B4110F3CCA7A}" name="Column645"/>
-    <tableColumn id="646" xr3:uid="{9BFC356C-77E5-2C47-BEF6-310C022E587D}" name="Column646"/>
-    <tableColumn id="647" xr3:uid="{D0035EA1-27D0-F14B-A30E-1AD15FCEE7EF}" name="Column647"/>
-    <tableColumn id="648" xr3:uid="{36AC41FB-99FB-534A-BEAF-19DEA580F80D}" name="Column648"/>
-    <tableColumn id="649" xr3:uid="{B120EC55-E85E-B745-9AD1-D32D491977CF}" name="Column649"/>
-    <tableColumn id="650" xr3:uid="{F5593F5E-EC64-194B-9FF9-E41BE401EACD}" name="Column650"/>
-    <tableColumn id="651" xr3:uid="{E99E3A68-974F-CC47-B22A-BF6DC0010BD5}" name="Column651"/>
-    <tableColumn id="652" xr3:uid="{64D3B87C-6DC9-6E43-8399-2DB4266BD381}" name="Column652"/>
-    <tableColumn id="653" xr3:uid="{3526BCF3-7BD7-2946-9915-32CB6146FD37}" name="Column653"/>
-    <tableColumn id="654" xr3:uid="{B545EF1D-5D9F-2641-B014-FE5CB611094E}" name="Column654"/>
-    <tableColumn id="655" xr3:uid="{B18D08FE-336F-5147-BCD2-F8E6AB983723}" name="Column655"/>
-    <tableColumn id="656" xr3:uid="{4801ABF7-DEFF-4649-9A37-39DEC7516359}" name="Column656"/>
-    <tableColumn id="657" xr3:uid="{6DC57559-7A2C-8348-9BB7-F1F87F4F3B18}" name="Column657"/>
-    <tableColumn id="658" xr3:uid="{677D1E40-7791-5243-89B3-0219A301DE1F}" name="Column658"/>
-    <tableColumn id="659" xr3:uid="{A6A5A3E6-F1F5-9B4B-8B61-5C47445DCBE8}" name="Column659"/>
-    <tableColumn id="660" xr3:uid="{BA1376EF-B83F-4E4C-B4BE-CA9746882A6E}" name="Column660"/>
-    <tableColumn id="661" xr3:uid="{CDE858F7-43B4-2B43-A4C4-064DCF4A6DDF}" name="Column661"/>
-    <tableColumn id="662" xr3:uid="{1DE7BB44-3DE1-BB48-BF4C-6EFC89A8C2C7}" name="Column662"/>
-    <tableColumn id="663" xr3:uid="{C34F8962-DD58-3A40-8F57-BB903B56FABB}" name="Column663"/>
-    <tableColumn id="664" xr3:uid="{6683689E-8998-1045-9C5C-A73664FCB2CA}" name="Column664"/>
-    <tableColumn id="665" xr3:uid="{14087CCE-B0D3-F54A-ABC5-4396A91C137D}" name="Column665"/>
-    <tableColumn id="666" xr3:uid="{FC4E60D8-F23E-9D4C-B325-C81F6C174E15}" name="Column666"/>
-    <tableColumn id="667" xr3:uid="{7D797B57-D807-7D48-847A-0A43B4F70575}" name="Column667"/>
-    <tableColumn id="668" xr3:uid="{D3B2D270-F1F1-454F-B692-FDC3BE7BEBCB}" name="Column668"/>
-    <tableColumn id="669" xr3:uid="{587A6D45-CC9E-CA49-9C21-A84F428C6492}" name="Column669"/>
-    <tableColumn id="670" xr3:uid="{9E26BD4B-365A-5E41-A357-72CBD620AE5E}" name="Column670"/>
-    <tableColumn id="671" xr3:uid="{9FA6586A-173E-3344-999A-B251A02D9C32}" name="Column671"/>
-    <tableColumn id="672" xr3:uid="{F92BCC48-8DB5-7247-B28B-8B3E8A12BF0C}" name="Column672"/>
-    <tableColumn id="673" xr3:uid="{B16CBE63-4E77-FA48-BF44-F7033D9833FD}" name="Column673"/>
-    <tableColumn id="674" xr3:uid="{7E73F23A-1C10-4F4D-8C47-DBF47F22332C}" name="Column674"/>
-    <tableColumn id="675" xr3:uid="{45E46BFD-DE8D-FD4A-88B6-795D7450A416}" name="Column675"/>
-    <tableColumn id="676" xr3:uid="{570C0423-64DE-8845-A56D-C2D8378E2851}" name="Column676"/>
-    <tableColumn id="677" xr3:uid="{FE798AEB-D861-F549-AABA-A0BD09B87528}" name="Column677"/>
-    <tableColumn id="678" xr3:uid="{3670B36F-E929-CE44-92A6-8E7AD288AC9A}" name="Column678"/>
-    <tableColumn id="679" xr3:uid="{4A33836D-538E-E745-8A41-8A27C735912A}" name="Column679"/>
-    <tableColumn id="680" xr3:uid="{CC65CEAA-2028-7445-B59D-41B2BC47A5A7}" name="Column680"/>
-    <tableColumn id="681" xr3:uid="{B981CE79-4713-AB4F-AACD-4141A3D3E55E}" name="Column681"/>
-    <tableColumn id="682" xr3:uid="{97CDA888-F7B1-0E4E-ADFB-18135F7C09AC}" name="Column682"/>
-    <tableColumn id="683" xr3:uid="{756438F5-9380-4A4E-816D-E0C346299B89}" name="Column683"/>
-    <tableColumn id="684" xr3:uid="{4B275AE2-DE0E-A941-906A-B8E426F8557A}" name="Column684"/>
-    <tableColumn id="685" xr3:uid="{1D83B65F-871F-BE48-9EC2-7EF90A639491}" name="Column685"/>
-    <tableColumn id="686" xr3:uid="{3E57945D-34D7-DB4A-AAB9-9BE9A97B0398}" name="Column686"/>
-    <tableColumn id="687" xr3:uid="{86E7FB48-2844-CC4D-A3DF-E48BDC7236DA}" name="Column687"/>
-    <tableColumn id="688" xr3:uid="{5CF4D9D6-5B7D-AC45-9214-0CBA8ACB3A6E}" name="Column688"/>
-    <tableColumn id="689" xr3:uid="{5EFDB01B-F5DA-7B4D-9675-A996147D9A92}" name="Column689"/>
-    <tableColumn id="690" xr3:uid="{68C40A2E-CFAA-0B4B-BE14-98DB80089FEC}" name="Column690"/>
-    <tableColumn id="691" xr3:uid="{4BEDC13B-F01E-9F46-97F6-B30DBDE5C85D}" name="Column691"/>
-    <tableColumn id="692" xr3:uid="{7DE67856-5515-224F-B7FF-1FC397DFF82E}" name="Column692"/>
-    <tableColumn id="693" xr3:uid="{CF351917-BC1E-3C4D-991B-769E00509C79}" name="Column693"/>
-    <tableColumn id="694" xr3:uid="{4F9FC0AB-2F2D-6640-A444-5FB422B950A1}" name="Column694"/>
-    <tableColumn id="695" xr3:uid="{235349C0-9488-034F-8F89-93483FB1BB9E}" name="Column695"/>
-    <tableColumn id="696" xr3:uid="{D5CA5092-8B13-6243-B8BB-A5810D148FDA}" name="Column696"/>
-    <tableColumn id="697" xr3:uid="{1C7FC609-50EA-F242-A270-A8F39F0FE318}" name="Column697"/>
-    <tableColumn id="698" xr3:uid="{61EA55EF-8486-CE47-BE30-E2A65810B5E6}" name="Column698"/>
-    <tableColumn id="699" xr3:uid="{44E5D8D0-3C59-BA4D-AD4A-EE6FC9BA79E5}" name="Column699"/>
-    <tableColumn id="700" xr3:uid="{C234F472-8982-2844-B852-AA58570677F6}" name="Column700"/>
-    <tableColumn id="701" xr3:uid="{E9592F03-59BF-9546-A8C9-468D9C2D6200}" name="Column701"/>
-    <tableColumn id="702" xr3:uid="{8D80A34B-F636-1F43-9CF5-AB2226B2F74E}" name="Column702"/>
-    <tableColumn id="703" xr3:uid="{753056E6-FE1F-6D4C-85BA-6E9E887D5E83}" name="Column703"/>
-    <tableColumn id="704" xr3:uid="{779658CE-D847-644B-BC9E-2332D546F3D0}" name="Column704"/>
-    <tableColumn id="705" xr3:uid="{90F9B329-ED64-E647-86AD-B7473B1B6015}" name="Column705"/>
-    <tableColumn id="706" xr3:uid="{A8E465EF-7818-5D4B-8293-267075282564}" name="Column706"/>
-    <tableColumn id="707" xr3:uid="{852D2D76-EF6B-CD4A-B777-3B1B15B9A185}" name="Column707"/>
-    <tableColumn id="708" xr3:uid="{FA10B61C-1795-BD48-8D59-1BD0AD2FF8BA}" name="Column708"/>
-    <tableColumn id="709" xr3:uid="{E14B795A-FC0F-C94B-94C7-5E4EC4E9AF10}" name="Column709"/>
-    <tableColumn id="710" xr3:uid="{6F5D3C37-33F7-8144-9980-0FB1081DDE1E}" name="Column710"/>
-    <tableColumn id="711" xr3:uid="{08E55523-B3C8-D741-B876-F26156748FD4}" name="Column711"/>
-    <tableColumn id="712" xr3:uid="{5EC330E0-D452-074D-96B4-D2F19AB0153A}" name="Column712"/>
-    <tableColumn id="713" xr3:uid="{B7D3349D-3A4C-8B41-8B34-C0FD7AE03456}" name="Column713"/>
-    <tableColumn id="714" xr3:uid="{EE784500-A8D2-8E4A-A7C6-46196A35FC5B}" name="Column714"/>
-    <tableColumn id="715" xr3:uid="{470CDF90-B025-DD46-9951-F95AE714AD41}" name="Column715"/>
-    <tableColumn id="716" xr3:uid="{77F71DA0-304A-F246-AB55-A0D0BDD565B2}" name="Column716"/>
-    <tableColumn id="717" xr3:uid="{A9457FD2-2866-024F-A50E-59828F26101D}" name="Column717"/>
-    <tableColumn id="718" xr3:uid="{1ABA59D4-7EE9-0B41-9F88-EFF023F16B3C}" name="Column718"/>
-    <tableColumn id="719" xr3:uid="{6494D660-14E2-B14C-8BA2-3864EEDF3A95}" name="Column719"/>
-    <tableColumn id="720" xr3:uid="{33E453B6-7196-C34F-B68F-74E10FCA76BC}" name="Column720"/>
-    <tableColumn id="721" xr3:uid="{86447DDF-435D-FB4D-B122-649DAC5CE2DB}" name="Column721"/>
-    <tableColumn id="722" xr3:uid="{7CF31175-CCB5-C245-B270-75084E68F8D1}" name="Column722"/>
-    <tableColumn id="723" xr3:uid="{98AFDF85-D946-984F-895E-2FAFF74965E9}" name="Column723"/>
-    <tableColumn id="724" xr3:uid="{FC976992-CB28-B140-AB3B-99FA1B58F812}" name="Column724"/>
-    <tableColumn id="725" xr3:uid="{74B92928-5C4B-4844-B36E-9E8ED9787B5A}" name="Column725"/>
-    <tableColumn id="726" xr3:uid="{EDEEA166-B1B1-F94E-A864-0A8C119E671D}" name="Column726"/>
-    <tableColumn id="727" xr3:uid="{B9B43C52-DE01-3546-97B2-576CE8A89592}" name="Column727"/>
-    <tableColumn id="728" xr3:uid="{C9FCCBBA-9DFB-5946-83F8-A7E70D3592AA}" name="Column728"/>
-    <tableColumn id="729" xr3:uid="{B805E9DF-5A66-D940-9463-4985FD3BC5C9}" name="Column729"/>
-    <tableColumn id="730" xr3:uid="{7FFFB22B-8B23-CC47-BB75-7C3067185627}" name="Column730"/>
-    <tableColumn id="731" xr3:uid="{F90B7911-B8AB-8D44-9E6E-B4CE9542A10D}" name="Column731"/>
-    <tableColumn id="732" xr3:uid="{44DD4FB6-810C-4844-912E-D251C7F96FCD}" name="Column732"/>
-    <tableColumn id="733" xr3:uid="{266CE87C-5501-AB4D-B0BB-8CE986D4330C}" name="Column733"/>
-    <tableColumn id="734" xr3:uid="{013D1C8B-059D-F246-8106-9506A795D987}" name="Column734"/>
-    <tableColumn id="735" xr3:uid="{C3129F8D-52B1-3541-BFD2-B1EA80203319}" name="Column735"/>
-    <tableColumn id="736" xr3:uid="{442EDE41-0D7D-474E-BC59-9CD36E8DAC65}" name="Column736"/>
-    <tableColumn id="737" xr3:uid="{645495D5-996D-5342-A9E7-26C2C3C9DAEE}" name="Column737"/>
-    <tableColumn id="738" xr3:uid="{71333A3E-7E46-5348-87F9-73AC3AF630BC}" name="Column738"/>
-    <tableColumn id="739" xr3:uid="{6AC6B4F9-BFE5-4346-8A2A-119BB0A50707}" name="Column739"/>
-    <tableColumn id="740" xr3:uid="{B7A2D992-6E11-0440-86B6-09776239BA85}" name="Column740"/>
-    <tableColumn id="741" xr3:uid="{86B6657C-84A2-EA42-9B79-D0886E76E07B}" name="Column741"/>
-    <tableColumn id="742" xr3:uid="{7CE23A55-C2A4-904A-8268-DE47515704B2}" name="Column742"/>
-    <tableColumn id="743" xr3:uid="{2A2F343E-135F-934E-9FD4-60C4E9040B44}" name="Column743"/>
-    <tableColumn id="744" xr3:uid="{B1E48ADB-3F6B-B441-88DD-8189F750BFE1}" name="Column744"/>
-    <tableColumn id="745" xr3:uid="{A1CF8110-9F12-5C43-A107-88DAA319A500}" name="Column745"/>
-    <tableColumn id="746" xr3:uid="{D600554C-B700-754E-A00B-49F2F1B25A18}" name="Column746"/>
-    <tableColumn id="747" xr3:uid="{F20C775A-4B7F-B544-8C09-EA4530CC57F2}" name="Column747"/>
-    <tableColumn id="748" xr3:uid="{095AE8E5-A17A-5A46-8FBD-B77FEDCE682E}" name="Column748"/>
-    <tableColumn id="749" xr3:uid="{D2FAE22D-BE73-894F-9343-718313AEEBF2}" name="Column749"/>
-    <tableColumn id="750" xr3:uid="{25BFA80C-3418-FB49-9F63-74C0349B3342}" name="Column750"/>
-    <tableColumn id="751" xr3:uid="{B270FBF3-F101-D84B-A937-2990E5C0D123}" name="Column751"/>
-    <tableColumn id="752" xr3:uid="{AF56B69B-2AEB-514D-AF48-8ECA40EBE764}" name="Column752"/>
-    <tableColumn id="753" xr3:uid="{CA0E4F58-EA27-6648-ABF0-48F0D0352EAC}" name="Column753"/>
-    <tableColumn id="754" xr3:uid="{64FA506F-AC28-274C-9F93-CCE00B782E76}" name="Column754"/>
-    <tableColumn id="755" xr3:uid="{988FE15A-DA3E-F540-9225-1BED735B5AE8}" name="Column755"/>
-    <tableColumn id="756" xr3:uid="{37DDCAB8-92F6-F746-82BD-B0D0825D78EE}" name="Column756"/>
-    <tableColumn id="757" xr3:uid="{F70736F4-280E-7A45-8631-20056D863A9B}" name="Column757"/>
-    <tableColumn id="758" xr3:uid="{566E929A-7832-0C4A-9B77-5C49DE7E4E23}" name="Column758"/>
-    <tableColumn id="759" xr3:uid="{D4EAF1CB-CD53-FA4C-A669-5F89714463FA}" name="Column759"/>
-    <tableColumn id="760" xr3:uid="{445E6800-82D6-7B42-8821-F49E0C52A298}" name="Column760"/>
-    <tableColumn id="761" xr3:uid="{DA5F966A-A1AC-324C-B4C3-6F0799AC32D4}" name="Column761"/>
-    <tableColumn id="762" xr3:uid="{F7234CC3-745C-F342-9237-DE5A68E8454E}" name="Column762"/>
-    <tableColumn id="763" xr3:uid="{9C65E030-8D4F-BA42-8F8B-1A65518F23F9}" name="Column763"/>
-    <tableColumn id="764" xr3:uid="{603C7595-39D5-B64B-86B5-E6F6C6C5C07F}" name="Column764"/>
-    <tableColumn id="765" xr3:uid="{47A44FA0-9C4F-2D43-A582-F0405C67E1F3}" name="Column765"/>
-    <tableColumn id="766" xr3:uid="{C89FAF3E-6D41-074A-9E4B-CD8A27BAE6FE}" name="Column766"/>
-    <tableColumn id="767" xr3:uid="{FADE0C1B-81AD-BE4D-A237-4B3B547A69DE}" name="Column767"/>
-    <tableColumn id="768" xr3:uid="{F41C5FA1-E6E3-1542-A9B2-6CAC27E66BE3}" name="Column768"/>
-    <tableColumn id="769" xr3:uid="{2359C160-56D6-C34C-926E-530C096022B7}" name="Column769"/>
-    <tableColumn id="770" xr3:uid="{7F2AF6F5-2CE4-AB4A-9DDD-7A10BB3AC49E}" name="Column770"/>
-    <tableColumn id="771" xr3:uid="{8D736207-64F3-6545-B134-85720A34089A}" name="Column771"/>
-    <tableColumn id="772" xr3:uid="{E530436E-1F16-4A44-ABA1-2B3D5EABB097}" name="Column772"/>
-    <tableColumn id="773" xr3:uid="{84350142-2993-3C4D-93F7-33B7C6C32BF6}" name="Column773"/>
-    <tableColumn id="774" xr3:uid="{8C1CCCEA-BB20-C94B-9A36-CB9C7BB61A61}" name="Column774"/>
-    <tableColumn id="775" xr3:uid="{294F8BA7-2720-314B-A49C-681AF6F19A5E}" name="Column775"/>
-    <tableColumn id="776" xr3:uid="{A73E1464-C425-F841-8EE2-DBB8F9E78CD0}" name="Column776"/>
-    <tableColumn id="777" xr3:uid="{4A0D2191-C23F-934A-97B5-B51B85307724}" name="Column777"/>
-    <tableColumn id="778" xr3:uid="{5BFD32DF-BA2A-7E43-9DBD-DE1155D42A75}" name="Column778"/>
-    <tableColumn id="779" xr3:uid="{489E2E74-DF57-444D-88E5-C51B57460F2C}" name="Column779"/>
-    <tableColumn id="780" xr3:uid="{10868E5A-AAA0-A649-B057-738FA18DCC47}" name="Column780"/>
-    <tableColumn id="781" xr3:uid="{20C19BE2-81D5-B34F-8F5C-0E262E7742A6}" name="Column781"/>
-    <tableColumn id="782" xr3:uid="{506F612A-84BE-B34A-8A7F-946E48DB1B3D}" name="Column782"/>
-    <tableColumn id="783" xr3:uid="{833BFA2B-6034-4946-8625-50D9484D81CC}" name="Column783"/>
-    <tableColumn id="784" xr3:uid="{54D294C9-C87A-0E43-BBC5-4FBB021341C5}" name="Column784"/>
-    <tableColumn id="785" xr3:uid="{0DAC998A-2642-9341-A4DA-7731F48AF8D7}" name="Column785"/>
-    <tableColumn id="786" xr3:uid="{1F47C3A3-37DD-A648-AE67-4897F25D8D5C}" name="Column786"/>
-    <tableColumn id="787" xr3:uid="{13BD614F-01EB-B44B-A47E-EB23AD9BA100}" name="Column787"/>
-    <tableColumn id="788" xr3:uid="{EE37F061-6519-BF49-AB2E-E07794A32A83}" name="Column788"/>
-    <tableColumn id="789" xr3:uid="{5F045BF4-F5A4-C946-AFB3-ADD0E624BBF5}" name="Column789"/>
-    <tableColumn id="790" xr3:uid="{250C8E03-CC5B-0244-8936-67CF4FD6AC10}" name="Column790"/>
-    <tableColumn id="791" xr3:uid="{6A256DA2-C89D-1640-AFA6-C6858D737062}" name="Column791"/>
-    <tableColumn id="792" xr3:uid="{507EB128-2D74-3243-B712-EF26705FF1E9}" name="Column792"/>
-    <tableColumn id="793" xr3:uid="{ED79EC90-FDFD-0748-A1C4-5E3F9ABAEBD2}" name="Column793"/>
-    <tableColumn id="794" xr3:uid="{7A9C2CA7-A70D-2747-92DA-3B0A70888FBE}" name="Column794"/>
-    <tableColumn id="795" xr3:uid="{3C7443AC-0E8F-A04E-8BF5-467DBB2A0352}" name="Column795"/>
-    <tableColumn id="796" xr3:uid="{ECF02217-C063-4B4E-B69F-083921460322}" name="Column796"/>
-    <tableColumn id="797" xr3:uid="{6DA00F32-2315-0A4E-9A43-6E57D52B4EC5}" name="Column797"/>
-    <tableColumn id="798" xr3:uid="{F2CDFAC6-5556-5743-9280-13A6FBE9FEA9}" name="Column798"/>
-    <tableColumn id="799" xr3:uid="{A8985B68-F08E-1341-875C-19F785B17268}" name="Column799"/>
-    <tableColumn id="800" xr3:uid="{7A6C61AA-1B0A-1447-BFE9-FC041642355D}" name="Column800"/>
-    <tableColumn id="801" xr3:uid="{59A0BE25-3319-E442-9C09-1E071E27E7DA}" name="Column801"/>
-    <tableColumn id="802" xr3:uid="{FFE84D2C-9472-4C4B-8179-7ECD75FAAF08}" name="Column802"/>
-    <tableColumn id="803" xr3:uid="{E5BC3B8E-AA35-D249-B6E1-2C97A7467F92}" name="Column803"/>
-    <tableColumn id="804" xr3:uid="{75FB59F8-F033-9A43-AD73-DF215F98D03A}" name="Column804"/>
-    <tableColumn id="805" xr3:uid="{647537C8-8026-ED44-8188-AEC96E8DC306}" name="Column805"/>
-    <tableColumn id="806" xr3:uid="{F681382A-71A5-7B4B-914B-3BF779BC9380}" name="Column806"/>
-    <tableColumn id="807" xr3:uid="{427CE903-31B0-A744-A473-B4C31EB7A216}" name="Column807"/>
-    <tableColumn id="808" xr3:uid="{6183DDD0-33D5-5D4B-ACE6-946EEC8BEA70}" name="Column808"/>
-    <tableColumn id="809" xr3:uid="{BCF07680-DA12-1647-B45F-F2AE514118A3}" name="Column809"/>
-    <tableColumn id="810" xr3:uid="{AD7B8AD1-9FD3-BD4C-A778-993F257B3026}" name="Column810"/>
-    <tableColumn id="811" xr3:uid="{291EE70E-18C0-4B4B-ABA6-66C3D2D2BA28}" name="Column811"/>
-    <tableColumn id="812" xr3:uid="{B700933E-5A9E-EE4D-8AE9-5F0A4BBDB4E3}" name="Column812"/>
-    <tableColumn id="813" xr3:uid="{759846CE-1960-F443-AA82-6C2EC7C482BF}" name="Column813"/>
-    <tableColumn id="814" xr3:uid="{D4C4444B-84D3-B542-9B02-33BF60B62056}" name="Column814"/>
-    <tableColumn id="815" xr3:uid="{8B8711A9-8486-6F44-9F94-95867A40D739}" name="Column815"/>
-    <tableColumn id="816" xr3:uid="{12B9527C-1842-C946-9FD2-FACF71742DA6}" name="Column816"/>
-    <tableColumn id="817" xr3:uid="{4FD4117F-AC17-CF41-A804-9B3C090297BB}" name="Column817"/>
-    <tableColumn id="818" xr3:uid="{E4911A1D-C449-1945-82A9-FC1A47C2C7C0}" name="Column818"/>
-    <tableColumn id="819" xr3:uid="{3CEAA652-07AE-2249-9C17-345AA0341270}" name="Column819"/>
-    <tableColumn id="820" xr3:uid="{9300144B-6BBD-3449-8A9D-78EA2418A1D0}" name="Column820"/>
-    <tableColumn id="821" xr3:uid="{8D784275-07EA-0D4D-9432-15843010787D}" name="Column821"/>
-    <tableColumn id="822" xr3:uid="{85DD3557-F60C-7343-84DB-E3FA8789D73C}" name="Column822"/>
-    <tableColumn id="823" xr3:uid="{8EC6BFA3-5B42-BE40-8FEC-162962BCC3E0}" name="Column823"/>
-    <tableColumn id="824" xr3:uid="{F49DE1FE-9076-0747-A6FB-5D04F2FE24EE}" name="Column824"/>
-    <tableColumn id="825" xr3:uid="{BED96E57-0398-5747-95EE-8A1E7BFEB47C}" name="Column825"/>
-    <tableColumn id="826" xr3:uid="{FED36F5A-3B64-354A-B037-7B22A7EA5F09}" name="Column826"/>
-    <tableColumn id="827" xr3:uid="{2768FD13-70AB-0049-A5FB-5DCF1020AFEF}" name="Column827"/>
-    <tableColumn id="828" xr3:uid="{1724582F-6F9E-304F-A52A-40AD96F7F544}" name="Column828"/>
-    <tableColumn id="829" xr3:uid="{B9414A3F-09B7-C442-B6F5-4EB8FBA3CDB2}" name="Column829"/>
-    <tableColumn id="830" xr3:uid="{B9899DA0-FD29-234F-8D9D-5C23193F18B4}" name="Column830"/>
-    <tableColumn id="831" xr3:uid="{F10F250E-FB25-C243-844F-DB0EBD0D6FCA}" name="Column831"/>
-    <tableColumn id="832" xr3:uid="{14C359ED-17D6-E140-AC0D-B1E0A8C34B26}" name="Column832"/>
-    <tableColumn id="833" xr3:uid="{FC1C2698-CDB8-A649-960D-D7A2038E7B3B}" name="Column833"/>
-    <tableColumn id="834" xr3:uid="{6F81D30A-2468-CC4E-B87D-C761E5D94C18}" name="Column834"/>
-    <tableColumn id="835" xr3:uid="{6C3D7022-76FD-D147-8BF7-87024D5B6B14}" name="Column835"/>
-    <tableColumn id="836" xr3:uid="{1A944F80-674D-7B4D-8A9F-E9B427AFDD60}" name="Column836"/>
-    <tableColumn id="837" xr3:uid="{C25BFBA2-9E69-0943-8161-F79A00AAB3C3}" name="Column837"/>
-    <tableColumn id="838" xr3:uid="{1116AFD1-FDFF-0C4C-BA89-05EF11EBB64F}" name="Column838"/>
-    <tableColumn id="839" xr3:uid="{8C45E052-7FF8-2848-8CFC-249022694C65}" name="Column839"/>
-    <tableColumn id="840" xr3:uid="{C505496E-104E-2443-B5D0-6C213413E43A}" name="Column840"/>
-    <tableColumn id="841" xr3:uid="{732E576F-B9CB-714C-9E5A-2A5E4F55BE01}" name="Column841"/>
-    <tableColumn id="842" xr3:uid="{3A0C5189-7685-2D47-9CB0-5EFCE07D3391}" name="Column842"/>
-    <tableColumn id="843" xr3:uid="{CB07523D-5262-4549-A4CE-75CDEDA82E36}" name="Column843"/>
-    <tableColumn id="844" xr3:uid="{879F8148-A7AD-F044-B286-8C532345346C}" name="Column844"/>
-    <tableColumn id="845" xr3:uid="{541D4CCB-D7F3-C445-B5A5-D9DDE9914A8D}" name="Column845"/>
-    <tableColumn id="846" xr3:uid="{D4D1C72C-2E71-7C44-9843-0C4D0C2CF36C}" name="Column846"/>
-    <tableColumn id="847" xr3:uid="{97519A11-E035-6243-811F-A6162621E593}" name="Column847"/>
-    <tableColumn id="848" xr3:uid="{46C64776-598F-CF47-835A-86A5A64CA0B3}" name="Column848"/>
-    <tableColumn id="849" xr3:uid="{24A63639-83FF-CA4B-AD4C-AADF6FDB317D}" name="Column849"/>
-    <tableColumn id="850" xr3:uid="{A7F06539-2D0E-5E46-8C81-833CD02B2A41}" name="Column850"/>
-    <tableColumn id="851" xr3:uid="{47339CD0-2B2C-BB48-B0F6-1FA7EF5F85A3}" name="Column851"/>
-    <tableColumn id="852" xr3:uid="{EA52A5DA-E9BD-164A-95BC-179429975D8B}" name="Column852"/>
-    <tableColumn id="853" xr3:uid="{EC2BABF1-FFD5-3F4E-806F-B40C3FDED7ED}" name="Column853"/>
-    <tableColumn id="854" xr3:uid="{307CE9CC-478B-3E4B-8910-35DCBA2EF5E2}" name="Column854"/>
-    <tableColumn id="855" xr3:uid="{700ACD6F-BFC0-784C-A797-BF41EB296EA0}" name="Column855"/>
-    <tableColumn id="856" xr3:uid="{A0228D0C-8094-A744-9830-53616893183C}" name="Column856"/>
-    <tableColumn id="857" xr3:uid="{D533DCD0-8767-CE4A-9B1A-34F9D3F19C61}" name="Column857"/>
-    <tableColumn id="858" xr3:uid="{15128CB4-752B-E64D-A9DA-6718C9741EB1}" name="Column858"/>
-    <tableColumn id="859" xr3:uid="{9F1121BD-A71D-CE42-AAA3-B570D7BC167F}" name="Column859"/>
-    <tableColumn id="860" xr3:uid="{516073D0-C84E-C44F-B36A-9182A88DC907}" name="Column860"/>
-    <tableColumn id="861" xr3:uid="{54379C2E-9E51-BA42-9645-BEB2E5713A93}" name="Column861"/>
-    <tableColumn id="862" xr3:uid="{C9CF2B13-FB16-5542-BF98-A36F08E092D2}" name="Column862"/>
-    <tableColumn id="863" xr3:uid="{DE97D7D1-4FC2-4141-A3C7-2B2C04628304}" name="Column863"/>
-    <tableColumn id="864" xr3:uid="{5F23CB97-6E85-0F4F-B2F8-6B98F8ABF167}" name="Column864"/>
-    <tableColumn id="865" xr3:uid="{DE19A6BA-CF5D-544D-9868-DF27ED42C9B3}" name="Column865"/>
-    <tableColumn id="866" xr3:uid="{6E4BAE48-CAA2-154C-818C-08BF9F8C298C}" name="Column866"/>
-    <tableColumn id="867" xr3:uid="{7BC0ED6A-415F-CC40-8B00-AC9EC3E96195}" name="Column867"/>
-    <tableColumn id="868" xr3:uid="{332BFE19-99F3-904C-BDD2-E9953498C5EF}" name="Column868"/>
-    <tableColumn id="869" xr3:uid="{65EE81D6-CC5D-8843-AC6C-40D716DB066B}" name="Column869"/>
-    <tableColumn id="870" xr3:uid="{9A5DC174-9696-C34C-BA3C-5FFD40594095}" name="Column870"/>
-    <tableColumn id="871" xr3:uid="{A185DEE5-8949-8E46-AA16-9BBFE2EAE045}" name="Column871"/>
-    <tableColumn id="872" xr3:uid="{73289381-5095-9148-88BC-52230FE44EA1}" name="Column872"/>
-    <tableColumn id="873" xr3:uid="{E84A5232-61C1-2E47-A646-A2B881F19096}" name="Column873"/>
-    <tableColumn id="874" xr3:uid="{F8791963-5FEE-C248-BF66-99F56E13BA33}" name="Column874"/>
-    <tableColumn id="875" xr3:uid="{974C4411-880A-BD44-8FE1-0A4E2309DF49}" name="Column875"/>
-    <tableColumn id="876" xr3:uid="{03B5BB9A-297E-974E-BF81-3668E73F88EF}" name="Column876"/>
-    <tableColumn id="877" xr3:uid="{7DBCDAA6-5A85-9745-8CF6-C530CD58ED63}" name="Column877"/>
-    <tableColumn id="878" xr3:uid="{DAFE471D-98CD-0744-875A-BE2C9AFFA6BF}" name="Column878"/>
-    <tableColumn id="879" xr3:uid="{64D92A5F-DE8D-2441-A7AF-0A03AD6B7ADC}" name="Column879"/>
-    <tableColumn id="880" xr3:uid="{87750BB8-28EA-7C40-A1F0-82FEF557CC69}" name="Column880"/>
-    <tableColumn id="881" xr3:uid="{21203970-63AD-6848-A094-0BA29088AD71}" name="Column881"/>
-    <tableColumn id="882" xr3:uid="{95C72923-0AE2-8642-8B23-AB3EB6F9F072}" name="Column882"/>
-    <tableColumn id="883" xr3:uid="{C98C1F72-B8FE-6A4E-9B13-F6A9179F3AC8}" name="Column883"/>
-    <tableColumn id="884" xr3:uid="{604107E6-5959-8C41-9D0E-96AAC289537F}" name="Column884"/>
-    <tableColumn id="885" xr3:uid="{F5C461AE-EC58-1A4F-980D-ED9A5C49DE98}" name="Column885"/>
-    <tableColumn id="886" xr3:uid="{32E57EE4-637C-FC4A-B585-2C192944FBC2}" name="Column886"/>
-    <tableColumn id="887" xr3:uid="{CEEB8DB1-ACCB-C04C-BF17-21EEB900D97B}" name="Column887"/>
-    <tableColumn id="888" xr3:uid="{BFE62376-13A8-5040-849F-EA77A64BAA15}" name="Column888"/>
-    <tableColumn id="889" xr3:uid="{D6DF3899-E4E9-AD40-BE13-33B104732DFF}" name="Column889"/>
-    <tableColumn id="890" xr3:uid="{1E66DBBF-05DD-1940-8E08-3D94482CECF9}" name="Column890"/>
-    <tableColumn id="891" xr3:uid="{AE2725ED-CF72-BC45-9CF2-C984118CB64B}" name="Column891"/>
-    <tableColumn id="892" xr3:uid="{AAB64ADB-7441-F74F-B398-EFDCC233ED68}" name="Column892"/>
-    <tableColumn id="893" xr3:uid="{0AA034E8-322A-DB48-878A-C2A695AC0F6E}" name="Column893"/>
-    <tableColumn id="894" xr3:uid="{4FB428C3-7051-E440-9438-CEE1B0B40D20}" name="Column894"/>
-    <tableColumn id="895" xr3:uid="{F46E6820-A765-944D-B04E-BD2398287673}" name="Column895"/>
-    <tableColumn id="896" xr3:uid="{235F75A4-FB35-8647-B296-0C01710D5278}" name="Column896"/>
-    <tableColumn id="897" xr3:uid="{29E45265-97A7-6842-8B23-9E27FB169C19}" name="Column897"/>
-    <tableColumn id="898" xr3:uid="{9FEF8D34-45C2-E244-909C-1E3C2AC62B82}" name="Column898"/>
-    <tableColumn id="899" xr3:uid="{7D1DBF9D-3252-794C-A6F8-72BF5F05DB8E}" name="Column899"/>
-    <tableColumn id="900" xr3:uid="{7F4AAAFC-98B4-5145-9744-34C29F019152}" name="Column900"/>
-    <tableColumn id="901" xr3:uid="{EFC20001-448B-2740-8FF8-CA9290A0FC8E}" name="Column901"/>
-    <tableColumn id="902" xr3:uid="{ED0AAC0B-F227-0E4B-8812-31149A0A41CD}" name="Column902"/>
-    <tableColumn id="903" xr3:uid="{793C95BF-4C7A-364D-B60B-5AB73E73B9F2}" name="Column903"/>
-    <tableColumn id="904" xr3:uid="{A173942D-9520-4649-BD9F-A437FDA8EC6F}" name="Column904"/>
-    <tableColumn id="905" xr3:uid="{CFCB147E-613E-4F4E-AA31-ADCC52ED9841}" name="Column905"/>
-    <tableColumn id="906" xr3:uid="{CC211A7F-5985-1544-B2B2-B0CC923D232F}" name="Column906"/>
-    <tableColumn id="907" xr3:uid="{CF3FE9AB-6626-E046-A9FE-84C80E5F6788}" name="Column907"/>
-    <tableColumn id="908" xr3:uid="{8C6E0027-AAF1-574F-B2AE-D12A2455D103}" name="Column908"/>
-    <tableColumn id="909" xr3:uid="{AB440FA3-6A17-D843-8B4B-251BF03D0678}" name="Column909"/>
-    <tableColumn id="910" xr3:uid="{EADF77E7-3352-E649-9A51-C1EC779A33F3}" name="Column910"/>
-    <tableColumn id="911" xr3:uid="{F234B6F2-8688-DB45-B5CA-200C3304C8D1}" name="Column911"/>
-    <tableColumn id="912" xr3:uid="{7331EDBA-0223-544D-85D5-34A05ABF68AD}" name="Column912"/>
-    <tableColumn id="913" xr3:uid="{BA8E1A81-DEC9-4847-B82A-9C3F3C93A312}" name="Column913"/>
-    <tableColumn id="914" xr3:uid="{F0F7C19C-C931-8641-921C-662F347E3FB5}" name="Column914"/>
-    <tableColumn id="915" xr3:uid="{D770871A-6258-B44B-8782-D70F16E66054}" name="Column915"/>
-    <tableColumn id="916" xr3:uid="{2390DB02-EDA3-A54E-90D8-C6C3083B35C8}" name="Column916"/>
-    <tableColumn id="917" xr3:uid="{254A63A6-B094-A848-B9B7-5707487380E8}" name="Column917"/>
-    <tableColumn id="918" xr3:uid="{25BFA821-EC8C-4745-BFD6-2DA42709F72F}" name="Column918"/>
-    <tableColumn id="919" xr3:uid="{42739DEE-6C6B-A74A-A871-30A2155F824E}" name="Column919"/>
-    <tableColumn id="920" xr3:uid="{64EE6629-B9E2-4C4D-9E72-1BAF01A39986}" name="Column920"/>
-    <tableColumn id="921" xr3:uid="{1538D0A5-5917-4F42-9B37-16307EBD908C}" name="Column921"/>
-    <tableColumn id="922" xr3:uid="{ABE5F9C6-ACAB-6547-9AC7-545D305EA3DA}" name="Column922"/>
-    <tableColumn id="923" xr3:uid="{C143D5D2-EB6A-2747-9681-929DC6027818}" name="Column923"/>
-    <tableColumn id="924" xr3:uid="{0B75C9F2-17BF-7C4D-884C-72DDF059C300}" name="Column924"/>
-    <tableColumn id="925" xr3:uid="{2920E230-9C17-C742-A48A-5FDE181E02D6}" name="Column925"/>
-    <tableColumn id="926" xr3:uid="{CCE1AB06-D72B-5D4C-B9AE-32455D657C1D}" name="Column926"/>
-    <tableColumn id="927" xr3:uid="{36DA2970-A3C4-554F-921B-121D79BED35A}" name="Column927"/>
-    <tableColumn id="928" xr3:uid="{1CF7623D-2D6C-6C40-B56C-E35EA50A63A1}" name="Column928"/>
-    <tableColumn id="929" xr3:uid="{4D86C259-BEDF-394A-9521-2D359C25041E}" name="Column929"/>
-    <tableColumn id="930" xr3:uid="{00353ECD-0F65-6A4C-9A21-6A230A3FCA4A}" name="Column930"/>
-    <tableColumn id="931" xr3:uid="{B2E518E8-1197-244D-90CA-69FAA84CC8CC}" name="Column931"/>
-    <tableColumn id="932" xr3:uid="{C270BB76-2CA5-EB40-9DDC-D01895F79597}" name="Column932"/>
-    <tableColumn id="933" xr3:uid="{317BB2A6-54B7-4E4D-819A-2793D25AC2B6}" name="Column933"/>
-    <tableColumn id="934" xr3:uid="{77D59FB0-07B9-EB44-B830-C9BE120CF2CA}" name="Column934"/>
-    <tableColumn id="935" xr3:uid="{7EE9ABC4-2C63-9442-A4CE-5642FC440DFD}" name="Column935"/>
-    <tableColumn id="936" xr3:uid="{541BA324-D2D2-D642-B0AD-6A65760BA73B}" name="Column936"/>
-    <tableColumn id="937" xr3:uid="{EF22EA0A-8308-A044-820E-953728841F1D}" name="Column937"/>
-    <tableColumn id="938" xr3:uid="{4CE5E8DE-6F81-ED48-A28B-CAAF57895AE3}" name="Column938"/>
-    <tableColumn id="939" xr3:uid="{ACEA89F0-7599-DC46-9AF3-2B4CB88FAD64}" name="Column939"/>
-    <tableColumn id="940" xr3:uid="{BB51CE28-B3E7-D44E-9DAD-CB1F30ECEDE5}" name="Column940"/>
-    <tableColumn id="941" xr3:uid="{15A820E8-4FA8-894A-B43F-EDCC392FBC0A}" name="Column941"/>
-    <tableColumn id="942" xr3:uid="{2CF0FC8D-53B4-7340-B276-D2983DAA18CC}" name="Column942"/>
-    <tableColumn id="943" xr3:uid="{D72ED214-DD57-EF44-A6FD-33873B29CE6C}" name="Column943"/>
-    <tableColumn id="944" xr3:uid="{1A03D269-0B63-7543-9BD7-78FC9A27D51A}" name="Column944"/>
-    <tableColumn id="945" xr3:uid="{88A644D2-C100-E840-9DFE-25F39273A09D}" name="Column945"/>
-    <tableColumn id="946" xr3:uid="{7BDBF7A0-E3F6-764B-AF88-1395BF4A6AB7}" name="Column946"/>
-    <tableColumn id="947" xr3:uid="{04E29CAF-208B-AD43-981C-FD31E0C6CC44}" name="Column947"/>
-    <tableColumn id="948" xr3:uid="{5ABE5261-BF7F-5840-8CF1-C7880BE5725C}" name="Column948"/>
-    <tableColumn id="949" xr3:uid="{3D653C99-BBEA-E542-AF97-978FE0A85854}" name="Column949"/>
-    <tableColumn id="950" xr3:uid="{CE841F5D-191D-3D4F-8801-0FAC19B365D7}" name="Column950"/>
-    <tableColumn id="951" xr3:uid="{15867CBE-6665-D746-8C2C-6FDDD7020AE9}" name="Column951"/>
-    <tableColumn id="952" xr3:uid="{69CEFAB5-14D6-484C-8CE5-61B48B151688}" name="Column952"/>
-    <tableColumn id="953" xr3:uid="{F4E3B457-94F9-F345-93E7-47642F1C3EA7}" name="Column953"/>
-    <tableColumn id="954" xr3:uid="{A266CD3F-72BF-444F-993D-2B4DC5491FC0}" name="Column954"/>
-    <tableColumn id="955" xr3:uid="{A7281114-C12C-1543-A3BE-AC8314C0F28F}" name="Column955"/>
-    <tableColumn id="956" xr3:uid="{4CB6B11E-017E-8742-8DCD-527CB7178942}" name="Column956"/>
-    <tableColumn id="957" xr3:uid="{B8CB84A0-9219-C84E-B10A-9074DF73EE36}" name="Column957"/>
-    <tableColumn id="958" xr3:uid="{3DF68CCF-95D3-2A4F-80DA-6F73B1E46472}" name="Column958"/>
-    <tableColumn id="959" xr3:uid="{EAABAD92-7575-0A4C-9D0D-4055A4CCA4FE}" name="Column959"/>
-    <tableColumn id="960" xr3:uid="{8A378AD3-07D1-D545-8ED4-7AC5B802AD36}" name="Column960"/>
-    <tableColumn id="961" xr3:uid="{93F071E9-B303-0D44-A4B0-C79DC1F83103}" name="Column961"/>
-    <tableColumn id="962" xr3:uid="{D0D911A9-9BBC-8B4E-9FDB-7D1E61B7ADEB}" name="Column962"/>
-    <tableColumn id="963" xr3:uid="{B1EAE15C-0194-AD43-8191-96484AF4876F}" name="Column963"/>
-    <tableColumn id="964" xr3:uid="{CD6B38DE-4FAD-D14C-8134-064E3AD420C3}" name="Column964"/>
-    <tableColumn id="965" xr3:uid="{4127D908-DF63-4B4B-9DE4-F44ACE74F10A}" name="Column965"/>
-    <tableColumn id="966" xr3:uid="{64522DDD-9A33-AB49-9757-864F81FDF764}" name="Column966"/>
-    <tableColumn id="967" xr3:uid="{FE3DC5E6-E1F8-AB4B-B7FC-A9D0B766094C}" name="Column967"/>
-    <tableColumn id="968" xr3:uid="{8CF488C7-B3A6-B444-9445-51DA91E57A0E}" name="Column968"/>
-    <tableColumn id="969" xr3:uid="{BFFDE2CD-5103-6742-977D-786CC6305F7F}" name="Column969"/>
-    <tableColumn id="970" xr3:uid="{33860455-F896-2040-BAD9-1F7A98301BD7}" name="Column970"/>
-    <tableColumn id="971" xr3:uid="{26FB7032-C81D-F54B-8000-AF161A74A63F}" name="Column971"/>
-    <tableColumn id="972" xr3:uid="{8C264E17-F0BB-384C-AEF5-45A2D314F996}" name="Column972"/>
-    <tableColumn id="973" xr3:uid="{193475BE-9B51-E64C-87A3-E132AD3756A0}" name="Column973"/>
-    <tableColumn id="974" xr3:uid="{EC263E58-E86C-BA48-A2B2-857D0E237BC8}" name="Column974"/>
-    <tableColumn id="975" xr3:uid="{75B4B615-8387-484C-ABC8-F601BC800DF7}" name="Column975"/>
-    <tableColumn id="976" xr3:uid="{71EAACCE-D5FE-1543-9D26-AF41E4FA1B10}" name="Column976"/>
-    <tableColumn id="977" xr3:uid="{8FDE9FB5-F404-0348-8189-B965F4B95F7E}" name="Column977"/>
-    <tableColumn id="978" xr3:uid="{826DC5E3-A7DF-644C-9C34-3037EA085B26}" name="Column978"/>
-    <tableColumn id="979" xr3:uid="{B9CA20B4-83A4-D148-A701-20A91F960740}" name="Column979"/>
-    <tableColumn id="980" xr3:uid="{44887C02-938C-9942-BD59-0E27C0610226}" name="Column980"/>
-    <tableColumn id="981" xr3:uid="{C4D8F1B9-56C8-9341-9473-F607457565A8}" name="Column981"/>
-    <tableColumn id="982" xr3:uid="{6B6E8CE2-2FF3-3A4D-9131-7A67B4937AAD}" name="Column982"/>
-    <tableColumn id="983" xr3:uid="{CD014E72-B310-0542-B60A-FE1D1ED473E8}" name="Column983"/>
-    <tableColumn id="984" xr3:uid="{A1EB11A0-F8E0-5B4A-96F4-496EFEFF1AB3}" name="Column984"/>
-    <tableColumn id="985" xr3:uid="{E5BB38A8-D95C-2140-9DFC-D6D7A9AFE156}" name="Column985"/>
-    <tableColumn id="986" xr3:uid="{C5B04459-E7FD-5742-AA30-18E5C4E67F36}" name="Column986"/>
-    <tableColumn id="987" xr3:uid="{3F0CFEDD-E54D-E54C-8140-73931605BDDE}" name="Column987"/>
-    <tableColumn id="988" xr3:uid="{45AB4187-C3B8-4A44-A023-92147E31D69A}" name="Column988"/>
-    <tableColumn id="989" xr3:uid="{333F010A-2C8D-B24E-8205-ED5B28A2B2E5}" name="Column989"/>
-    <tableColumn id="990" xr3:uid="{9CD53AE7-AB44-2F42-8858-CCE9B4C5E231}" name="Column990"/>
-    <tableColumn id="991" xr3:uid="{D797C6A9-5D11-2749-8701-CA803A52FFB8}" name="Column991"/>
-    <tableColumn id="992" xr3:uid="{0B22E216-200F-6445-B03E-A6844CCADDA2}" name="Column992"/>
-    <tableColumn id="993" xr3:uid="{9EFF6C90-B901-E942-9C03-ED4B65C873D4}" name="Column993"/>
-    <tableColumn id="994" xr3:uid="{3ED56A9E-E549-A246-8B5D-98EB83433CF0}" name="Column994"/>
-    <tableColumn id="995" xr3:uid="{071E234E-12C3-6346-AD5A-E7A450487AD1}" name="Column995"/>
-    <tableColumn id="996" xr3:uid="{7BAFDFC6-21B9-CB4C-9EEF-E64C138479D7}" name="Column996"/>
-    <tableColumn id="997" xr3:uid="{792EAB4A-C12B-6240-A4AC-7BDECD69C075}" name="Column997"/>
-    <tableColumn id="998" xr3:uid="{643211B2-43FB-A04C-AC90-E580FA425D91}" name="Column998"/>
-    <tableColumn id="999" xr3:uid="{DF326E1B-D569-934B-8377-9B3F9326D9F6}" name="Column999"/>
-    <tableColumn id="1000" xr3:uid="{44E18031-5F87-D74A-A4E2-2897B00F78BB}" name="Column1000"/>
-    <tableColumn id="1001" xr3:uid="{B6BC1FFC-35AE-9647-B082-17895E988E9A}" name="Column1001"/>
-    <tableColumn id="1002" xr3:uid="{785E3EDB-2EB2-0E42-9679-9FCD3EF2F3BB}" name="Column1002"/>
-    <tableColumn id="1003" xr3:uid="{E3638F20-A44A-7847-A8A2-146435149ABF}" name="Column1003"/>
-    <tableColumn id="1004" xr3:uid="{C5EFCBDF-17CA-174B-91CA-D20FAC39B278}" name="Column1004"/>
-    <tableColumn id="1005" xr3:uid="{E042FDDA-EA8E-864B-9E0B-BA1CA94E393F}" name="Column1005"/>
-    <tableColumn id="1006" xr3:uid="{C79475F5-EA6D-8D4B-B96D-1C30C154E6D7}" name="Column1006"/>
-    <tableColumn id="1007" xr3:uid="{0FEFFE9B-4A25-A849-985B-4AD35A5714C8}" name="Column1007"/>
-    <tableColumn id="1008" xr3:uid="{897420FF-A756-2343-BA6B-F808FE22A72E}" name="Column1008"/>
-    <tableColumn id="1009" xr3:uid="{871029A3-1349-F34B-AE3B-9919AEE39C5A}" name="Column1009"/>
-    <tableColumn id="1010" xr3:uid="{AC521A89-5854-654D-B54D-02EA77F9DE78}" name="Column1010"/>
-    <tableColumn id="1011" xr3:uid="{9D14A57A-C859-F746-AD4C-D02B974A2B90}" name="Column1011"/>
-    <tableColumn id="1012" xr3:uid="{7B1568DC-E462-D843-8358-62242017E3A2}" name="Column1012"/>
-    <tableColumn id="1013" xr3:uid="{1B64DDE1-ACAC-B34C-9585-12FC77B20FE3}" name="Column1013"/>
-    <tableColumn id="1014" xr3:uid="{170DA4DD-FAE4-E143-ADA9-0480242BF088}" name="Column1014"/>
-    <tableColumn id="1015" xr3:uid="{D2774E6C-B5B9-4148-8E77-17E6C62F37AD}" name="Column1015"/>
-    <tableColumn id="1016" xr3:uid="{C686A342-B06C-1B4F-8000-AE5975568C03}" name="Column1016"/>
-    <tableColumn id="1017" xr3:uid="{D9664CD5-3F08-B642-B718-6BC6AB8B8C12}" name="Column1017"/>
-    <tableColumn id="1018" xr3:uid="{D176FBA0-EE98-474C-9061-8FECA6B84CCC}" name="Column1018"/>
-    <tableColumn id="1019" xr3:uid="{18531F1B-5115-A14A-BA6F-164295C6CA5B}" name="Column1019"/>
-    <tableColumn id="1020" xr3:uid="{BCB60761-8371-A34A-AEB8-996C29F48E4A}" name="Column1020"/>
-    <tableColumn id="1021" xr3:uid="{6E6FBE88-077A-4248-B324-A0594B960F59}" name="Column1021"/>
-    <tableColumn id="1022" xr3:uid="{2823BC16-1E96-4E4A-915C-508F0C77DD16}" name="Column1022"/>
-    <tableColumn id="1023" xr3:uid="{71881F90-1903-5348-A159-0A4A2EDB57B4}" name="Column1023"/>
-    <tableColumn id="1024" xr3:uid="{EC107EA3-F1AC-934C-92F2-BFA42E5124E3}" name="Column1024"/>
+    <tableColumn id="1" xr3:uid="{1844AB98-B27F-624F-837F-C1F494E0937A}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{B22B4AFD-9AEB-AF4F-A62C-6D5D85007B1D}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{0CC4A999-BD3E-3E4F-AA85-28B56D64D998}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{968B0535-69BF-EE47-AB8C-2343E49642B8}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{C01166B8-821B-E74E-9655-20EEAAB1113D}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{1925B95F-95C7-6C47-BB6D-7FA2A84D344F}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{3EA22499-750A-A246-831E-1F11EC7510CD}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{11EEED2C-88F1-5242-B56C-FE4ADF10E55E}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{116BCDE2-779F-1D43-8674-1C475C2AEF7B}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{9FC25C83-6707-D446-BD59-88FE327B4F4E}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{46681C17-6D65-894B-8D27-1EAD527DCB69}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{44B6E7AC-5AD8-E24F-AB3D-977C2368A0AF}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{E1A46AA9-4F5C-0947-8A0B-674546837E62}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{001448BC-7F73-2543-BF6C-76A368D3AA54}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{509F2804-6AE2-394D-809F-3B2043EE26CA}" name="Column15"/>
+    <tableColumn id="16" xr3:uid="{D4A88C5F-E0BE-BC46-874E-1084D2B9831D}" name="Column16"/>
+    <tableColumn id="17" xr3:uid="{26DFD72A-0984-4449-86FA-BBB11435344F}" name="Column17"/>
+    <tableColumn id="18" xr3:uid="{CE03C671-B6CF-4A40-BABF-B6A73DAFBADE}" name="Column18"/>
+    <tableColumn id="19" xr3:uid="{D05B0E48-C2C7-F94F-89E5-CF116706F048}" name="Column19"/>
+    <tableColumn id="20" xr3:uid="{9BFA2DDD-D5AE-4C48-8250-70C2B7681FDB}" name="Column20"/>
+    <tableColumn id="21" xr3:uid="{2581195D-DAA9-E14C-9C49-02986231D076}" name="Column21"/>
+    <tableColumn id="22" xr3:uid="{C8D10979-E69F-554D-B939-A8C467B1EB6B}" name="Column22"/>
+    <tableColumn id="23" xr3:uid="{1DFB6521-24E5-5240-B829-C964ADF3B5B9}" name="Column23"/>
+    <tableColumn id="24" xr3:uid="{B138A0AC-96A2-9640-B8C7-C6F3390FECDA}" name="Column24"/>
+    <tableColumn id="25" xr3:uid="{09C6A038-639C-A544-B22D-40D9AF5716DA}" name="Column25"/>
+    <tableColumn id="26" xr3:uid="{D04F4088-3CEC-2B45-937F-8AFC6932C487}" name="Column26"/>
+    <tableColumn id="27" xr3:uid="{910A08FE-B152-D043-B183-CF126A639DB1}" name="Column27"/>
+    <tableColumn id="28" xr3:uid="{37B23CF0-04CA-5745-95CD-DAC9807C5E7F}" name="Column28"/>
+    <tableColumn id="29" xr3:uid="{82E0F4D3-46CB-B144-A1F0-87F5E436EBCE}" name="Column29"/>
+    <tableColumn id="30" xr3:uid="{6ED9B87F-6BD0-4A49-AE71-6E9EEE220474}" name="Column30"/>
+    <tableColumn id="31" xr3:uid="{B9CF2427-E5D1-7B4F-AE6B-962940C0E440}" name="Column31"/>
+    <tableColumn id="32" xr3:uid="{0B1CEA6E-C250-A749-AC39-3D3D4A624297}" name="Column32"/>
+    <tableColumn id="33" xr3:uid="{9E08A11A-8756-EC45-927F-6E280F78DF4F}" name="Column33"/>
+    <tableColumn id="34" xr3:uid="{4E4F08C5-20DE-A94D-9EB1-3A05E91366D3}" name="Column34"/>
+    <tableColumn id="35" xr3:uid="{BFA447F2-5615-734E-AEA8-81E5BA048E43}" name="Column35"/>
+    <tableColumn id="36" xr3:uid="{CB4ABAD1-52C0-DC4B-ACDB-351A5FAF93D2}" name="Column36"/>
+    <tableColumn id="37" xr3:uid="{BA5FCE60-BDCA-584D-BAF2-82328DE08DBE}" name="Column37"/>
+    <tableColumn id="38" xr3:uid="{7B621EE2-A6AE-3F40-B771-99B632D5E668}" name="Column38"/>
+    <tableColumn id="39" xr3:uid="{65CC8589-30FC-9246-BAB2-DF85B396DCE4}" name="Column39"/>
+    <tableColumn id="40" xr3:uid="{0D59784D-E4BE-0E48-831A-C84E37F8B95B}" name="Column40"/>
+    <tableColumn id="41" xr3:uid="{DCD9949F-A1AE-C34F-B3FA-2D0540939E51}" name="Column41"/>
+    <tableColumn id="42" xr3:uid="{DF0AFE09-9FFE-A142-A13C-18FEA292EAA3}" name="Column42"/>
+    <tableColumn id="43" xr3:uid="{5913A5D6-BEC0-F041-973E-8D466A35495B}" name="Column43"/>
+    <tableColumn id="44" xr3:uid="{3F0AAABD-2EF7-3245-9094-E750820F7E9F}" name="Column44"/>
+    <tableColumn id="45" xr3:uid="{595941C4-0D1D-2745-8B0A-8D8808F83C20}" name="Column45"/>
+    <tableColumn id="46" xr3:uid="{F5DE91A2-A352-DF42-9082-E3B63701BA9C}" name="Column46"/>
+    <tableColumn id="47" xr3:uid="{C7B43C75-3B83-6A44-99A9-16C9A3E147B0}" name="Column47"/>
+    <tableColumn id="48" xr3:uid="{2CF4C893-2B72-BB4E-84B6-14CBBC733417}" name="Column48"/>
+    <tableColumn id="49" xr3:uid="{1DD5CC91-85B8-5C46-A731-DD1E8A9274FB}" name="Column49"/>
+    <tableColumn id="50" xr3:uid="{C2A9D943-9FD3-C346-B101-DAD1985D954E}" name="Column50"/>
+    <tableColumn id="51" xr3:uid="{A2E245BC-2DDE-E94D-BE7B-DD8BB0F69639}" name="Column51"/>
+    <tableColumn id="52" xr3:uid="{4FF905D4-A464-BF45-B1E6-9BC8B2F3A1BF}" name="Column52"/>
+    <tableColumn id="53" xr3:uid="{93FF20D0-36BD-1843-AA1B-618F29AFA6DC}" name="Column53"/>
+    <tableColumn id="54" xr3:uid="{C530FE40-DDA7-4B40-96B7-C0F5CBE7F3A7}" name="Column54"/>
+    <tableColumn id="55" xr3:uid="{FCC79452-B164-A540-9ABF-221F741EB2E3}" name="Column55"/>
+    <tableColumn id="56" xr3:uid="{393A574F-F6CC-5546-AA53-06292EE3E2B2}" name="Column56"/>
+    <tableColumn id="57" xr3:uid="{090B2684-EFD9-5A45-96DD-5AD8A0A6E23C}" name="Column57"/>
+    <tableColumn id="58" xr3:uid="{1DDA8E57-05D2-0E4D-B1BD-A2F4D874F59C}" name="Column58"/>
+    <tableColumn id="59" xr3:uid="{E4A65889-451E-CA4B-A1FF-C0DA1596A807}" name="Column59"/>
+    <tableColumn id="60" xr3:uid="{6687BC98-D3AA-9644-BAA6-E6713B1AABDD}" name="Column60"/>
+    <tableColumn id="61" xr3:uid="{EE15D7C2-C48B-4745-8701-642BB50A4384}" name="Column61"/>
+    <tableColumn id="62" xr3:uid="{87A4F340-33C0-4547-9A77-EB26E294F520}" name="Column62"/>
+    <tableColumn id="63" xr3:uid="{C9050D17-6CFA-6E48-B016-BACC2B9A2A74}" name="Column63"/>
+    <tableColumn id="64" xr3:uid="{81FC28CE-A227-4242-A511-074D7DED21B1}" name="Column64"/>
+    <tableColumn id="65" xr3:uid="{EDD1CC7C-A998-B547-81B3-3B8E0D438A53}" name="Column65"/>
+    <tableColumn id="66" xr3:uid="{245AFA15-7D2E-7449-83B7-8D5DF79BA185}" name="Column66"/>
+    <tableColumn id="67" xr3:uid="{66956C95-5F31-FB47-B608-6E7443D6E701}" name="Column67"/>
+    <tableColumn id="68" xr3:uid="{F4E14A7E-0762-8049-AE64-6E082E78E386}" name="Column68"/>
+    <tableColumn id="69" xr3:uid="{D14321CE-3A2E-BA40-AE06-72E7FDCBC10D}" name="Column69"/>
+    <tableColumn id="70" xr3:uid="{77F9F041-8ECE-2540-BB3B-D4C5798CC786}" name="Column70"/>
+    <tableColumn id="71" xr3:uid="{E07E0CE3-0EA4-3F46-BE89-BE154774740F}" name="Column71"/>
+    <tableColumn id="72" xr3:uid="{242E4C0A-49C5-CB46-90C4-36DCF9E99BAC}" name="Column72"/>
+    <tableColumn id="73" xr3:uid="{7C914E21-124C-9642-80D8-FF1CAC9E679F}" name="Column73"/>
+    <tableColumn id="74" xr3:uid="{DB24B8D7-F473-6442-907F-9BAC14317A44}" name="Column74"/>
+    <tableColumn id="75" xr3:uid="{D59F8F1C-28BF-9B41-8814-B145C71CCA77}" name="Column75"/>
+    <tableColumn id="76" xr3:uid="{82976021-F4E0-E845-9A69-D8F8F0CBE9E9}" name="Column76"/>
+    <tableColumn id="77" xr3:uid="{684383AB-2597-DB46-8C1A-243649C79B1F}" name="Column77"/>
+    <tableColumn id="78" xr3:uid="{DE35645B-7A4D-B34D-9A1E-0EEEF347E5FB}" name="Column78"/>
+    <tableColumn id="79" xr3:uid="{81C2CEF3-91FA-FE42-95BD-E17A4B9EDF1F}" name="Column79"/>
+    <tableColumn id="80" xr3:uid="{AFA673FD-7F3B-B84A-A9A5-EB8F4A29B466}" name="Column80"/>
+    <tableColumn id="81" xr3:uid="{3BEAB987-A94D-1E49-A894-AB8993F545E8}" name="Column81"/>
+    <tableColumn id="82" xr3:uid="{2631B7ED-DA8A-294E-899F-CF0E9EAACE4B}" name="Column82"/>
+    <tableColumn id="83" xr3:uid="{CE794470-4D73-1C4F-B565-5D472B4907E4}" name="Column83"/>
+    <tableColumn id="84" xr3:uid="{3085D350-2660-D649-9F85-2336D5F5227D}" name="Column84"/>
+    <tableColumn id="85" xr3:uid="{7CD48C73-0399-F44C-B757-57F032708330}" name="Column85"/>
+    <tableColumn id="86" xr3:uid="{81562EA8-8942-0347-9122-C22D8B9C593C}" name="Column86"/>
+    <tableColumn id="87" xr3:uid="{172451C1-42D8-5443-9480-16473C9D3AA9}" name="Column87"/>
+    <tableColumn id="88" xr3:uid="{30467368-B580-BA4D-86F6-549B8E3A2577}" name="Column88"/>
+    <tableColumn id="89" xr3:uid="{8A81CF37-C9B9-9545-BB3A-E1389D80B8D6}" name="Column89"/>
+    <tableColumn id="90" xr3:uid="{C65C9DD4-33EE-FB42-9936-6088C863DF2B}" name="Column90"/>
+    <tableColumn id="91" xr3:uid="{30401755-CD6B-BB4B-B940-64F419FE4A3A}" name="Column91"/>
+    <tableColumn id="92" xr3:uid="{BE99AD76-8B3A-9248-9523-0D74C604C694}" name="Column92"/>
+    <tableColumn id="93" xr3:uid="{562F8E95-9142-3043-A5AB-C15A87502845}" name="Column93"/>
+    <tableColumn id="94" xr3:uid="{3E7C72F7-E562-B44B-934F-37AC322CA75C}" name="Column94"/>
+    <tableColumn id="95" xr3:uid="{004D20B4-A493-ED47-B179-B547D5459137}" name="Column95"/>
+    <tableColumn id="96" xr3:uid="{3BD28888-565C-5344-A86E-373D8A3D41C8}" name="Column96"/>
+    <tableColumn id="97" xr3:uid="{CD4005F1-8E15-EB49-9061-370184CBCF33}" name="Column97"/>
+    <tableColumn id="98" xr3:uid="{7D09BEF7-8D97-FC41-AB9C-6CB018358F44}" name="Column98"/>
+    <tableColumn id="99" xr3:uid="{DEDBBF27-CAAE-604E-B885-3794B24E9BAC}" name="Column99"/>
+    <tableColumn id="100" xr3:uid="{B52A839D-5D3D-2A41-B4B5-192BB2FF826B}" name="Column100"/>
+    <tableColumn id="101" xr3:uid="{ABDD72B9-B35C-314A-AD3E-0285FC608181}" name="Column101"/>
+    <tableColumn id="102" xr3:uid="{52E87C55-E805-2349-917E-BF43ABD2DD06}" name="Column102"/>
+    <tableColumn id="103" xr3:uid="{460EAE26-E6B2-574F-AA84-47278B4AF98A}" name="Column103"/>
+    <tableColumn id="104" xr3:uid="{023C5EDB-EBA2-624B-BD57-895D0221B58E}" name="Column104"/>
+    <tableColumn id="105" xr3:uid="{9AA080E4-3714-E14D-B36C-E16065F7CDD8}" name="Column105"/>
+    <tableColumn id="106" xr3:uid="{58C1BAAF-E713-8642-B75B-4B62A9B24E88}" name="Column106"/>
+    <tableColumn id="107" xr3:uid="{49CF580A-A4A4-8545-B5C7-03FDD2890507}" name="Column107"/>
+    <tableColumn id="108" xr3:uid="{0F8FDF82-51FC-5045-98CB-7D325D5B1C94}" name="Column108"/>
+    <tableColumn id="109" xr3:uid="{CBD227C7-9B63-BF4E-B549-38E3B98B114D}" name="Column109"/>
+    <tableColumn id="110" xr3:uid="{3CA11E96-C04A-7B48-8719-0791B05281AF}" name="Column110"/>
+    <tableColumn id="111" xr3:uid="{FDAF9D88-9797-164B-94EE-51A2A54DD82E}" name="Column111"/>
+    <tableColumn id="112" xr3:uid="{9CE575D2-A337-6842-969C-2EE6BF9498A9}" name="Column112"/>
+    <tableColumn id="113" xr3:uid="{F8091B31-A729-E640-AF03-42B2E24FD927}" name="Column113"/>
+    <tableColumn id="114" xr3:uid="{87702EAA-BEED-7542-94C7-1B7E679A3F74}" name="Column114"/>
+    <tableColumn id="115" xr3:uid="{13FAA215-DCE9-2C4B-BCB3-4C0447F4BFCA}" name="Column115"/>
+    <tableColumn id="116" xr3:uid="{A5B0209D-F6F1-AB43-8D12-DF43B30D2276}" name="Column116"/>
+    <tableColumn id="117" xr3:uid="{9BA30C52-B3CA-3D43-B3B7-C8D6B5FDABD9}" name="Column117"/>
+    <tableColumn id="118" xr3:uid="{0E74F6AA-95C0-A647-87ED-1B89D845B686}" name="Column118"/>
+    <tableColumn id="119" xr3:uid="{85325751-401E-AF42-B891-D08D6FBDF224}" name="Column119"/>
+    <tableColumn id="120" xr3:uid="{FF914DA1-B0D9-8540-9804-0366E0233601}" name="Column120"/>
+    <tableColumn id="121" xr3:uid="{FB748EBD-7964-BA4C-9B35-DFCBE719887E}" name="Column121"/>
+    <tableColumn id="122" xr3:uid="{53AA7778-6D7D-784B-8FEC-C9CAC08182F8}" name="Column122"/>
+    <tableColumn id="123" xr3:uid="{68BDEC31-6B99-C54A-B555-111C4E27AA42}" name="Column123"/>
+    <tableColumn id="124" xr3:uid="{F32ECC71-0B31-4244-8278-D43D8CBCDDBC}" name="Column124"/>
+    <tableColumn id="125" xr3:uid="{A878C396-3481-D041-AFAD-E0064C49C71C}" name="Column125"/>
+    <tableColumn id="126" xr3:uid="{997C7C6F-3F70-F04C-98C6-89814C6F15E3}" name="Column126"/>
+    <tableColumn id="127" xr3:uid="{EAB074DE-99F8-3448-9348-311E9E70A355}" name="Column127"/>
+    <tableColumn id="128" xr3:uid="{349CE1A0-6DEE-8C4C-98BC-514CCF7E749B}" name="Column128"/>
+    <tableColumn id="129" xr3:uid="{D31CE291-7FBF-CD46-AD4C-8082618A1507}" name="Column129"/>
+    <tableColumn id="130" xr3:uid="{0474F1B2-1254-3A4E-BCC6-A7ECB2996FF2}" name="Column130"/>
+    <tableColumn id="131" xr3:uid="{EA3234BB-297F-534C-89AB-FFCF34811A1D}" name="Column131"/>
+    <tableColumn id="132" xr3:uid="{67B19A7F-101F-7444-A699-7C4D3EEFF1CF}" name="Column132"/>
+    <tableColumn id="133" xr3:uid="{8780F8A6-6D29-BA4C-8414-4D7A3E1CE3AD}" name="Column133"/>
+    <tableColumn id="134" xr3:uid="{CE646B52-11CC-C940-B3B1-DB1AF65EEB0C}" name="Column134"/>
+    <tableColumn id="135" xr3:uid="{78B701A9-7F3F-0D4A-86F7-0F0DDE7ADF6B}" name="Column135"/>
+    <tableColumn id="136" xr3:uid="{FB988728-F3D5-F34D-9048-B5F5833FFA62}" name="Column136"/>
+    <tableColumn id="137" xr3:uid="{16B3585A-5DCD-7E40-9A54-567D9605987B}" name="Column137"/>
+    <tableColumn id="138" xr3:uid="{DDD0652A-75B2-DE41-A83A-C85242810C5C}" name="Column138"/>
+    <tableColumn id="139" xr3:uid="{4779F590-4297-9B4A-A482-4BB64940CF23}" name="Column139"/>
+    <tableColumn id="140" xr3:uid="{5DFDDF3C-CCC3-F742-BB29-C393669490C5}" name="Column140"/>
+    <tableColumn id="141" xr3:uid="{147CC411-E0E4-7640-BEC5-FE3A78B631CB}" name="Column141"/>
+    <tableColumn id="142" xr3:uid="{976D3685-95A5-AE46-BBEB-342181F9688F}" name="Column142"/>
+    <tableColumn id="143" xr3:uid="{AC41FD64-9D18-8544-8830-8240B2DBBB4C}" name="Column143"/>
+    <tableColumn id="144" xr3:uid="{96F43F2A-9A36-CC4E-B49C-C516233A7882}" name="Column144"/>
+    <tableColumn id="145" xr3:uid="{725B914A-FEE1-F745-8824-D165DAEF8CF1}" name="Column145"/>
+    <tableColumn id="146" xr3:uid="{F381D321-E7FE-D041-98F7-D432589A42DA}" name="Column146"/>
+    <tableColumn id="147" xr3:uid="{985E6F1A-5403-014D-97D7-A42ABFE4B919}" name="Column147"/>
+    <tableColumn id="148" xr3:uid="{E41A7AF0-7396-EC46-A939-D767EB63E4AE}" name="Column148"/>
+    <tableColumn id="149" xr3:uid="{C7F8AE85-077C-E04D-B6F0-81016A793BC7}" name="Column149"/>
+    <tableColumn id="150" xr3:uid="{57C5FA31-E204-674B-B8F0-11F9FE86ABE5}" name="Column150"/>
+    <tableColumn id="151" xr3:uid="{6C0B17E1-A45F-1245-A6FF-246B350DFE5F}" name="Column151"/>
+    <tableColumn id="152" xr3:uid="{2DF6D508-263B-9142-A556-7FF2A4FA540B}" name="Column152"/>
+    <tableColumn id="153" xr3:uid="{3D010817-C288-8746-B9A4-F7DE21CAEE74}" name="Column153"/>
+    <tableColumn id="154" xr3:uid="{C7B51C54-8EE0-FC4D-9DC3-68110E6F2F05}" name="Column154"/>
+    <tableColumn id="155" xr3:uid="{253B6411-73FF-7946-BC04-F2BE5EDFB137}" name="Column155"/>
+    <tableColumn id="156" xr3:uid="{52093170-04E1-F545-B9A9-B1D0823D00E9}" name="Column156"/>
+    <tableColumn id="157" xr3:uid="{7783AA9A-9A42-C84B-825B-44D6F59807E1}" name="Column157"/>
+    <tableColumn id="158" xr3:uid="{06C3952A-DB36-9745-A10B-8565A6153329}" name="Column158"/>
+    <tableColumn id="159" xr3:uid="{8AB19FFB-ED8C-E348-B9E6-2F9E40AEA4E9}" name="Column159"/>
+    <tableColumn id="160" xr3:uid="{8BDBEC28-2996-EE44-8171-46C94817F2D8}" name="Column160"/>
+    <tableColumn id="161" xr3:uid="{AA3DB7ED-3FF0-FE4B-8557-B658869191DA}" name="Column161"/>
+    <tableColumn id="162" xr3:uid="{543B3635-64C5-F747-B1B0-9A561EAEB270}" name="Column162"/>
+    <tableColumn id="163" xr3:uid="{94A9F583-8A99-F64D-87A6-ECF004567D2F}" name="Column163"/>
+    <tableColumn id="164" xr3:uid="{F14EB8B6-8BD8-5443-A0BC-FCC76FDD3C82}" name="Column164"/>
+    <tableColumn id="165" xr3:uid="{E423FDCA-DD14-B048-A129-975A01E1D11A}" name="Column165"/>
+    <tableColumn id="166" xr3:uid="{5DF05683-B602-4B4C-910E-A1A011F02DA2}" name="Column166"/>
+    <tableColumn id="167" xr3:uid="{BDAA3280-6DFF-9748-BDAC-895377B67075}" name="Column167"/>
+    <tableColumn id="168" xr3:uid="{15424EE6-D3B6-DF43-B712-557AA448A4C7}" name="Column168"/>
+    <tableColumn id="169" xr3:uid="{3B8A07BE-94E1-304A-AE5A-1CA768CC9ECE}" name="Column169"/>
+    <tableColumn id="170" xr3:uid="{6928AA65-3EF2-554F-95F9-266E58BACCE3}" name="Column170"/>
+    <tableColumn id="171" xr3:uid="{C5FFF78C-FE0F-2442-AF91-BDDE741B6CFB}" name="Column171"/>
+    <tableColumn id="172" xr3:uid="{2AF26A4D-2A8F-DB4F-86A3-BB31CE4B064A}" name="Column172"/>
+    <tableColumn id="173" xr3:uid="{D57053AE-5278-0A41-9172-47D9AAF9B40F}" name="Column173"/>
+    <tableColumn id="174" xr3:uid="{77944EFB-0698-484F-BAF9-E26DC0C094EC}" name="Column174"/>
+    <tableColumn id="175" xr3:uid="{C1D0AF53-8C96-864A-92D6-E2B94A3F0810}" name="Column175"/>
+    <tableColumn id="176" xr3:uid="{A70BF3AB-7261-B34B-A6AF-70FD02EBF161}" name="Column176"/>
+    <tableColumn id="177" xr3:uid="{D98B0914-46C3-6F4E-9CE7-EF180DAF50C2}" name="Column177"/>
+    <tableColumn id="178" xr3:uid="{1339A8EF-6AA3-2147-B75F-397670184100}" name="Column178"/>
+    <tableColumn id="179" xr3:uid="{68BC4D81-7414-C049-A2C2-1FCB2B6A4182}" name="Column179"/>
+    <tableColumn id="180" xr3:uid="{CCA9AE6D-7270-B248-9431-44A4401964F1}" name="Column180"/>
+    <tableColumn id="181" xr3:uid="{87D1507C-2FAF-F34A-AEFD-F1EA08ABF03F}" name="Column181"/>
+    <tableColumn id="182" xr3:uid="{B8B876DE-95EE-5D4B-9B6F-CA4CAF2E4411}" name="Column182"/>
+    <tableColumn id="183" xr3:uid="{3BC8D127-5DBA-0441-A7AC-45CBE5539F52}" name="Column183"/>
+    <tableColumn id="184" xr3:uid="{F0C1B9FF-8604-9F49-A5B3-B24616C4673D}" name="Column184"/>
+    <tableColumn id="185" xr3:uid="{055D1357-C208-1941-A44D-677D3ACF8905}" name="Column185"/>
+    <tableColumn id="186" xr3:uid="{32E74A02-28A4-F744-BA5B-9D049EC34993}" name="Column186"/>
+    <tableColumn id="187" xr3:uid="{AFF499D7-C06E-6B4B-B78F-91C1AF653A2D}" name="Column187"/>
+    <tableColumn id="188" xr3:uid="{F38191A6-3C6E-3142-830E-6BFDE5C54823}" name="Column188"/>
+    <tableColumn id="189" xr3:uid="{BFEE2A1D-B03C-C14E-8841-A85F6BAA749F}" name="Column189"/>
+    <tableColumn id="190" xr3:uid="{85D85AD2-05F9-D34E-8A13-FDB19360E7C7}" name="Column190"/>
+    <tableColumn id="191" xr3:uid="{10FDB068-6552-5F44-BD2F-2178C0A301B5}" name="Column191"/>
+    <tableColumn id="192" xr3:uid="{E7934594-2252-BE4E-91AF-D339AA8EDDEB}" name="Column192"/>
+    <tableColumn id="193" xr3:uid="{DA2E6F80-9924-6B4B-AFF2-DFD3981B1FFC}" name="Column193"/>
+    <tableColumn id="194" xr3:uid="{5BA7638A-3F3D-154C-A48C-1FFAB50B78F5}" name="Column194"/>
+    <tableColumn id="195" xr3:uid="{FA61AEBA-410E-6C4A-9C61-FD333D308243}" name="Column195"/>
+    <tableColumn id="196" xr3:uid="{AC61F139-D8D1-0648-B40F-74F77F07F72D}" name="Column196"/>
+    <tableColumn id="197" xr3:uid="{932BD1BF-D91E-C04F-A5DF-D3DC7E3571F6}" name="Column197"/>
+    <tableColumn id="198" xr3:uid="{9EF596C7-A23B-DE4B-9EE7-CBB07CB58025}" name="Column198"/>
+    <tableColumn id="199" xr3:uid="{3296761C-A41B-7C41-9152-3463BBDE6CC3}" name="Column199"/>
+    <tableColumn id="200" xr3:uid="{2BDC28A8-C20A-454E-8119-3FDEF03BC04B}" name="Column200"/>
+    <tableColumn id="201" xr3:uid="{BC0B90EB-4AAE-AA4D-808A-C7F9CB066748}" name="Column201"/>
+    <tableColumn id="202" xr3:uid="{48F6FDCF-47E3-E447-A062-436AAB505FA9}" name="Column202"/>
+    <tableColumn id="203" xr3:uid="{38BDEC75-B0FD-984A-94D0-4D2CDD70203F}" name="Column203"/>
+    <tableColumn id="204" xr3:uid="{882FF717-3A0F-F640-B71E-EA8918B0B798}" name="Column204"/>
+    <tableColumn id="205" xr3:uid="{983FB794-9061-B44C-9C74-FBF3660D7487}" name="Column205"/>
+    <tableColumn id="206" xr3:uid="{061A9FA9-7345-C140-8265-AA7F4017E2D7}" name="Column206"/>
+    <tableColumn id="207" xr3:uid="{5E4ADAA8-564E-1645-88BA-EE0531518C2E}" name="Column207"/>
+    <tableColumn id="208" xr3:uid="{F6E301AC-31F0-F94D-97C4-9420C05C871C}" name="Column208"/>
+    <tableColumn id="209" xr3:uid="{0231B0C6-90AA-4B43-92F9-05F3B46A147A}" name="Column209"/>
+    <tableColumn id="210" xr3:uid="{D8C2D51E-61B8-0845-ADE8-017A817AC5BA}" name="Column210"/>
+    <tableColumn id="211" xr3:uid="{F66BDF34-215F-F541-B65E-C930C380B63B}" name="Column211"/>
+    <tableColumn id="212" xr3:uid="{770DDBCD-8773-9648-94CF-4DC461A851B9}" name="Column212"/>
+    <tableColumn id="213" xr3:uid="{AA2DFB3C-B14E-E34C-9382-931FA4B550BC}" name="Column213"/>
+    <tableColumn id="214" xr3:uid="{CFB2FDBC-4826-A147-9360-6E01C5AF6C75}" name="Column214"/>
+    <tableColumn id="215" xr3:uid="{18B21983-0B50-A846-A44D-3B514001B890}" name="Column215"/>
+    <tableColumn id="216" xr3:uid="{AB9D3A11-2995-2D42-ACAE-5E168293328D}" name="Column216"/>
+    <tableColumn id="217" xr3:uid="{3D83C5EB-4A71-D141-818A-6C2F09EAD3FE}" name="Column217"/>
+    <tableColumn id="218" xr3:uid="{68A35AF0-996A-BE4C-A42D-0ED4A2B12ABE}" name="Column218"/>
+    <tableColumn id="219" xr3:uid="{E918F6EF-1085-304C-9437-9452388C1B02}" name="Column219"/>
+    <tableColumn id="220" xr3:uid="{311FE8F7-85D5-AD4E-B79B-5B31AF84EF4E}" name="Column220"/>
+    <tableColumn id="221" xr3:uid="{E66B8089-D09C-1940-9C83-B435AAA7CEE5}" name="Column221"/>
+    <tableColumn id="222" xr3:uid="{22E4A183-E2A8-8945-A03F-F3FD69550263}" name="Column222"/>
+    <tableColumn id="223" xr3:uid="{C8D33418-234F-AF49-95CA-8FF9A15A518A}" name="Column223"/>
+    <tableColumn id="224" xr3:uid="{FCC9A151-8AD6-374D-8F39-5EA5291D6F04}" name="Column224"/>
+    <tableColumn id="225" xr3:uid="{9E122AD3-AFCF-E649-B7CF-398B16117DE5}" name="Column225"/>
+    <tableColumn id="226" xr3:uid="{63993123-9199-FE4D-910B-E63BA07A6444}" name="Column226"/>
+    <tableColumn id="227" xr3:uid="{6F9336A1-D04B-EF40-8057-646A19000859}" name="Column227"/>
+    <tableColumn id="228" xr3:uid="{FE4CDA39-F46F-0941-AAA9-BEBCA13496FE}" name="Column228"/>
+    <tableColumn id="229" xr3:uid="{5C4758D6-9FBA-4E49-B403-1F072134C1BC}" name="Column229"/>
+    <tableColumn id="230" xr3:uid="{E53E25D1-16A5-8A49-8412-9BA32D3C83CE}" name="Column230"/>
+    <tableColumn id="231" xr3:uid="{48771AEF-BD50-8B44-9D59-9CC01D75A902}" name="Column231"/>
+    <tableColumn id="232" xr3:uid="{EF68CA70-5014-644B-8EA8-E148EAB79E16}" name="Column232"/>
+    <tableColumn id="233" xr3:uid="{2DC71C88-F0B0-C34A-AE90-A64E65078EC9}" name="Column233"/>
+    <tableColumn id="234" xr3:uid="{502BC141-9CB2-3D40-B3B0-16F9B90F9048}" name="Column234"/>
+    <tableColumn id="235" xr3:uid="{6F1DDA34-B718-DF40-BAC2-AE2BBEA8251F}" name="Column235"/>
+    <tableColumn id="236" xr3:uid="{FCA3F6CD-F6B3-6546-955B-8FB2E329A67B}" name="Column236"/>
+    <tableColumn id="237" xr3:uid="{4E55787A-94CD-624E-A129-1E1E10720F51}" name="Column237"/>
+    <tableColumn id="238" xr3:uid="{F8049C04-8FD1-E14F-B272-0E66536D9381}" name="Column238"/>
+    <tableColumn id="239" xr3:uid="{E3F61552-5D24-E340-A952-617939BEA26F}" name="Column239"/>
+    <tableColumn id="240" xr3:uid="{9362C966-FF85-B942-81A6-3FD8FB9672EF}" name="Column240"/>
+    <tableColumn id="241" xr3:uid="{17BA07A9-2590-7548-9124-2ADBA4589BFB}" name="Column241"/>
+    <tableColumn id="242" xr3:uid="{ECCFE9FE-0BC2-904C-931A-19631238C35D}" name="Column242"/>
+    <tableColumn id="243" xr3:uid="{DC21AD3C-9A75-5B4B-81B2-7BC1B1B77616}" name="Column243"/>
+    <tableColumn id="244" xr3:uid="{EDAAAE16-FEC5-304D-9B94-5A5BA95081F2}" name="Column244"/>
+    <tableColumn id="245" xr3:uid="{58B90B3C-48EE-FB41-8AA3-5E2612A33BD8}" name="Column245"/>
+    <tableColumn id="246" xr3:uid="{42F0A6BE-6772-8B4D-858F-E2F1FAD20426}" name="Column246"/>
+    <tableColumn id="247" xr3:uid="{4C74F238-0A4C-D34B-9565-2572FFBCE191}" name="Column247"/>
+    <tableColumn id="248" xr3:uid="{3ABA2C9F-5AF6-1440-92C3-C1F53DFCDB82}" name="Column248"/>
+    <tableColumn id="249" xr3:uid="{C38CF6FE-0ED4-B447-B160-79C6FD35C0E9}" name="Column249"/>
+    <tableColumn id="250" xr3:uid="{F9D4BE4E-BBAE-F042-A75C-A85816D7002B}" name="Column250"/>
+    <tableColumn id="251" xr3:uid="{78839916-9552-F849-B32A-F17F788A0138}" name="Column251"/>
+    <tableColumn id="252" xr3:uid="{9A079FD9-4332-C14D-96C9-C54E05348823}" name="Column252"/>
+    <tableColumn id="253" xr3:uid="{2B3CD851-5744-3346-B943-2AAAB6773615}" name="Column253"/>
+    <tableColumn id="254" xr3:uid="{225C173D-2E1D-054B-BDF2-9E34A562AAFE}" name="Column254"/>
+    <tableColumn id="255" xr3:uid="{4B4D19B2-3EB9-754C-9D9E-E49E65DDCCAB}" name="Column255"/>
+    <tableColumn id="256" xr3:uid="{0EEF0E7D-99EA-7E41-AE83-E2544D3C1BFE}" name="Column256"/>
+    <tableColumn id="257" xr3:uid="{B1D374D3-02DF-E741-97E9-A9E46BB23101}" name="Column257"/>
+    <tableColumn id="258" xr3:uid="{FEFB77AB-8CC7-DD4A-9ED6-CC72D0FD5041}" name="Column258"/>
+    <tableColumn id="259" xr3:uid="{92382C50-77F9-194B-9019-2B7CAC500F2D}" name="Column259"/>
+    <tableColumn id="260" xr3:uid="{F52275EA-ABF2-DB4D-A0D5-17FC15A3CEF7}" name="Column260"/>
+    <tableColumn id="261" xr3:uid="{AF955ED1-3C78-3744-B8E3-B8E8AAB23385}" name="Column261"/>
+    <tableColumn id="262" xr3:uid="{C880F9EC-2408-C642-B7B5-4973CD931F42}" name="Column262"/>
+    <tableColumn id="263" xr3:uid="{CDBE6E28-C15A-8D46-8B0C-C75F16FF609F}" name="Column263"/>
+    <tableColumn id="264" xr3:uid="{E9894ED3-0CE2-E345-B969-618AC0E61DF8}" name="Column264"/>
+    <tableColumn id="265" xr3:uid="{954224DA-CB6A-F44B-8A53-22EBA17ACF03}" name="Column265"/>
+    <tableColumn id="266" xr3:uid="{BB082F74-0467-BB49-9771-B785C13FBC02}" name="Column266"/>
+    <tableColumn id="267" xr3:uid="{5D0CAE32-3EB7-1641-96BE-9DEDBEDE4403}" name="Column267"/>
+    <tableColumn id="268" xr3:uid="{4B13A9E1-5FE3-FB4A-AE27-C147A76EE697}" name="Column268"/>
+    <tableColumn id="269" xr3:uid="{A685E5A2-C602-1340-BAE1-4E70DF98B326}" name="Column269"/>
+    <tableColumn id="270" xr3:uid="{8C476E37-0BA1-4244-ADEB-61D5012E5B65}" name="Column270"/>
+    <tableColumn id="271" xr3:uid="{6544F53C-B0B0-EA4D-AACB-25A0FD9DEE1E}" name="Column271"/>
+    <tableColumn id="272" xr3:uid="{883ED942-C317-BB48-8618-B3ADCE2F5EF1}" name="Column272"/>
+    <tableColumn id="273" xr3:uid="{C200DE57-FC94-D24C-8846-200A18760E31}" name="Column273"/>
+    <tableColumn id="274" xr3:uid="{B20DF33E-4FBF-B54E-A728-289F167246FC}" name="Column274"/>
+    <tableColumn id="275" xr3:uid="{05ED6CE6-C45F-0741-87A8-3D1FE49B3120}" name="Column275"/>
+    <tableColumn id="276" xr3:uid="{716D2293-3CE5-3741-9900-48BF8C1D4BE3}" name="Column276"/>
+    <tableColumn id="277" xr3:uid="{0142FF7F-E574-3942-9616-1E1FFD0310B5}" name="Column277"/>
+    <tableColumn id="278" xr3:uid="{C001690D-2116-1A4E-997A-CFF074FF6E79}" name="Column278"/>
+    <tableColumn id="279" xr3:uid="{D623B09F-C9CB-5343-A469-88F1D5888889}" name="Column279"/>
+    <tableColumn id="280" xr3:uid="{0B79BF82-0A31-584C-A603-875C7B79C879}" name="Column280"/>
+    <tableColumn id="281" xr3:uid="{AE28EB48-096C-BF40-ADF5-63BA25F58EA4}" name="Column281"/>
+    <tableColumn id="282" xr3:uid="{BDDBC98A-8DA9-EC40-8EA0-8E4A665638E3}" name="Column282"/>
+    <tableColumn id="283" xr3:uid="{88B86D67-F470-2748-A9AA-5ECFA239C100}" name="Column283"/>
+    <tableColumn id="284" xr3:uid="{B8967E75-37E2-7B4D-874D-22A5B02E81E3}" name="Column284"/>
+    <tableColumn id="285" xr3:uid="{ED58D508-43E0-004B-86F8-6973E3DCEEA9}" name="Column285"/>
+    <tableColumn id="286" xr3:uid="{59421979-125C-364D-8C7E-C372576DFFFF}" name="Column286"/>
+    <tableColumn id="287" xr3:uid="{663B71E0-E9FB-BA4E-8365-FCB25262AED3}" name="Column287"/>
+    <tableColumn id="288" xr3:uid="{C7F2A68B-4E6E-3841-B6F3-69CD9837B4E0}" name="Column288"/>
+    <tableColumn id="289" xr3:uid="{A45FA1C9-6BDF-8348-AB80-BCE25263C759}" name="Column289"/>
+    <tableColumn id="290" xr3:uid="{FBA02CBF-06C5-734A-8A6B-AFC74A0A13D2}" name="Column290"/>
+    <tableColumn id="291" xr3:uid="{BB7089E8-3ACA-944B-B770-1C292D092706}" name="Column291"/>
+    <tableColumn id="292" xr3:uid="{A6D67C63-55DF-F645-B054-C18B27B54B1B}" name="Column292"/>
+    <tableColumn id="293" xr3:uid="{28874F56-E3E7-5B45-BA5F-9F1DAA778862}" name="Column293"/>
+    <tableColumn id="294" xr3:uid="{794CADAA-5C85-1D48-8A2A-7C9188C573E5}" name="Column294"/>
+    <tableColumn id="295" xr3:uid="{E8A427FD-F5A1-EF4B-A5C6-62BFACDA22EE}" name="Column295"/>
+    <tableColumn id="296" xr3:uid="{F166EBEA-051E-CC4B-BB94-0E11A1334E1F}" name="Column296"/>
+    <tableColumn id="297" xr3:uid="{414268CC-6861-3744-87EC-FAA8C9D77352}" name="Column297"/>
+    <tableColumn id="298" xr3:uid="{967ECE0B-676F-EF45-94E6-6CD226D314A7}" name="Column298"/>
+    <tableColumn id="299" xr3:uid="{3E5130A4-8A7C-4340-A94C-E65761EAC9D2}" name="Column299"/>
+    <tableColumn id="300" xr3:uid="{03EF7A41-E98D-7B4C-8677-BB91471138DD}" name="Column300"/>
+    <tableColumn id="301" xr3:uid="{C3B0A5B6-7760-8F4C-AAFA-EFF0323B7DE5}" name="Column301"/>
+    <tableColumn id="302" xr3:uid="{D17F0FA5-63D1-BB40-8EA2-826C0E504EFA}" name="Column302"/>
+    <tableColumn id="303" xr3:uid="{7BA5F4F9-CEF5-2D42-988B-80ED6AA4948F}" name="Column303"/>
+    <tableColumn id="304" xr3:uid="{84DD73F9-8F67-4F41-B6BC-B65D8104B9A5}" name="Column304"/>
+    <tableColumn id="305" xr3:uid="{9916DFC7-DD2A-E745-A207-A149BEC0E2E2}" name="Column305"/>
+    <tableColumn id="306" xr3:uid="{051FCCD6-928B-F847-9C91-60379184A008}" name="Column306"/>
+    <tableColumn id="307" xr3:uid="{9063D638-0509-8E4F-8267-A25C744F8D74}" name="Column307"/>
+    <tableColumn id="308" xr3:uid="{868539B1-7EB8-D849-90E5-8B884840B3FF}" name="Column308"/>
+    <tableColumn id="309" xr3:uid="{9138F3C5-322F-764C-8F4D-BF823C77A9ED}" name="Column309"/>
+    <tableColumn id="310" xr3:uid="{EA477558-87F6-7948-858D-72A31FC35D1E}" name="Column310"/>
+    <tableColumn id="311" xr3:uid="{714AB93D-17E2-1F48-88C8-D1AF39B37E25}" name="Column311"/>
+    <tableColumn id="312" xr3:uid="{1A2CB3AF-70C5-124D-89FE-3432B005CB9E}" name="Column312"/>
+    <tableColumn id="313" xr3:uid="{AC5B5DC0-0C58-F841-B726-ED03E0339F07}" name="Column313"/>
+    <tableColumn id="314" xr3:uid="{6602A9AF-CA8A-D541-B7F2-CD4A8FB74217}" name="Column314"/>
+    <tableColumn id="315" xr3:uid="{254C2D93-625E-6141-AA1D-FCA6A41A86C4}" name="Column315"/>
+    <tableColumn id="316" xr3:uid="{3E75CFAC-C636-8541-A48A-1BCCCE285C86}" name="Column316"/>
+    <tableColumn id="317" xr3:uid="{341D87CE-78E7-574A-934A-9B8BD4A6806C}" name="Column317"/>
+    <tableColumn id="318" xr3:uid="{1E29851F-77E9-DA4B-B45B-8CEBE63901F8}" name="Column318"/>
+    <tableColumn id="319" xr3:uid="{1F7DD9A6-0B63-D943-A8D8-B5AF913CA7D3}" name="Column319"/>
+    <tableColumn id="320" xr3:uid="{EBA29154-95CD-6E4A-A8EB-5C68CB21DB2E}" name="Column320"/>
+    <tableColumn id="321" xr3:uid="{1D468884-D2EA-7847-A729-483A9244070F}" name="Column321"/>
+    <tableColumn id="322" xr3:uid="{5B551461-C884-BE44-8281-D55436E4FF95}" name="Column322"/>
+    <tableColumn id="323" xr3:uid="{333923E9-3738-E14A-A12A-AE713576379E}" name="Column323"/>
+    <tableColumn id="324" xr3:uid="{B83BD730-5924-D74C-857B-6C1C806E9021}" name="Column324"/>
+    <tableColumn id="325" xr3:uid="{83F153FD-F9A9-7047-BD60-B87C0598496C}" name="Column325"/>
+    <tableColumn id="326" xr3:uid="{7AC50CC9-B35D-7B49-84F9-28BF951752C6}" name="Column326"/>
+    <tableColumn id="327" xr3:uid="{7842F5EB-6421-7E43-9376-3B66B352C3D9}" name="Column327"/>
+    <tableColumn id="328" xr3:uid="{BB8DAC5A-84C9-BE41-A8EE-5402ABE7BF31}" name="Column328"/>
+    <tableColumn id="329" xr3:uid="{97F6C757-8945-FC49-810C-8FA7B669FF91}" name="Column329"/>
+    <tableColumn id="330" xr3:uid="{7C004B01-A9F6-2447-B0EF-2F35BE4A80F9}" name="Column330"/>
+    <tableColumn id="331" xr3:uid="{544194EC-9D5A-CF42-B707-3C025C24F872}" name="Column331"/>
+    <tableColumn id="332" xr3:uid="{F99CA46F-E737-8A4A-80C9-23A2A3236EA3}" name="Column332"/>
+    <tableColumn id="333" xr3:uid="{21BFF2B7-0BB3-264A-931A-0F0B46710A85}" name="Column333"/>
+    <tableColumn id="334" xr3:uid="{AD819C80-C7A9-9845-BB95-1B0677C28D20}" name="Column334"/>
+    <tableColumn id="335" xr3:uid="{27E88D12-F774-6C4A-894F-B173B5A6CFB8}" name="Column335"/>
+    <tableColumn id="336" xr3:uid="{421B3372-F6AC-7A4F-BF24-39F5299DEEDC}" name="Column336"/>
+    <tableColumn id="337" xr3:uid="{43A3C7CE-DACA-C04D-A698-28B94475BBE2}" name="Column337"/>
+    <tableColumn id="338" xr3:uid="{74A026CB-A89F-3F42-A379-0152544D104F}" name="Column338"/>
+    <tableColumn id="339" xr3:uid="{37AA6553-AEB0-634F-BB77-F4624637EFC4}" name="Column339"/>
+    <tableColumn id="340" xr3:uid="{D9E003AD-0E0A-F34D-864D-D7DEDDA1D668}" name="Column340"/>
+    <tableColumn id="341" xr3:uid="{8E66EB8E-D83B-A945-AB99-94CCF0BBFADE}" name="Column341"/>
+    <tableColumn id="342" xr3:uid="{A9594E3D-761A-104E-A211-E4760E499194}" name="Column342"/>
+    <tableColumn id="343" xr3:uid="{6976C660-C0C5-6544-990D-791C9B7ABB48}" name="Column343"/>
+    <tableColumn id="344" xr3:uid="{FBEB0041-F2B8-FF4F-B311-7D68F8A06A19}" name="Column344"/>
+    <tableColumn id="345" xr3:uid="{DFBA85E1-9706-9145-9C37-23FCB722882C}" name="Column345"/>
+    <tableColumn id="346" xr3:uid="{518B2590-114D-7C4C-A049-05CDE84AD06B}" name="Column346"/>
+    <tableColumn id="347" xr3:uid="{8F773ACA-D10F-C44F-8572-1B847C1B9127}" name="Column347"/>
+    <tableColumn id="348" xr3:uid="{534C79EA-63C4-1048-B4C0-3CEFA9EFAEDE}" name="Column348"/>
+    <tableColumn id="349" xr3:uid="{C85E67E7-709D-374B-A094-FD78CA33DC18}" name="Column349"/>
+    <tableColumn id="350" xr3:uid="{96B014DB-F199-9E41-8E74-CFA601638E0E}" name="Column350"/>
+    <tableColumn id="351" xr3:uid="{8460CD0F-73FD-4346-85DF-94E1188B890F}" name="Column351"/>
+    <tableColumn id="352" xr3:uid="{EE92D567-0A95-7240-B175-A8D9B321301B}" name="Column352"/>
+    <tableColumn id="353" xr3:uid="{974277EE-F963-A047-B0E2-D56949A2779E}" name="Column353"/>
+    <tableColumn id="354" xr3:uid="{6EF51D24-EBD6-2B4D-801D-1ABAE8A2895D}" name="Column354"/>
+    <tableColumn id="355" xr3:uid="{83E21120-5145-EE4D-90A9-0F14E45FA866}" name="Column355"/>
+    <tableColumn id="356" xr3:uid="{D7630C21-CF2A-4643-AB5B-D6D3B47DD29C}" name="Column356"/>
+    <tableColumn id="357" xr3:uid="{64E6F9A3-3BBC-284E-AB18-079C05629069}" name="Column357"/>
+    <tableColumn id="358" xr3:uid="{C50668FA-6BE7-A949-AFD2-67A695885BEF}" name="Column358"/>
+    <tableColumn id="359" xr3:uid="{AFFBB53F-28F4-6A41-AA43-5D1466B2CE24}" name="Column359"/>
+    <tableColumn id="360" xr3:uid="{796AD47E-C5E2-904E-8F31-4A68AFBAEED7}" name="Column360"/>
+    <tableColumn id="361" xr3:uid="{D25973E9-28BF-3144-B8CD-EA76A94A8A46}" name="Column361"/>
+    <tableColumn id="362" xr3:uid="{9549FE09-7783-E849-9BDB-3CF0C14B92D8}" name="Column362"/>
+    <tableColumn id="363" xr3:uid="{9CB5D1CF-0463-D046-BFDC-E9A3E0E5D669}" name="Column363"/>
+    <tableColumn id="364" xr3:uid="{5BB5B279-CB45-FD43-968D-E9D01FDF0EB6}" name="Column364"/>
+    <tableColumn id="365" xr3:uid="{B1A7D165-D6AD-F041-AB2C-8AF25F2D4D80}" name="Column365"/>
+    <tableColumn id="366" xr3:uid="{92F5F464-B5B9-3043-B7D9-9D83CFFD35FA}" name="Column366"/>
+    <tableColumn id="367" xr3:uid="{5D50551E-A6B1-894C-9EBA-4B2FA69909FD}" name="Column367"/>
+    <tableColumn id="368" xr3:uid="{A0F0217A-8152-3C47-843E-CE8E53C83911}" name="Column368"/>
+    <tableColumn id="369" xr3:uid="{CCA38F1F-BE97-4F4B-8FEE-5F6FB6A9E48D}" name="Column369"/>
+    <tableColumn id="370" xr3:uid="{E88542B8-1B04-934C-A6F7-E84CFBCAA5CD}" name="Column370"/>
+    <tableColumn id="371" xr3:uid="{7EFACFDC-D8BF-D440-9356-F25C675272AC}" name="Column371"/>
+    <tableColumn id="372" xr3:uid="{661FB673-0E06-5D49-8A00-089F360A44EC}" name="Column372"/>
+    <tableColumn id="373" xr3:uid="{363C845D-1752-D34B-B52D-0BED20D09F03}" name="Column373"/>
+    <tableColumn id="374" xr3:uid="{75896C89-4446-E64A-B8D3-82CDBCB28F91}" name="Column374"/>
+    <tableColumn id="375" xr3:uid="{EE85502D-4C9C-6641-B3A5-CF6215841264}" name="Column375"/>
+    <tableColumn id="376" xr3:uid="{862C7041-1C24-C64D-944D-C84A5DB93D0E}" name="Column376"/>
+    <tableColumn id="377" xr3:uid="{99D6E046-E0C6-D44A-8631-90189B13EF7C}" name="Column377"/>
+    <tableColumn id="378" xr3:uid="{56B14EC5-A2FC-DF4E-ACE8-8DDB31AAAE99}" name="Column378"/>
+    <tableColumn id="379" xr3:uid="{256E78C4-A40B-244F-A532-B3479912AC06}" name="Column379"/>
+    <tableColumn id="380" xr3:uid="{3B077AE8-17DC-614C-99F7-5E617A8354F7}" name="Column380"/>
+    <tableColumn id="381" xr3:uid="{7EFC4841-D378-FF4A-8550-A11A1EFFC989}" name="Column381"/>
+    <tableColumn id="382" xr3:uid="{F506A372-35D1-D44E-94DB-A1493E56F5BA}" name="Column382"/>
+    <tableColumn id="383" xr3:uid="{FA918A6F-53D7-FF45-B95E-2B2E4D04D6E7}" name="Column383"/>
+    <tableColumn id="384" xr3:uid="{AF6194F6-07A2-1F41-9D09-A9644A890D4F}" name="Column384"/>
+    <tableColumn id="385" xr3:uid="{3ADE08A3-5313-B743-8579-F34DBA995167}" name="Column385"/>
+    <tableColumn id="386" xr3:uid="{640F69DD-78EB-EC44-9A48-0F41C52DBD33}" name="Column386"/>
+    <tableColumn id="387" xr3:uid="{C8F063F3-513B-BC43-BD9F-7A202B9B571A}" name="Column387"/>
+    <tableColumn id="388" xr3:uid="{65E7B1C9-ED78-3C4F-AF0C-E020252AEC98}" name="Column388"/>
+    <tableColumn id="389" xr3:uid="{DBA6A050-D1EE-B548-B65C-8ADDB1B9E55C}" name="Column389"/>
+    <tableColumn id="390" xr3:uid="{F44C4F02-75B5-C14C-BB43-6EDD0F1EC54A}" name="Column390"/>
+    <tableColumn id="391" xr3:uid="{D70DDC40-CCDE-8845-82A6-285D6C17C0F5}" name="Column391"/>
+    <tableColumn id="392" xr3:uid="{5C8A3DE0-E0E4-CF48-8998-271E5D99BB61}" name="Column392"/>
+    <tableColumn id="393" xr3:uid="{EF434411-5723-A74F-932E-45D4D1FD97A6}" name="Column393"/>
+    <tableColumn id="394" xr3:uid="{55B9B755-E80C-B34D-B1FC-7B2FCDD0402A}" name="Column394"/>
+    <tableColumn id="395" xr3:uid="{534F3C3B-B0CD-4E40-BBD7-300F5FEB4B1D}" name="Column395"/>
+    <tableColumn id="396" xr3:uid="{FF933BA6-9FE4-6349-9FAA-FE7DEEC17DC9}" name="Column396"/>
+    <tableColumn id="397" xr3:uid="{A59BC39A-3730-2A49-8CAC-9A65C8C44829}" name="Column397"/>
+    <tableColumn id="398" xr3:uid="{F47E2C4D-F58A-3C42-9C7A-A51C8D4F162B}" name="Column398"/>
+    <tableColumn id="399" xr3:uid="{F5CF6B69-D2EB-2944-B7E7-4462314995BD}" name="Column399"/>
+    <tableColumn id="400" xr3:uid="{69DC02A4-08D8-5C48-946C-4309812896C3}" name="Column400"/>
+    <tableColumn id="401" xr3:uid="{390D083D-9E13-1141-9591-9374E9359A2E}" name="Column401"/>
+    <tableColumn id="402" xr3:uid="{97ABCD9D-CC19-7A40-9173-2CD5A77767A7}" name="Column402"/>
+    <tableColumn id="403" xr3:uid="{327B0AD6-7423-B045-BB0D-167377DC57D4}" name="Column403"/>
+    <tableColumn id="404" xr3:uid="{05BBF3DC-8E03-D34C-A5D9-4BE6CF2C309F}" name="Column404"/>
+    <tableColumn id="405" xr3:uid="{FC5E3936-17E5-7A44-B9EF-3FCEB3B48BE9}" name="Column405"/>
+    <tableColumn id="406" xr3:uid="{F6FC7E55-0385-8546-89E9-1F5A1738C1B7}" name="Column406"/>
+    <tableColumn id="407" xr3:uid="{65379AC2-7174-174C-A6F0-3B0B49C011AC}" name="Column407"/>
+    <tableColumn id="408" xr3:uid="{347E2924-6E95-E848-BDB0-540067C3B9D5}" name="Column408"/>
+    <tableColumn id="409" xr3:uid="{DC555BF3-7814-4449-A282-25FD3BE798DE}" name="Column409"/>
+    <tableColumn id="410" xr3:uid="{520563B2-A9B9-2345-92E0-BF3A33F32A1A}" name="Column410"/>
+    <tableColumn id="411" xr3:uid="{052602CA-0777-374B-97D9-59E634E20496}" name="Column411"/>
+    <tableColumn id="412" xr3:uid="{2D3CF6D9-0BDB-D945-8801-D9576532B9E2}" name="Column412"/>
+    <tableColumn id="413" xr3:uid="{4D6E3198-F958-154D-AD84-849AC8FC80E7}" name="Column413"/>
+    <tableColumn id="414" xr3:uid="{73817D91-651B-7342-9A7A-B563000F8F8A}" name="Column414"/>
+    <tableColumn id="415" xr3:uid="{45A81C58-EBA1-CC4B-AA88-9DFF013E57F9}" name="Column415"/>
+    <tableColumn id="416" xr3:uid="{BCB95C06-C167-3B42-BFF3-AD38CE2715DB}" name="Column416"/>
+    <tableColumn id="417" xr3:uid="{DA3EC4BA-EAC7-9544-BDD3-C76981D98208}" name="Column417"/>
+    <tableColumn id="418" xr3:uid="{B242D3CD-328E-0148-A692-9B7E47CDB041}" name="Column418"/>
+    <tableColumn id="419" xr3:uid="{6E9DC3BF-1E1C-7E46-B072-F36CA7DC393A}" name="Column419"/>
+    <tableColumn id="420" xr3:uid="{F4BFA414-AF23-FA40-9D64-EBFF638F4A46}" name="Column420"/>
+    <tableColumn id="421" xr3:uid="{0CF4A49C-7DFC-474C-9BC9-62D0F3C9ACAD}" name="Column421"/>
+    <tableColumn id="422" xr3:uid="{C1C73EC9-80C1-B441-8A66-2CD60F240080}" name="Column422"/>
+    <tableColumn id="423" xr3:uid="{29C2048B-EC8E-D743-AAB0-EEE757DFB044}" name="Column423"/>
+    <tableColumn id="424" xr3:uid="{B525EA06-53A0-3943-9E02-40274E418AC4}" name="Column424"/>
+    <tableColumn id="425" xr3:uid="{750737B7-0073-2A44-AD0D-599BEE409D18}" name="Column425"/>
+    <tableColumn id="426" xr3:uid="{78531B34-729D-3648-80BC-A9D543793F0D}" name="Column426"/>
+    <tableColumn id="427" xr3:uid="{9B01F645-F694-1343-B4D5-A0F35D05838C}" name="Column427"/>
+    <tableColumn id="428" xr3:uid="{F7C22DC9-7FD4-A04D-8588-E1786569F77A}" name="Column428"/>
+    <tableColumn id="429" xr3:uid="{75F89466-731E-A445-B72E-BFF41B520610}" name="Column429"/>
+    <tableColumn id="430" xr3:uid="{6A4EC9E1-54C1-654D-8AC6-0B4BEC983558}" name="Column430"/>
+    <tableColumn id="431" xr3:uid="{24BBB109-A6E0-E142-92D6-285152298C4C}" name="Column431"/>
+    <tableColumn id="432" xr3:uid="{A6265D6D-1658-8C48-AF31-E42572FDF77B}" name="Column432"/>
+    <tableColumn id="433" xr3:uid="{AB8F0A8D-B3E6-AA4B-AE81-9492B0ED19D7}" name="Column433"/>
+    <tableColumn id="434" xr3:uid="{C53CB4CA-216E-1048-8950-16B3967FCE36}" name="Column434"/>
+    <tableColumn id="435" xr3:uid="{702F09E7-3234-AD46-8CCA-31565D12319A}" name="Column435"/>
+    <tableColumn id="436" xr3:uid="{0BEF3D8A-302C-104F-AF1A-4B6D6BDB4E03}" name="Column436"/>
+    <tableColumn id="437" xr3:uid="{C46FF942-3FC4-0C49-968C-8FBB3B8BD11A}" name="Column437"/>
+    <tableColumn id="438" xr3:uid="{6F5BD817-ED32-0643-95B8-933F7D73F1AA}" name="Column438"/>
+    <tableColumn id="439" xr3:uid="{7AAF3686-05AB-3248-84D8-6B2BE59038AB}" name="Column439"/>
+    <tableColumn id="440" xr3:uid="{8A2A85F2-4400-A74F-90E8-3F7F6853DAF0}" name="Column440"/>
+    <tableColumn id="441" xr3:uid="{A1966858-6243-2441-AE5D-9862312FD2EB}" name="Column441"/>
+    <tableColumn id="442" xr3:uid="{8152226E-93A5-944F-AAB8-8530FE1528F2}" name="Column442"/>
+    <tableColumn id="443" xr3:uid="{0ED17EA0-62B8-8B4B-BC16-154F7F203145}" name="Column443"/>
+    <tableColumn id="444" xr3:uid="{16705D7B-8B82-B54E-8FA7-243B108100BB}" name="Column444"/>
+    <tableColumn id="445" xr3:uid="{C469CAED-C926-2D4D-BD90-651AC199A08A}" name="Column445"/>
+    <tableColumn id="446" xr3:uid="{469C8027-E6D2-844C-8E28-7B3581CB8D96}" name="Column446"/>
+    <tableColumn id="447" xr3:uid="{C270751F-5517-E64F-A190-3ED405B99B8B}" name="Column447"/>
+    <tableColumn id="448" xr3:uid="{6619358B-2EC5-2943-B340-30B87BFFC228}" name="Column448"/>
+    <tableColumn id="449" xr3:uid="{13DA6B54-1495-A844-B220-2DF44D15045E}" name="Column449"/>
+    <tableColumn id="450" xr3:uid="{9EE67023-1CBA-964B-ACDE-DCB8F435B87F}" name="Column450"/>
+    <tableColumn id="451" xr3:uid="{1D013168-ACD6-DA41-A451-7010D848F0E3}" name="Column451"/>
+    <tableColumn id="452" xr3:uid="{8DEAAF80-64F9-0C42-9B25-001579519F67}" name="Column452"/>
+    <tableColumn id="453" xr3:uid="{1DFE60FC-F395-194F-9F4B-38C238A7584D}" name="Column453"/>
+    <tableColumn id="454" xr3:uid="{5579A4F6-07C5-264D-B6C5-3AC169CFA9B3}" name="Column454"/>
+    <tableColumn id="455" xr3:uid="{23D9F0EB-62CD-734D-8F8E-978D186DAD96}" name="Column455"/>
+    <tableColumn id="456" xr3:uid="{D12AF70F-6084-0249-8895-5C0A65F0A3AC}" name="Column456"/>
+    <tableColumn id="457" xr3:uid="{CADA5E3F-67BC-C646-8A06-0519E9B1DD4B}" name="Column457"/>
+    <tableColumn id="458" xr3:uid="{A22EB7A0-F5DD-7248-934A-D1A1367DDA54}" name="Column458"/>
+    <tableColumn id="459" xr3:uid="{31465A29-19E4-0243-823F-C5BC093B4D9F}" name="Column459"/>
+    <tableColumn id="460" xr3:uid="{53125774-BD68-5242-A6B8-FA51D18A197C}" name="Column460"/>
+    <tableColumn id="461" xr3:uid="{18F5BCFD-A964-7F47-B99B-DCD6BD62B25A}" name="Column461"/>
+    <tableColumn id="462" xr3:uid="{B0986512-290D-094C-8729-71BDCE8FD2DF}" name="Column462"/>
+    <tableColumn id="463" xr3:uid="{6A147072-050C-9445-B505-653E7C1F7A64}" name="Column463"/>
+    <tableColumn id="464" xr3:uid="{DA55C47F-F56F-144D-94D0-6211BDB0BA4B}" name="Column464"/>
+    <tableColumn id="465" xr3:uid="{A6B44B0C-FF36-AC45-832C-8CE515A9D40E}" name="Column465"/>
+    <tableColumn id="466" xr3:uid="{646F6B36-EC3C-DC46-AF12-7220AA519BA9}" name="Column466"/>
+    <tableColumn id="467" xr3:uid="{1C6245B6-67A7-0943-92AA-EFD66C4D6056}" name="Column467"/>
+    <tableColumn id="468" xr3:uid="{56014D2D-6F2E-A440-B476-972EBDD071BB}" name="Column468"/>
+    <tableColumn id="469" xr3:uid="{0A276FAD-E29A-AD4C-80B6-1E5165C44CC3}" name="Column469"/>
+    <tableColumn id="470" xr3:uid="{8BE7BAAA-871D-124A-B81C-D5AB0296BD82}" name="Column470"/>
+    <tableColumn id="471" xr3:uid="{23117E6A-5CE9-7042-A116-1BE692C58439}" name="Column471"/>
+    <tableColumn id="472" xr3:uid="{ED5500F6-3B0E-B14C-A304-234BB17F2C8A}" name="Column472"/>
+    <tableColumn id="473" xr3:uid="{19A57124-49F7-D04B-9B78-380D20B38B84}" name="Column473"/>
+    <tableColumn id="474" xr3:uid="{6BA7C83F-784D-BE42-8AC8-55652FBFDAA4}" name="Column474"/>
+    <tableColumn id="475" xr3:uid="{149879DA-653E-DA48-A7DC-748DFCDF9C53}" name="Column475"/>
+    <tableColumn id="476" xr3:uid="{E11033AB-FA42-A847-BE91-14CC1A9A9602}" name="Column476"/>
+    <tableColumn id="477" xr3:uid="{C7FFC59E-9DA5-6645-8340-18A13337DEDD}" name="Column477"/>
+    <tableColumn id="478" xr3:uid="{703C0C3B-59F6-854D-A193-163D0786FB45}" name="Column478"/>
+    <tableColumn id="479" xr3:uid="{B3DB558E-F67A-FB4A-985B-864073004FC2}" name="Column479"/>
+    <tableColumn id="480" xr3:uid="{AF7A4F2E-D913-264A-928F-240258592797}" name="Column480"/>
+    <tableColumn id="481" xr3:uid="{95ABA65E-50AD-634C-9B81-77329ACAC26A}" name="Column481"/>
+    <tableColumn id="482" xr3:uid="{921E46BF-E1A2-E44F-BE9D-DC17988FA3D8}" name="Column482"/>
+    <tableColumn id="483" xr3:uid="{FE0F492E-19EE-9946-9C12-201040D6D659}" name="Column483"/>
+    <tableColumn id="484" xr3:uid="{2F8FA9D8-0D51-6E49-AF34-CD250F112160}" name="Column484"/>
+    <tableColumn id="485" xr3:uid="{08B4AE3A-AE8B-674D-9E9C-71BAD6470CCC}" name="Column485"/>
+    <tableColumn id="486" xr3:uid="{53875D16-9C29-0848-A876-761B438B0E6D}" name="Column486"/>
+    <tableColumn id="487" xr3:uid="{C63431AE-5C6B-C74D-A9C7-119DDCA8AE3F}" name="Column487"/>
+    <tableColumn id="488" xr3:uid="{08A07B1F-687D-D14C-9988-FE111C17FFBC}" name="Column488"/>
+    <tableColumn id="489" xr3:uid="{55279562-4053-C942-B6D4-10606EF42985}" name="Column489"/>
+    <tableColumn id="490" xr3:uid="{2461A0B7-B36C-AE4C-A0D7-28AC7C8A88AB}" name="Column490"/>
+    <tableColumn id="491" xr3:uid="{8A239320-CCB2-C641-85CD-D945A7D88F2B}" name="Column491"/>
+    <tableColumn id="492" xr3:uid="{758C50F3-2B44-6C43-80B5-16792BFA50FD}" name="Column492"/>
+    <tableColumn id="493" xr3:uid="{5BD60131-4874-834F-A990-BE58750D9269}" name="Column493"/>
+    <tableColumn id="494" xr3:uid="{A293A34A-7338-5949-AAE7-FD8BBD861A2E}" name="Column494"/>
+    <tableColumn id="495" xr3:uid="{5B57B46F-F6C3-BF4F-867F-00BCDE2888A7}" name="Column495"/>
+    <tableColumn id="496" xr3:uid="{781C6659-787F-B945-900B-2215545411A7}" name="Column496"/>
+    <tableColumn id="497" xr3:uid="{5D149A5C-73A7-4648-AB68-F1B72117591C}" name="Column497"/>
+    <tableColumn id="498" xr3:uid="{AD21B38D-9EAD-A846-9810-15FF9FE0CA18}" name="Column498"/>
+    <tableColumn id="499" xr3:uid="{D05D4F6B-BFF9-B546-8363-0C00121E4E6F}" name="Column499"/>
+    <tableColumn id="500" xr3:uid="{1CE98034-C8CA-E641-B697-600B8F6385AB}" name="Column500"/>
+    <tableColumn id="501" xr3:uid="{B61286F4-08CB-9246-8EEB-AC1D35AAE467}" name="Column501"/>
+    <tableColumn id="502" xr3:uid="{2713C312-FA44-2B48-868C-545552415F17}" name="Column502"/>
+    <tableColumn id="503" xr3:uid="{D368FA4C-9E85-8545-AC6D-93D824BDF2AB}" name="Column503"/>
+    <tableColumn id="504" xr3:uid="{963E582A-8632-9E45-96F4-3FBD7436EE69}" name="Column504"/>
+    <tableColumn id="505" xr3:uid="{E9B4EF25-3728-684F-BCBE-420C7B5CDCD0}" name="Column505"/>
+    <tableColumn id="506" xr3:uid="{D2AF426E-BCCD-964A-B79C-B1B72D9A315D}" name="Column506"/>
+    <tableColumn id="507" xr3:uid="{CB2FB264-1D85-8D46-A9B7-C9B5722BB865}" name="Column507"/>
+    <tableColumn id="508" xr3:uid="{C442203F-DABE-1540-B080-D0FE049F0626}" name="Column508"/>
+    <tableColumn id="509" xr3:uid="{3148DF55-EC2F-9446-B316-A77753BD9A84}" name="Column509"/>
+    <tableColumn id="510" xr3:uid="{C61BAEBF-DA3A-C241-93AA-41390EC1E8CA}" name="Column510"/>
+    <tableColumn id="511" xr3:uid="{43EFF4C6-81CC-834E-A7CE-C629F13F3A56}" name="Column511"/>
+    <tableColumn id="512" xr3:uid="{A28D1A44-1DE9-8441-B0C0-BA43C764852D}" name="Column512"/>
+    <tableColumn id="513" xr3:uid="{C0D6512A-9434-CF4D-BE3B-D47439AD46C7}" name="Column513"/>
+    <tableColumn id="514" xr3:uid="{D489FDE5-7753-564F-89E9-9EDEBD598083}" name="Column514"/>
+    <tableColumn id="515" xr3:uid="{2B6F0E15-5686-2E4D-9CD4-787F09443F15}" name="Column515"/>
+    <tableColumn id="516" xr3:uid="{5D08091B-B92A-FF43-A0D7-170F21522CA4}" name="Column516"/>
+    <tableColumn id="517" xr3:uid="{E2DF6872-BE9F-0443-BE7C-4FA56EC5EBD8}" name="Column517"/>
+    <tableColumn id="518" xr3:uid="{A0080B3E-D375-9440-96AB-05899CFDA4C3}" name="Column518"/>
+    <tableColumn id="519" xr3:uid="{29E17140-FB7A-AC45-9170-73A916BDBE90}" name="Column519"/>
+    <tableColumn id="520" xr3:uid="{4EFCF69D-18AE-F640-B004-79552B5D7E7B}" name="Column520"/>
+    <tableColumn id="521" xr3:uid="{D8478A61-AAAA-3E40-9DC6-082307A1F274}" name="Column521"/>
+    <tableColumn id="522" xr3:uid="{2ADC5DF8-95D7-FB44-B953-B4CBD99E43CD}" name="Column522"/>
+    <tableColumn id="523" xr3:uid="{D38E4D1A-0CF1-A342-AA04-2B73599A23F3}" name="Column523"/>
+    <tableColumn id="524" xr3:uid="{F5D8EA9D-AFFE-B745-B661-92A6C2F331F1}" name="Column524"/>
+    <tableColumn id="525" xr3:uid="{81B0B537-233F-3B4C-8DFD-DA95A19CD4FB}" name="Column525"/>
+    <tableColumn id="526" xr3:uid="{07CA2D91-0058-F14C-8AF6-0120A7D8CC71}" name="Column526"/>
+    <tableColumn id="527" xr3:uid="{F5EA252F-7872-6244-8D79-ED1B18796DBB}" name="Column527"/>
+    <tableColumn id="528" xr3:uid="{B5C3B98A-F5B8-A548-8845-C2E9999DF726}" name="Column528"/>
+    <tableColumn id="529" xr3:uid="{E3657DD8-2B3D-8F4F-9FBE-005E6B1E0931}" name="Column529"/>
+    <tableColumn id="530" xr3:uid="{215477A4-C821-F947-BC7F-5F1191C1F8E3}" name="Column530"/>
+    <tableColumn id="531" xr3:uid="{1236BAFB-0345-8F4A-9DBB-9CFA10FB0394}" name="Column531"/>
+    <tableColumn id="532" xr3:uid="{E4B64899-3E01-E34A-B286-F6E4E61D920F}" name="Column532"/>
+    <tableColumn id="533" xr3:uid="{858BDCCD-AFDC-5049-AAD1-CFAFAFEEC92C}" name="Column533"/>
+    <tableColumn id="534" xr3:uid="{BD85CFCF-E1A3-934F-AD52-F78ED21EEA78}" name="Column534"/>
+    <tableColumn id="535" xr3:uid="{53E29733-12DF-1141-A94D-EB96AFBAAE74}" name="Column535"/>
+    <tableColumn id="536" xr3:uid="{D8F5E2E4-C20B-584F-AA34-4F39BA3E01B5}" name="Column536"/>
+    <tableColumn id="537" xr3:uid="{D98D71D6-012D-E444-B839-0D22FE872E4E}" name="Column537"/>
+    <tableColumn id="538" xr3:uid="{80165C85-EFD7-534E-BDC8-F36D7ADF722F}" name="Column538"/>
+    <tableColumn id="539" xr3:uid="{6045F86F-E7B5-0B43-A1F1-81ABA09C569A}" name="Column539"/>
+    <tableColumn id="540" xr3:uid="{4C5E9AD9-6A24-8F4B-B6E1-7C97323DEDA7}" name="Column540"/>
+    <tableColumn id="541" xr3:uid="{B93F3771-7A07-5E4D-9C02-0610F703D193}" name="Column541"/>
+    <tableColumn id="542" xr3:uid="{EC8EB593-9269-554C-A296-F3A49FE7A11D}" name="Column542"/>
+    <tableColumn id="543" xr3:uid="{343E07C1-9F4F-2D4E-AE8B-89CC944C0313}" name="Column543"/>
+    <tableColumn id="544" xr3:uid="{556465BE-26D9-AB49-8035-A5E72898D98B}" name="Column544"/>
+    <tableColumn id="545" xr3:uid="{CB58441C-E13B-B14D-B57C-85A8F711AB7F}" name="Column545"/>
+    <tableColumn id="546" xr3:uid="{6023FD06-86B8-7D42-B924-8C0556638644}" name="Column546"/>
+    <tableColumn id="547" xr3:uid="{196BB048-A121-944F-B98B-6A66E529C29D}" name="Column547"/>
+    <tableColumn id="548" xr3:uid="{3144BD5E-654D-3C41-8745-603562048970}" name="Column548"/>
+    <tableColumn id="549" xr3:uid="{94399B88-A796-6347-9F71-0DC2D1023A8D}" name="Column549"/>
+    <tableColumn id="550" xr3:uid="{D8EDF53C-C810-3846-937E-887A950C61F3}" name="Column550"/>
+    <tableColumn id="551" xr3:uid="{E22736CD-6C52-F145-A27C-E58FFDBEBDF8}" name="Column551"/>
+    <tableColumn id="552" xr3:uid="{0EDD4FF9-14E5-1B4C-9EE9-12658DE43B2F}" name="Column552"/>
+    <tableColumn id="553" xr3:uid="{439EE0EF-B524-D34C-B556-40454F2719F3}" name="Column553"/>
+    <tableColumn id="554" xr3:uid="{7BE7EE99-1C38-B142-BB2A-A095146AFB0C}" name="Column554"/>
+    <tableColumn id="555" xr3:uid="{3BA0D4FB-0962-804E-844F-D6442F734FAD}" name="Column555"/>
+    <tableColumn id="556" xr3:uid="{8D4BCEC5-0F4D-6042-9548-E3E09522B52C}" name="Column556"/>
+    <tableColumn id="557" xr3:uid="{8B93A0C6-5657-B64E-9474-97EAD7BA8BBE}" name="Column557"/>
+    <tableColumn id="558" xr3:uid="{7C7FEF76-3776-724B-8A32-44AB369AA70E}" name="Column558"/>
+    <tableColumn id="559" xr3:uid="{2626F0CE-2ED4-C646-BE83-7B800DB91533}" name="Column559"/>
+    <tableColumn id="560" xr3:uid="{4F7F80B4-A2D4-0F42-8E49-F4096C2957C9}" name="Column560"/>
+    <tableColumn id="561" xr3:uid="{2DAA31C6-3E65-5A4D-8CFF-39FB58F1C3FB}" name="Column561"/>
+    <tableColumn id="562" xr3:uid="{6F2BDBD1-9039-194F-9E30-3F9A4C18528E}" name="Column562"/>
+    <tableColumn id="563" xr3:uid="{4E3863E6-DB47-5640-A295-5F94D2DCCC62}" name="Column563"/>
+    <tableColumn id="564" xr3:uid="{70B5E4ED-7FB2-874A-8A30-967C3111BF5C}" name="Column564"/>
+    <tableColumn id="565" xr3:uid="{0E770AF4-DC4D-3145-8EEC-271CA93E694E}" name="Column565"/>
+    <tableColumn id="566" xr3:uid="{FB08F931-E005-0A4B-8AE1-CAF7F912F069}" name="Column566"/>
+    <tableColumn id="567" xr3:uid="{1088C9A8-25B4-4844-A8DD-BA9BD20FEADA}" name="Column567"/>
+    <tableColumn id="568" xr3:uid="{287FB535-F5A6-9E4B-96E6-1AD0D43C2D78}" name="Column568"/>
+    <tableColumn id="569" xr3:uid="{C92BA06A-F792-444C-82D5-18B771C1FDC4}" name="Column569"/>
+    <tableColumn id="570" xr3:uid="{0CCFC7C7-0EAD-2B47-8E3C-8FDB24B3B9FD}" name="Column570"/>
+    <tableColumn id="571" xr3:uid="{B626C673-F428-AD4F-BA6B-A8EB90649249}" name="Column571"/>
+    <tableColumn id="572" xr3:uid="{B312CADE-B5EA-2A48-B88A-E2F9476F4A1A}" name="Column572"/>
+    <tableColumn id="573" xr3:uid="{9203DE67-4063-C84E-8CA5-C4C4C5EB715F}" name="Column573"/>
+    <tableColumn id="574" xr3:uid="{2B77CA9D-3EFD-8446-A5EF-D6ACE5FFD926}" name="Column574"/>
+    <tableColumn id="575" xr3:uid="{759BA09C-4EE9-DD4B-A836-A4DAC2897949}" name="Column575"/>
+    <tableColumn id="576" xr3:uid="{DEC53D67-BE68-A34C-B694-EF31EB276BC4}" name="Column576"/>
+    <tableColumn id="577" xr3:uid="{657BA3F4-B958-9D45-8DE5-F900BD52F5F8}" name="Column577"/>
+    <tableColumn id="578" xr3:uid="{62412F8B-8852-EC49-9C94-05C6CAB0D47A}" name="Column578"/>
+    <tableColumn id="579" xr3:uid="{1612E01D-B0E6-2145-9059-5E7B82B59063}" name="Column579"/>
+    <tableColumn id="580" xr3:uid="{20C6400D-70BD-E342-B33D-C6F80CA27255}" name="Column580"/>
+    <tableColumn id="581" xr3:uid="{C847E42A-1111-3D46-A3B0-FD14AA2E024B}" name="Column581"/>
+    <tableColumn id="582" xr3:uid="{30A8F8E3-8BA9-9844-B41A-367AD4A2BFDA}" name="Column582"/>
+    <tableColumn id="583" xr3:uid="{CA98F454-F8CC-6148-B9AF-A3CF5C7E9875}" name="Column583"/>
+    <tableColumn id="584" xr3:uid="{B1AFC27E-9472-3A43-A805-2B9DDF313326}" name="Column584"/>
+    <tableColumn id="585" xr3:uid="{C3D27A48-7543-8F4A-ADDA-CE9E9A9BC1AB}" name="Column585"/>
+    <tableColumn id="586" xr3:uid="{C1CEBBE2-7701-DD4C-9DAE-241ABF6FD501}" name="Column586"/>
+    <tableColumn id="587" xr3:uid="{053B1283-B36E-9B48-8E9B-D174A967A898}" name="Column587"/>
+    <tableColumn id="588" xr3:uid="{AF171838-50EA-7B4B-B4E0-5AC65D798AF7}" name="Column588"/>
+    <tableColumn id="589" xr3:uid="{ADA96BD3-6A01-D947-8DFB-3B97679F427F}" name="Column589"/>
+    <tableColumn id="590" xr3:uid="{660DABA5-F309-824C-9ABB-3D266E0AB3F3}" name="Column590"/>
+    <tableColumn id="591" xr3:uid="{E0BAA78E-43AC-8D41-B144-30E43473E692}" name="Column591"/>
+    <tableColumn id="592" xr3:uid="{BD91B66F-A4D4-8A48-A189-2C93EC3B7F29}" name="Column592"/>
+    <tableColumn id="593" xr3:uid="{39B1F28F-301D-904D-8392-CB100A190264}" name="Column593"/>
+    <tableColumn id="594" xr3:uid="{05468B79-9D2F-DD44-B0EA-31EEFD9B9771}" name="Column594"/>
+    <tableColumn id="595" xr3:uid="{246939DE-FEAA-6C42-8388-86C3DC63799B}" name="Column595"/>
+    <tableColumn id="596" xr3:uid="{7F7EED5C-8C1C-3340-B060-50BE0B889DC5}" name="Column596"/>
+    <tableColumn id="597" xr3:uid="{93286750-2053-C845-AF36-A807721C102E}" name="Column597"/>
+    <tableColumn id="598" xr3:uid="{E528E938-B5DE-4743-A820-C97437ADCE35}" name="Column598"/>
+    <tableColumn id="599" xr3:uid="{F684D1A8-A93B-D744-B6CF-DBCDA0CDC4A9}" name="Column599"/>
+    <tableColumn id="600" xr3:uid="{13931160-A1BF-6343-B03A-B5F2527A725E}" name="Column600"/>
+    <tableColumn id="601" xr3:uid="{9B4DABAD-2CA7-D74E-A258-89F782F9F12F}" name="Column601"/>
+    <tableColumn id="602" xr3:uid="{70FE3C12-0788-8A41-940F-A9BCE1493729}" name="Column602"/>
+    <tableColumn id="603" xr3:uid="{73CB6119-7156-A545-BA44-88ED7E8EDC85}" name="Column603"/>
+    <tableColumn id="604" xr3:uid="{54D3DA08-54E1-E341-9507-BDE7CA931334}" name="Column604"/>
+    <tableColumn id="605" xr3:uid="{EF30916F-C13B-174E-BFD1-7C6A5F20988B}" name="Column605"/>
+    <tableColumn id="606" xr3:uid="{9D64B74D-D51E-7C42-B371-60583439A29C}" name="Column606"/>
+    <tableColumn id="607" xr3:uid="{42249DDC-7EE0-654D-B368-4BE43AE146BE}" name="Column607"/>
+    <tableColumn id="608" xr3:uid="{F264E8C5-CDC3-F14F-A353-B08A2C6E349A}" name="Column608"/>
+    <tableColumn id="609" xr3:uid="{CA0B5297-F548-8C4B-ACC8-2F178175C858}" name="Column609"/>
+    <tableColumn id="610" xr3:uid="{B7898EA5-8AAD-0A43-B508-1AE853CD34B9}" name="Column610"/>
+    <tableColumn id="611" xr3:uid="{22ED4FC2-5A58-8148-AC44-F0A0DF5C84EE}" name="Column611"/>
+    <tableColumn id="612" xr3:uid="{E9C00668-E7E8-8242-A062-A104A3E4EB73}" name="Column612"/>
+    <tableColumn id="613" xr3:uid="{A5B82D3F-D4E0-2440-A13E-83A18EC03DB3}" name="Column613"/>
+    <tableColumn id="614" xr3:uid="{95FA4725-91A8-3B42-99BC-75631CA40090}" name="Column614"/>
+    <tableColumn id="615" xr3:uid="{DDE18B67-313C-2F4C-95F8-D3CEB6A37FA7}" name="Column615"/>
+    <tableColumn id="616" xr3:uid="{DA09BAD7-8F02-1F41-98F5-EF1160BD0D95}" name="Column616"/>
+    <tableColumn id="617" xr3:uid="{C10769A3-7A6C-4548-98ED-6DF45C89ECE6}" name="Column617"/>
+    <tableColumn id="618" xr3:uid="{7956A81E-0C24-C948-BD7E-0FA273DC6840}" name="Column618"/>
+    <tableColumn id="619" xr3:uid="{2586FE1D-219E-4840-998F-F263DD7483CC}" name="Column619"/>
+    <tableColumn id="620" xr3:uid="{0CBE57B2-7314-2941-A222-33816F88C10F}" name="Column620"/>
+    <tableColumn id="621" xr3:uid="{ADE685B6-3CA8-C541-9F35-A37002A75E69}" name="Column621"/>
+    <tableColumn id="622" xr3:uid="{B77DB28D-BA42-264A-966A-F56B0DA99612}" name="Column622"/>
+    <tableColumn id="623" xr3:uid="{5454975C-8A74-FF41-A2BC-9638D990C8EE}" name="Column623"/>
+    <tableColumn id="624" xr3:uid="{652DC3FE-CD76-AE4F-88A4-707E5DF11FE5}" name="Column624"/>
+    <tableColumn id="625" xr3:uid="{6381F0AA-C5C0-FA46-AF74-E70CA211712C}" name="Column625"/>
+    <tableColumn id="626" xr3:uid="{81796A1E-703E-6244-9090-F242521A1DAC}" name="Column626"/>
+    <tableColumn id="627" xr3:uid="{E96D9E61-A796-A342-9062-9929DD0354BF}" name="Column627"/>
+    <tableColumn id="628" xr3:uid="{33E4E2CF-8D54-2742-BA77-CBDA2C0D3054}" name="Column628"/>
+    <tableColumn id="629" xr3:uid="{691AE4DB-B808-6942-8F06-D557DD9148E1}" name="Column629"/>
+    <tableColumn id="630" xr3:uid="{F0CA9EF3-BABF-A842-A6B2-8880B8BEECCF}" name="Column630"/>
+    <tableColumn id="631" xr3:uid="{588BE98A-4576-A84E-994D-8BFF44D23A1C}" name="Column631"/>
+    <tableColumn id="632" xr3:uid="{1D70019C-9205-A14E-B1D9-5433FB53A6E2}" name="Column632"/>
+    <tableColumn id="633" xr3:uid="{6CAA099C-DE57-ED41-94AD-AD0CBED212EB}" name="Column633"/>
+    <tableColumn id="634" xr3:uid="{3E8DDB0D-668D-2E40-BEA3-4EF49C54D664}" name="Column634"/>
+    <tableColumn id="635" xr3:uid="{C679D855-7B4B-9243-A43A-935A530A6010}" name="Column635"/>
+    <tableColumn id="636" xr3:uid="{2AD4B7ED-9440-B647-84C5-6F99F73782AE}" name="Column636"/>
+    <tableColumn id="637" xr3:uid="{05C32D4F-B807-0F40-BF18-0DA484B00C82}" name="Column637"/>
+    <tableColumn id="638" xr3:uid="{2ABB85AD-D9B2-204C-904B-B822EC0B6939}" name="Column638"/>
+    <tableColumn id="639" xr3:uid="{43AC6D0E-58BE-1A45-BDE2-4AFD42DF5502}" name="Column639"/>
+    <tableColumn id="640" xr3:uid="{6AB05046-C7A3-3B4D-B067-A1CA5A9140D6}" name="Column640"/>
+    <tableColumn id="641" xr3:uid="{2F89BB59-4DD5-3E45-B893-B359DD86329E}" name="Column641"/>
+    <tableColumn id="642" xr3:uid="{A8623D62-F675-A247-98BE-798D6EB8742D}" name="Column642"/>
+    <tableColumn id="643" xr3:uid="{EF876BA1-341A-6945-BA29-39FA3500E92F}" name="Column643"/>
+    <tableColumn id="644" xr3:uid="{DC7C271D-4665-E34D-A06F-D7751B794A67}" name="Column644"/>
+    <tableColumn id="645" xr3:uid="{43463518-1B0E-6D45-AA72-763837287C60}" name="Column645"/>
+    <tableColumn id="646" xr3:uid="{0858A982-C895-9D43-8D59-D63577AB736F}" name="Column646"/>
+    <tableColumn id="647" xr3:uid="{B4A12868-0BA9-114E-ACB6-AECEE5609F9A}" name="Column647"/>
+    <tableColumn id="648" xr3:uid="{F3B11EA2-F3F6-5E4B-AE96-00E1C138B430}" name="Column648"/>
+    <tableColumn id="649" xr3:uid="{4379D4A8-9EFD-8740-800C-320018D0E3DD}" name="Column649"/>
+    <tableColumn id="650" xr3:uid="{8EE78D9C-EA4A-CE41-89D9-D4B67FB6F266}" name="Column650"/>
+    <tableColumn id="651" xr3:uid="{3E4CEFCA-02DE-4540-A1B5-4496D92D9455}" name="Column651"/>
+    <tableColumn id="652" xr3:uid="{7AF6E756-0BC3-F944-BFB8-27BB5F835E7C}" name="Column652"/>
+    <tableColumn id="653" xr3:uid="{B46F4CAD-2008-744D-A6F3-AEFBCEBAE41B}" name="Column653"/>
+    <tableColumn id="654" xr3:uid="{B1E8825D-79BD-9A45-BFA9-5B0A604D1910}" name="Column654"/>
+    <tableColumn id="655" xr3:uid="{2008D8B7-F621-5A48-B721-8BA3163EED71}" name="Column655"/>
+    <tableColumn id="656" xr3:uid="{9556B31B-67D9-7042-AC09-1C78965CFCF0}" name="Column656"/>
+    <tableColumn id="657" xr3:uid="{A79129A3-77E8-9044-9C63-8D4AD508BEB9}" name="Column657"/>
+    <tableColumn id="658" xr3:uid="{8B80DD3A-5A75-2A42-9A7C-CAB0F54D2F15}" name="Column658"/>
+    <tableColumn id="659" xr3:uid="{457C4C36-6416-AC4B-B996-02F7842BA184}" name="Column659"/>
+    <tableColumn id="660" xr3:uid="{3099E445-FA05-AA45-8FDB-E108FF56FDA4}" name="Column660"/>
+    <tableColumn id="661" xr3:uid="{BC5EBACE-B19C-5842-8474-9A3C38B96F47}" name="Column661"/>
+    <tableColumn id="662" xr3:uid="{BA7B9336-52C7-6344-9227-342EF8723131}" name="Column662"/>
+    <tableColumn id="663" xr3:uid="{9049A618-051A-FC4D-B4E2-4624F83A38EC}" name="Column663"/>
+    <tableColumn id="664" xr3:uid="{DB2B9347-71D7-AB47-9982-2A7AFBEF5588}" name="Column664"/>
+    <tableColumn id="665" xr3:uid="{EEB86757-6D8C-3E47-9244-FA02B63CFBC4}" name="Column665"/>
+    <tableColumn id="666" xr3:uid="{9B0B8ACA-1758-8443-8939-5E9309E547D4}" name="Column666"/>
+    <tableColumn id="667" xr3:uid="{BA061CCF-EECB-8F4D-A208-5545CFBE7529}" name="Column667"/>
+    <tableColumn id="668" xr3:uid="{0A651289-40ED-534F-8011-00910EE2596F}" name="Column668"/>
+    <tableColumn id="669" xr3:uid="{1A25CFC4-7FB1-A04B-B7C7-8EE502A3318A}" name="Column669"/>
+    <tableColumn id="670" xr3:uid="{59D7BFC0-2231-6B4E-B75C-BBB7DB0ED6D8}" name="Column670"/>
+    <tableColumn id="671" xr3:uid="{35BF219E-C1E4-7246-A34D-44EE6E806EAD}" name="Column671"/>
+    <tableColumn id="672" xr3:uid="{492DB1E7-CDBD-C44D-A823-125E2EDDFFE9}" name="Column672"/>
+    <tableColumn id="673" xr3:uid="{43C14F19-05C2-DF47-80C4-C4FDA01C17ED}" name="Column673"/>
+    <tableColumn id="674" xr3:uid="{BAB153A8-83BC-2141-B4D1-3860027EE744}" name="Column674"/>
+    <tableColumn id="675" xr3:uid="{E71A543C-E866-C241-B86E-CE2757E37DF2}" name="Column675"/>
+    <tableColumn id="676" xr3:uid="{FD3F1BEA-6B02-CF45-B1F7-987394409151}" name="Column676"/>
+    <tableColumn id="677" xr3:uid="{F6718247-AC7F-7D46-BEAC-A2B2BB655076}" name="Column677"/>
+    <tableColumn id="678" xr3:uid="{412DF13E-7A0B-B242-92C1-263B009208AB}" name="Column678"/>
+    <tableColumn id="679" xr3:uid="{0BC54815-B465-5C4C-9912-E772CD25344C}" name="Column679"/>
+    <tableColumn id="680" xr3:uid="{122B65E7-57EE-E54C-AEC8-B550218542E1}" name="Column680"/>
+    <tableColumn id="681" xr3:uid="{3F0CC5B2-7594-FC40-856F-6393E266499E}" name="Column681"/>
+    <tableColumn id="682" xr3:uid="{216A80F1-436E-4246-94BA-BA4E0D0B039C}" name="Column682"/>
+    <tableColumn id="683" xr3:uid="{505F17EA-7B6E-124F-B986-7E382A657E39}" name="Column683"/>
+    <tableColumn id="684" xr3:uid="{30D66473-B36C-464F-B45D-0B1F408F0671}" name="Column684"/>
+    <tableColumn id="685" xr3:uid="{ACD653AB-D9E9-604C-86D7-171B7ECFF818}" name="Column685"/>
+    <tableColumn id="686" xr3:uid="{4C0C40EF-21B6-D84E-A0DD-CBEA3E02ADE1}" name="Column686"/>
+    <tableColumn id="687" xr3:uid="{5DC37192-2C4F-3648-B138-DB6AD7F2E7DD}" name="Column687"/>
+    <tableColumn id="688" xr3:uid="{7B627D59-0F3F-6440-8105-C1D2013C38E6}" name="Column688"/>
+    <tableColumn id="689" xr3:uid="{C8CF8754-2DB8-B54F-8769-22E605099DD4}" name="Column689"/>
+    <tableColumn id="690" xr3:uid="{DADCBE2D-9BB1-574F-8338-C2EAFE1D7FB2}" name="Column690"/>
+    <tableColumn id="691" xr3:uid="{FB15DC1D-79BF-954B-831A-DBE8E905EAC9}" name="Column691"/>
+    <tableColumn id="692" xr3:uid="{6CCDBD5B-8641-9348-B425-A9C254A1C3DB}" name="Column692"/>
+    <tableColumn id="693" xr3:uid="{72FDEAA1-5505-C146-80B3-B22B2134DA69}" name="Column693"/>
+    <tableColumn id="694" xr3:uid="{F32AEA9B-2007-DD40-B487-D33776CC543A}" name="Column694"/>
+    <tableColumn id="695" xr3:uid="{D7D41D6B-BB29-AD42-8117-B873467AA657}" name="Column695"/>
+    <tableColumn id="696" xr3:uid="{A6782FA7-9479-D340-A5DA-3E03CB9FDA22}" name="Column696"/>
+    <tableColumn id="697" xr3:uid="{FA2C40DC-E5B6-EF47-8E94-D5D800C3A7CB}" name="Column697"/>
+    <tableColumn id="698" xr3:uid="{A61FAE95-6E39-1F41-918E-4CCEB7043A73}" name="Column698"/>
+    <tableColumn id="699" xr3:uid="{BB0A5D27-E268-1341-98C6-B4BB4F7A05F5}" name="Column699"/>
+    <tableColumn id="700" xr3:uid="{E50C0207-66EF-7444-9195-5B3F490EC4E5}" name="Column700"/>
+    <tableColumn id="701" xr3:uid="{529AD8E9-D463-3C4C-8965-62957694B0CD}" name="Column701"/>
+    <tableColumn id="702" xr3:uid="{745D0D04-0D25-4246-BA07-E8D57027FCDA}" name="Column702"/>
+    <tableColumn id="703" xr3:uid="{4F5BB84D-44AF-3449-AD49-CB8F7BC1B5A9}" name="Column703"/>
+    <tableColumn id="704" xr3:uid="{A42F740B-DB54-ED44-B3ED-9CDC87595358}" name="Column704"/>
+    <tableColumn id="705" xr3:uid="{22D3102D-1E0F-094E-8E38-54DA6EC01391}" name="Column705"/>
+    <tableColumn id="706" xr3:uid="{50BAA365-F4E8-834D-BFA9-3F0714D3E744}" name="Column706"/>
+    <tableColumn id="707" xr3:uid="{AB6E105F-3B29-3841-9C42-DABE279BE435}" name="Column707"/>
+    <tableColumn id="708" xr3:uid="{57A77FE4-4468-044D-8074-08468D20ABE7}" name="Column708"/>
+    <tableColumn id="709" xr3:uid="{6B0DF906-696D-704F-9888-4424E8D0CF01}" name="Column709"/>
+    <tableColumn id="710" xr3:uid="{717ACD01-4792-6448-A0C2-69D08429FF87}" name="Column710"/>
+    <tableColumn id="711" xr3:uid="{FD4569DA-0D4E-FB4D-BBB9-8E0B0649F49E}" name="Column711"/>
+    <tableColumn id="712" xr3:uid="{672976A5-A8AE-214E-9012-02D6D147BD15}" name="Column712"/>
+    <tableColumn id="713" xr3:uid="{32D286A8-1D5A-644A-BDFA-13649C7E2C69}" name="Column713"/>
+    <tableColumn id="714" xr3:uid="{A3D97027-5D37-7144-A146-62DE9BBB09FA}" name="Column714"/>
+    <tableColumn id="715" xr3:uid="{C85E9CBC-B74D-5141-A8EE-233749617C6D}" name="Column715"/>
+    <tableColumn id="716" xr3:uid="{41659B08-D1EC-2B48-B541-AE64D73A3931}" name="Column716"/>
+    <tableColumn id="717" xr3:uid="{C6477928-1021-0A43-96D8-BCEDF1C7D493}" name="Column717"/>
+    <tableColumn id="718" xr3:uid="{410E7E9E-AB33-9545-9B73-D361EA6B593B}" name="Column718"/>
+    <tableColumn id="719" xr3:uid="{3380A5A0-1A40-2C40-8E1A-CDCD01018EAA}" name="Column719"/>
+    <tableColumn id="720" xr3:uid="{AB7D5E7C-33E6-5F4B-8DA6-A8CF0FF45A4B}" name="Column720"/>
+    <tableColumn id="721" xr3:uid="{88C39596-4A5A-C746-8CA3-F4B6C1AAC924}" name="Column721"/>
+    <tableColumn id="722" xr3:uid="{FA037F91-4B8A-6742-887D-1B25C14D51FA}" name="Column722"/>
+    <tableColumn id="723" xr3:uid="{E6EDFB72-7B31-D142-BF68-F0B04A00B382}" name="Column723"/>
+    <tableColumn id="724" xr3:uid="{776FC05D-8DD8-064B-A97A-E903BC72CB4E}" name="Column724"/>
+    <tableColumn id="725" xr3:uid="{914723CF-18C6-D242-9800-CBD0154EAABB}" name="Column725"/>
+    <tableColumn id="726" xr3:uid="{538AF89D-5767-8F46-AEDC-DA219EAF7451}" name="Column726"/>
+    <tableColumn id="727" xr3:uid="{7060FE23-4BAE-0840-A0A4-B5B44D96CF65}" name="Column727"/>
+    <tableColumn id="728" xr3:uid="{0D50A8EB-9A91-2C4C-B6E3-BC50EA92A976}" name="Column728"/>
+    <tableColumn id="729" xr3:uid="{50970D43-0F19-2045-B729-F9287BA951F3}" name="Column729"/>
+    <tableColumn id="730" xr3:uid="{778B6909-E2EF-0A4B-AF47-9C509A21AA8A}" name="Column730"/>
+    <tableColumn id="731" xr3:uid="{C71BAE82-14F9-284D-A6ED-47C69462D113}" name="Column731"/>
+    <tableColumn id="732" xr3:uid="{D629C478-7143-8D4A-ACF1-B6161B2956E8}" name="Column732"/>
+    <tableColumn id="733" xr3:uid="{2B9931EC-17F1-7646-96C1-C261E8C134D2}" name="Column733"/>
+    <tableColumn id="734" xr3:uid="{8A0BBF14-61D6-8741-8C17-A4C35727090F}" name="Column734"/>
+    <tableColumn id="735" xr3:uid="{A34D6D31-C100-EA4D-8A47-1007B655F3AE}" name="Column735"/>
+    <tableColumn id="736" xr3:uid="{2ED7DA71-BCF5-7B4D-9C04-847717EE63E8}" name="Column736"/>
+    <tableColumn id="737" xr3:uid="{1249AD93-1DE5-4B44-9E49-DC58AD4F8968}" name="Column737"/>
+    <tableColumn id="738" xr3:uid="{AFC691EC-20B4-6444-8FF9-A1D43A247F9F}" name="Column738"/>
+    <tableColumn id="739" xr3:uid="{B3D2EE89-B976-5D4B-A45F-96B2DD25DE2E}" name="Column739"/>
+    <tableColumn id="740" xr3:uid="{F3A37809-F3AE-744B-A9AE-5CD0A52E40BC}" name="Column740"/>
+    <tableColumn id="741" xr3:uid="{9367D7A2-1658-9646-B163-3DD114EF4193}" name="Column741"/>
+    <tableColumn id="742" xr3:uid="{E86437A1-2ED9-734F-87DA-7BFE46E9ECBA}" name="Column742"/>
+    <tableColumn id="743" xr3:uid="{0CBDC5B0-0317-D74A-8224-ADE90E93F7BC}" name="Column743"/>
+    <tableColumn id="744" xr3:uid="{708BDBD4-F184-7D4E-8FE6-E72709FAF94D}" name="Column744"/>
+    <tableColumn id="745" xr3:uid="{E8552CD8-79D3-AE48-881F-34A63539CA5F}" name="Column745"/>
+    <tableColumn id="746" xr3:uid="{1C0E9E4D-384F-D048-9FAA-4BDAABF5A998}" name="Column746"/>
+    <tableColumn id="747" xr3:uid="{196051A1-B401-C347-A0C2-D89F35F586A9}" name="Column747"/>
+    <tableColumn id="748" xr3:uid="{E7FAC14D-62E4-EF40-B933-1675A30AEA15}" name="Column748"/>
+    <tableColumn id="749" xr3:uid="{3C1E71A6-7EF5-7542-A156-A78DBF4DCB7A}" name="Column749"/>
+    <tableColumn id="750" xr3:uid="{4E44D687-39BA-9D49-9460-A107EDE3FD5C}" name="Column750"/>
+    <tableColumn id="751" xr3:uid="{0EAC7B68-4A70-9F46-A7A0-E216926A9401}" name="Column751"/>
+    <tableColumn id="752" xr3:uid="{4BFB91DA-CE5F-804C-AA5B-F3F255F98439}" name="Column752"/>
+    <tableColumn id="753" xr3:uid="{BF019920-A7C2-DF40-AE6B-14BDF8513447}" name="Column753"/>
+    <tableColumn id="754" xr3:uid="{A9611244-18A3-0445-A8E8-DA92FE614C72}" name="Column754"/>
+    <tableColumn id="755" xr3:uid="{2FEBCC1B-7F42-B847-954A-2F7EF7C02FB4}" name="Column755"/>
+    <tableColumn id="756" xr3:uid="{481B0A7A-8C32-844F-AAD5-DE999F1A4EAE}" name="Column756"/>
+    <tableColumn id="757" xr3:uid="{AAD283FA-AF16-A640-9D34-122756EB5EAE}" name="Column757"/>
+    <tableColumn id="758" xr3:uid="{BF21B56A-9465-1145-AEB9-5D02CB1CF996}" name="Column758"/>
+    <tableColumn id="759" xr3:uid="{F3A7C6A4-7CA2-6040-B3BF-E766F2B2FEEA}" name="Column759"/>
+    <tableColumn id="760" xr3:uid="{189DC7EF-1530-054E-B479-07DAD707E2D0}" name="Column760"/>
+    <tableColumn id="761" xr3:uid="{CA7018EC-0D3E-D048-91D9-4F6FC263A6BA}" name="Column761"/>
+    <tableColumn id="762" xr3:uid="{B13BAD68-0DE7-6A46-AAA0-E65DDA661E23}" name="Column762"/>
+    <tableColumn id="763" xr3:uid="{56131B0C-5E13-7744-ADD7-8716775F6AA5}" name="Column763"/>
+    <tableColumn id="764" xr3:uid="{7F83428A-6B89-EF4D-989C-6E9BFA8F1AB4}" name="Column764"/>
+    <tableColumn id="765" xr3:uid="{10CB3F3A-E808-4046-9FE0-99D05389A486}" name="Column765"/>
+    <tableColumn id="766" xr3:uid="{BF631B32-EE14-2046-A4E2-77F0BC39E4BD}" name="Column766"/>
+    <tableColumn id="767" xr3:uid="{E2619A27-873A-114C-8055-5A36AC30504F}" name="Column767"/>
+    <tableColumn id="768" xr3:uid="{8240F0A9-AEEB-B54C-B60E-8F8C5847EB09}" name="Column768"/>
+    <tableColumn id="769" xr3:uid="{753B2F90-A4F4-4346-A8F3-B7932A649437}" name="Column769"/>
+    <tableColumn id="770" xr3:uid="{FB973BB5-7293-584A-8E02-1B90FD62B619}" name="Column770"/>
+    <tableColumn id="771" xr3:uid="{AB0EF978-8514-2342-826A-58E27CEA38E5}" name="Column771"/>
+    <tableColumn id="772" xr3:uid="{887ABDD3-1CEC-4146-98C7-BA835159B995}" name="Column772"/>
+    <tableColumn id="773" xr3:uid="{9791BE0A-243C-0440-AC46-8DE006C02727}" name="Column773"/>
+    <tableColumn id="774" xr3:uid="{458275B9-48C2-9F40-898B-300CCFC09229}" name="Column774"/>
+    <tableColumn id="775" xr3:uid="{4E83BB0D-7934-1046-ABB6-CA281DA062DB}" name="Column775"/>
+    <tableColumn id="776" xr3:uid="{64313870-97AE-C241-9408-C89FD724177D}" name="Column776"/>
+    <tableColumn id="777" xr3:uid="{4651E565-CC22-B34A-B63A-CF12F8D082DD}" name="Column777"/>
+    <tableColumn id="778" xr3:uid="{BBBE08DC-D1EE-FB4F-95CC-478F9FB3DC36}" name="Column778"/>
+    <tableColumn id="779" xr3:uid="{69FBC185-9B7D-1244-9331-4F6CA765FCC7}" name="Column779"/>
+    <tableColumn id="780" xr3:uid="{204A4BAC-D252-AA4E-8BEC-A628161CB41F}" name="Column780"/>
+    <tableColumn id="781" xr3:uid="{941A1F3F-A026-0845-9D7E-8F26AAA173C7}" name="Column781"/>
+    <tableColumn id="782" xr3:uid="{BF9889F4-A110-3249-BE13-CF74CB2FD59B}" name="Column782"/>
+    <tableColumn id="783" xr3:uid="{43B99F39-B001-8044-AAB5-ED01FB731422}" name="Column783"/>
+    <tableColumn id="784" xr3:uid="{2E1F304F-976C-764D-B273-1C5ADC714ECD}" name="Column784"/>
+    <tableColumn id="785" xr3:uid="{8C17E71E-98EC-3941-B24F-35D0B78F84F9}" name="Column785"/>
+    <tableColumn id="786" xr3:uid="{E8732E0A-CB71-4545-8547-352706988037}" name="Column786"/>
+    <tableColumn id="787" xr3:uid="{5CDB8984-6906-8B4C-9607-D3D36CB52DAE}" name="Column787"/>
+    <tableColumn id="788" xr3:uid="{D05A009A-BD77-6A4D-9823-74526503E62B}" name="Column788"/>
+    <tableColumn id="789" xr3:uid="{61B1FC34-8AA8-954F-BED8-A51BDF9D9EC4}" name="Column789"/>
+    <tableColumn id="790" xr3:uid="{82469497-B510-9C4F-8D0D-2AF92C632B02}" name="Column790"/>
+    <tableColumn id="791" xr3:uid="{B6B7E8D7-4FC4-F641-9751-2CA5B044DC2E}" name="Column791"/>
+    <tableColumn id="792" xr3:uid="{7D5F08D9-41AB-D742-A103-4F622F7E9376}" name="Column792"/>
+    <tableColumn id="793" xr3:uid="{FF467A57-9033-8F4C-BAA0-21A52B8614DA}" name="Column793"/>
+    <tableColumn id="794" xr3:uid="{3A9DFB8B-4CF8-A941-9E71-F9B33D6A3E6E}" name="Column794"/>
+    <tableColumn id="795" xr3:uid="{8CEDFD5C-51E3-4C44-BAB1-2199B1CA795D}" name="Column795"/>
+    <tableColumn id="796" xr3:uid="{8FEB6329-D749-4044-A31F-F34DB9BE09B5}" name="Column796"/>
+    <tableColumn id="797" xr3:uid="{D8800719-8740-E544-8D5F-0BAA2F4AB7F5}" name="Column797"/>
+    <tableColumn id="798" xr3:uid="{991E995C-5924-FF44-97F8-6783C2B4E65B}" name="Column798"/>
+    <tableColumn id="799" xr3:uid="{D87A525A-8D0E-5047-B00F-C064318CD99A}" name="Column799"/>
+    <tableColumn id="800" xr3:uid="{E9E83DAF-16B9-934B-8843-5CDC13EF1ED3}" name="Column800"/>
+    <tableColumn id="801" xr3:uid="{42D044FA-4516-0842-A3B1-A64FAC6103A4}" name="Column801"/>
+    <tableColumn id="802" xr3:uid="{402E6243-F993-F14A-BADE-127EEE9ED7EA}" name="Column802"/>
+    <tableColumn id="803" xr3:uid="{5397AB4D-BD78-0444-AA94-15C13DC64F38}" name="Column803"/>
+    <tableColumn id="804" xr3:uid="{662A467D-37F8-1440-A696-2A89E9B729C1}" name="Column804"/>
+    <tableColumn id="805" xr3:uid="{F52D6112-B199-994D-A15E-A59C224F7B33}" name="Column805"/>
+    <tableColumn id="806" xr3:uid="{54C23864-A194-044C-A403-C604F834A3C3}" name="Column806"/>
+    <tableColumn id="807" xr3:uid="{CDD77BA8-9F51-8C45-BFF3-8039083B7BAE}" name="Column807"/>
+    <tableColumn id="808" xr3:uid="{90040A9D-BACC-0740-B226-267D57B5BF5B}" name="Column808"/>
+    <tableColumn id="809" xr3:uid="{C7A385BF-537E-0B4E-A103-6CBBBC6CE916}" name="Column809"/>
+    <tableColumn id="810" xr3:uid="{4EF1CA3A-FE15-BD4B-9D9D-ECE80AE5CD02}" name="Column810"/>
+    <tableColumn id="811" xr3:uid="{7B88345E-90AB-1145-9F3E-EBA38EB9FE8C}" name="Column811"/>
+    <tableColumn id="812" xr3:uid="{97D2C210-46C6-9D43-B4C0-9339F4E2DD16}" name="Column812"/>
+    <tableColumn id="813" xr3:uid="{31AEDB15-E72A-8E48-B128-9941F9067D6E}" name="Column813"/>
+    <tableColumn id="814" xr3:uid="{A2EE1790-2560-2B40-B927-3E758AAC5D12}" name="Column814"/>
+    <tableColumn id="815" xr3:uid="{9A7C7343-7E86-A54C-8865-AD2162F8A323}" name="Column815"/>
+    <tableColumn id="816" xr3:uid="{98A2D2BF-D546-EF40-94B4-417F68FB2354}" name="Column816"/>
+    <tableColumn id="817" xr3:uid="{5D30CF46-CC0B-3F44-A83A-DB8CC21E41F8}" name="Column817"/>
+    <tableColumn id="818" xr3:uid="{C8A59230-F1F7-D042-9FA5-2EF79D3B4FD3}" name="Column818"/>
+    <tableColumn id="819" xr3:uid="{A9F06937-CCB3-844D-8E18-826C1E44B11E}" name="Column819"/>
+    <tableColumn id="820" xr3:uid="{ADFD086D-7445-5F43-8822-FD64306F5FAE}" name="Column820"/>
+    <tableColumn id="821" xr3:uid="{CA765C2C-CB5B-9544-BE46-571F98E0BF75}" name="Column821"/>
+    <tableColumn id="822" xr3:uid="{29716165-C287-6049-8A20-4BE7ECB8D747}" name="Column822"/>
+    <tableColumn id="823" xr3:uid="{F7EE6C28-AD4D-BA44-8AD8-5E1F36EDE4DB}" name="Column823"/>
+    <tableColumn id="824" xr3:uid="{EE124848-B272-2A4C-A1C0-B8FB78884E58}" name="Column824"/>
+    <tableColumn id="825" xr3:uid="{5FC09384-2CF5-524C-B8B2-3A5607F70B02}" name="Column825"/>
+    <tableColumn id="826" xr3:uid="{D017FDCF-FAF4-8A4F-98D6-1947E7D4B813}" name="Column826"/>
+    <tableColumn id="827" xr3:uid="{075442BF-1CAB-514C-BD4B-F14BA24728E4}" name="Column827"/>
+    <tableColumn id="828" xr3:uid="{7587434F-FB6C-764B-B181-A247663EF97A}" name="Column828"/>
+    <tableColumn id="829" xr3:uid="{50B78A98-60D8-1448-AB65-8D824E002850}" name="Column829"/>
+    <tableColumn id="830" xr3:uid="{11847FB7-4635-504C-AD47-234F69669EF1}" name="Column830"/>
+    <tableColumn id="831" xr3:uid="{F1FCDC28-1F4A-524F-9E5F-E34216A8A7D2}" name="Column831"/>
+    <tableColumn id="832" xr3:uid="{5B1FA65C-1F4D-B240-A2B4-368282E0A42F}" name="Column832"/>
+    <tableColumn id="833" xr3:uid="{30944471-12E2-544D-9626-74062234F063}" name="Column833"/>
+    <tableColumn id="834" xr3:uid="{CC180F9B-2668-1343-A947-45186E7514A6}" name="Column834"/>
+    <tableColumn id="835" xr3:uid="{950B3B98-C2F3-2941-ACB1-15781ED916D0}" name="Column835"/>
+    <tableColumn id="836" xr3:uid="{B21622EC-FA58-1C40-A4D9-35B5DCC56750}" name="Column836"/>
+    <tableColumn id="837" xr3:uid="{A615B956-A117-0E45-900D-67933259CC4A}" name="Column837"/>
+    <tableColumn id="838" xr3:uid="{E5C7A2FA-BEAD-4747-9248-65151F53555D}" name="Column838"/>
+    <tableColumn id="839" xr3:uid="{B45B6D2A-56FE-3448-9C8F-105986D9CEB2}" name="Column839"/>
+    <tableColumn id="840" xr3:uid="{126E639F-5E1F-AB41-A6F0-B22DED04DBFE}" name="Column840"/>
+    <tableColumn id="841" xr3:uid="{28A7A55D-1345-244D-9394-D8FA443AB436}" name="Column841"/>
+    <tableColumn id="842" xr3:uid="{37C59098-749E-574C-B99B-323FDA4CEED8}" name="Column842"/>
+    <tableColumn id="843" xr3:uid="{56381869-11D4-CE4D-858D-F034EA9CBAED}" name="Column843"/>
+    <tableColumn id="844" xr3:uid="{5868E8BD-EAB3-ED47-BA2D-624B73C36CFE}" name="Column844"/>
+    <tableColumn id="845" xr3:uid="{E2454A53-C8A1-FC43-909E-30FD8BEFDE0D}" name="Column845"/>
+    <tableColumn id="846" xr3:uid="{22675116-E81A-074F-9C13-370833C3FCA0}" name="Column846"/>
+    <tableColumn id="847" xr3:uid="{E57AB655-4B2F-7E4A-AE1F-7D2D41143F8A}" name="Column847"/>
+    <tableColumn id="848" xr3:uid="{0C273C89-77E2-9E45-BA68-309DD2DF2319}" name="Column848"/>
+    <tableColumn id="849" xr3:uid="{1276002D-E064-6C4E-BBCC-BF7AC227F5F7}" name="Column849"/>
+    <tableColumn id="850" xr3:uid="{C46E27F7-20AE-B348-91AD-457EBC11A263}" name="Column850"/>
+    <tableColumn id="851" xr3:uid="{F2954E2A-72C2-2647-A2F0-3AC1C234D1CF}" name="Column851"/>
+    <tableColumn id="852" xr3:uid="{B656741D-31B2-3842-9088-5F72E528C52E}" name="Column852"/>
+    <tableColumn id="853" xr3:uid="{B0F5246F-2CE2-2A43-9BCE-D104EF446492}" name="Column853"/>
+    <tableColumn id="854" xr3:uid="{12DD3BE5-63EF-2449-AD6D-365D6E659259}" name="Column854"/>
+    <tableColumn id="855" xr3:uid="{F6380B49-DC01-854A-922C-57FFBF1559F1}" name="Column855"/>
+    <tableColumn id="856" xr3:uid="{731ADBA1-5ED3-D340-B9A1-FFC65069B27A}" name="Column856"/>
+    <tableColumn id="857" xr3:uid="{20A3DA11-2548-734D-AAC4-D7F70DD9DF66}" name="Column857"/>
+    <tableColumn id="858" xr3:uid="{CB157E9F-FBA0-4A4F-AE5D-6AF5B798183B}" name="Column858"/>
+    <tableColumn id="859" xr3:uid="{13BA2E5E-D131-014C-80A6-1938AD78991B}" name="Column859"/>
+    <tableColumn id="860" xr3:uid="{72581B73-1348-9A46-9B24-79988A995824}" name="Column860"/>
+    <tableColumn id="861" xr3:uid="{83E4B164-E6D4-604F-80CA-399CB04A6852}" name="Column861"/>
+    <tableColumn id="862" xr3:uid="{60444F60-54CF-FE41-B428-F0B4CC5F95C2}" name="Column862"/>
+    <tableColumn id="863" xr3:uid="{95A0DC3E-216E-BE4C-884C-6EC2A15E84F8}" name="Column863"/>
+    <tableColumn id="864" xr3:uid="{1F6A2D04-8D05-B640-97C8-B9F8CA0DD7C2}" name="Column864"/>
+    <tableColumn id="865" xr3:uid="{27BC86F7-7A54-D84F-87E0-797307E9827E}" name="Column865"/>
+    <tableColumn id="866" xr3:uid="{8DB928AA-0598-5148-AD87-6B5E3641A164}" name="Column866"/>
+    <tableColumn id="867" xr3:uid="{D1C5EA85-BD06-AB44-B8BB-8E5231BD2495}" name="Column867"/>
+    <tableColumn id="868" xr3:uid="{EB069286-2E47-014B-842E-86E24C7F0A79}" name="Column868"/>
+    <tableColumn id="869" xr3:uid="{AF55092D-A60C-624C-8CB4-F81F0F0FC7E1}" name="Column869"/>
+    <tableColumn id="870" xr3:uid="{E7703DD2-04F9-EE40-AFFA-3250AF9FB3AD}" name="Column870"/>
+    <tableColumn id="871" xr3:uid="{E427A04B-8468-234A-8132-A1620A9FB573}" name="Column871"/>
+    <tableColumn id="872" xr3:uid="{CD4C4BB1-A49F-CA41-BA09-8557CEFC1FFE}" name="Column872"/>
+    <tableColumn id="873" xr3:uid="{21159D41-FB54-024A-ADAA-D87423A81F53}" name="Column873"/>
+    <tableColumn id="874" xr3:uid="{4DBB9DFD-58CA-7B47-8557-2314F077B7F3}" name="Column874"/>
+    <tableColumn id="875" xr3:uid="{3DAD84D0-4BC2-EC41-9684-48F56F6A3C63}" name="Column875"/>
+    <tableColumn id="876" xr3:uid="{6DB2674F-FB26-D74C-A480-17F003973DEC}" name="Column876"/>
+    <tableColumn id="877" xr3:uid="{C42B02DC-2066-DE4A-B3CB-FF868BA4E056}" name="Column877"/>
+    <tableColumn id="878" xr3:uid="{F1E9DEB6-2D43-CE47-B0FE-F71CCCE7E4B5}" name="Column878"/>
+    <tableColumn id="879" xr3:uid="{7516B086-8EDF-2A49-B2AF-33892E58CD3B}" name="Column879"/>
+    <tableColumn id="880" xr3:uid="{FB34AB7C-4E2E-B44A-9391-048A2D8C2953}" name="Column880"/>
+    <tableColumn id="881" xr3:uid="{BD42CA35-42D6-CB42-9313-E4821429E6D1}" name="Column881"/>
+    <tableColumn id="882" xr3:uid="{FDFBDC1E-EC44-6F40-BD3B-BA41755BDB37}" name="Column882"/>
+    <tableColumn id="883" xr3:uid="{BC252BB5-11F5-914B-A7DC-54FCC7C7A478}" name="Column883"/>
+    <tableColumn id="884" xr3:uid="{59048378-A9F8-0D4E-BA8F-5609FF123F72}" name="Column884"/>
+    <tableColumn id="885" xr3:uid="{DD3ACB5E-2ADD-EF47-A348-075E6EA255FF}" name="Column885"/>
+    <tableColumn id="886" xr3:uid="{9578F1E4-F961-9D44-BC65-C7143FA73C08}" name="Column886"/>
+    <tableColumn id="887" xr3:uid="{69E6BC25-E229-BB44-9D51-3ABED0C7FACF}" name="Column887"/>
+    <tableColumn id="888" xr3:uid="{C7C14AE0-2CEC-0C41-9678-85402F28D301}" name="Column888"/>
+    <tableColumn id="889" xr3:uid="{EA4BC746-15ED-D348-92BE-7F5EC793E81B}" name="Column889"/>
+    <tableColumn id="890" xr3:uid="{50DE783B-9DF0-8B40-86A0-744B9E319C1F}" name="Column890"/>
+    <tableColumn id="891" xr3:uid="{2B7558BD-4117-F24F-B4BD-A8966C19F21D}" name="Column891"/>
+    <tableColumn id="892" xr3:uid="{8F5EA94E-3740-5041-B492-65954F2081E8}" name="Column892"/>
+    <tableColumn id="893" xr3:uid="{DBFAFEB9-0E7E-FF49-A721-1CF4E4DCDDA9}" name="Column893"/>
+    <tableColumn id="894" xr3:uid="{B70F40E4-37CF-704E-8C5F-25FC08603846}" name="Column894"/>
+    <tableColumn id="895" xr3:uid="{AD2FF016-EBBA-AC45-841A-83E7793C0010}" name="Column895"/>
+    <tableColumn id="896" xr3:uid="{C8FA54CF-0590-CA4E-94CA-E691E53672FA}" name="Column896"/>
+    <tableColumn id="897" xr3:uid="{39AD7B08-2D86-A54B-9247-52D8AAEC8AE1}" name="Column897"/>
+    <tableColumn id="898" xr3:uid="{4013A041-325D-2646-927E-37C28F930DB1}" name="Column898"/>
+    <tableColumn id="899" xr3:uid="{CD0732E5-5368-564A-BADF-EDFE83251F03}" name="Column899"/>
+    <tableColumn id="900" xr3:uid="{866360AA-2F1D-4646-BED2-59FA389CF915}" name="Column900"/>
+    <tableColumn id="901" xr3:uid="{F366AEE6-4B35-B340-A853-153D2D8624A7}" name="Column901"/>
+    <tableColumn id="902" xr3:uid="{D9241FAB-FE43-F447-B35F-A646EF56BB77}" name="Column902"/>
+    <tableColumn id="903" xr3:uid="{766F2455-61C9-D14E-902F-12BE385BFEAE}" name="Column903"/>
+    <tableColumn id="904" xr3:uid="{22A9EC80-0F8A-6C46-BAD1-37740D2DA33C}" name="Column904"/>
+    <tableColumn id="905" xr3:uid="{5067E8DC-2D11-D943-ABFB-E516EDBA89B1}" name="Column905"/>
+    <tableColumn id="906" xr3:uid="{82ACB50B-516B-E94D-9C14-127322880331}" name="Column906"/>
+    <tableColumn id="907" xr3:uid="{0ABE6FD4-B9F1-6F4B-AF83-82B5A7CB85D6}" name="Column907"/>
+    <tableColumn id="908" xr3:uid="{C7CDC14C-0FE9-D047-815E-553BC3C3764C}" name="Column908"/>
+    <tableColumn id="909" xr3:uid="{0AA00F05-C76E-ED43-BAF1-C2F8717ED6B6}" name="Column909"/>
+    <tableColumn id="910" xr3:uid="{50789BD0-0899-5C41-818E-6F87A57B144A}" name="Column910"/>
+    <tableColumn id="911" xr3:uid="{7FDD52E5-7580-8A41-91A8-2177D3A641B0}" name="Column911"/>
+    <tableColumn id="912" xr3:uid="{36DED2E5-ABC1-EB41-8F4F-3A4B47D3B85E}" name="Column912"/>
+    <tableColumn id="913" xr3:uid="{F4DF0DFD-3C71-634B-9842-C460BCC01692}" name="Column913"/>
+    <tableColumn id="914" xr3:uid="{8E63692A-0ADF-7D40-8E6A-0AF360604804}" name="Column914"/>
+    <tableColumn id="915" xr3:uid="{BC4D13AD-F0ED-8B4C-8633-45EAEC12E654}" name="Column915"/>
+    <tableColumn id="916" xr3:uid="{ADFE7DED-CBB2-C54A-8C57-F6AC0FB9DA92}" name="Column916"/>
+    <tableColumn id="917" xr3:uid="{372E4852-EEC6-3742-A415-F48E9EFB1065}" name="Column917"/>
+    <tableColumn id="918" xr3:uid="{3D9AADEE-054A-284D-9D4D-741C23087759}" name="Column918"/>
+    <tableColumn id="919" xr3:uid="{FA19DFDE-2368-8045-975C-C2A90168C1F0}" name="Column919"/>
+    <tableColumn id="920" xr3:uid="{4E0B0782-7891-EA48-AA97-32AB3A540B81}" name="Column920"/>
+    <tableColumn id="921" xr3:uid="{B0809C5C-1E78-1246-BF66-BDD76A0C7EAA}" name="Column921"/>
+    <tableColumn id="922" xr3:uid="{6E69630E-6209-E149-A112-EFCD3905D8F8}" name="Column922"/>
+    <tableColumn id="923" xr3:uid="{24232945-BE0F-CF45-A330-DA2C67B91C27}" name="Column923"/>
+    <tableColumn id="924" xr3:uid="{567175E6-C4D6-5047-A227-97382C81A947}" name="Column924"/>
+    <tableColumn id="925" xr3:uid="{12AD52C5-C441-C34A-8F17-0AA7D2488D75}" name="Column925"/>
+    <tableColumn id="926" xr3:uid="{9FB77B3E-9F7F-274F-942A-08B075AA6287}" name="Column926"/>
+    <tableColumn id="927" xr3:uid="{14FA8180-78A5-C744-B259-BFC51A81ECEC}" name="Column927"/>
+    <tableColumn id="928" xr3:uid="{3194F18C-3E19-4749-A71E-F2FB1347A08E}" name="Column928"/>
+    <tableColumn id="929" xr3:uid="{D994B75B-3F81-DF48-8E44-7B772627A79E}" name="Column929"/>
+    <tableColumn id="930" xr3:uid="{95C999CF-0C90-B84A-A82F-D637A19E6EDE}" name="Column930"/>
+    <tableColumn id="931" xr3:uid="{DE5099C1-090A-EC45-932C-092CE3C73BFF}" name="Column931"/>
+    <tableColumn id="932" xr3:uid="{04D3DC0A-7217-FA4D-8044-63A53B11AB2E}" name="Column932"/>
+    <tableColumn id="933" xr3:uid="{FB434D19-6467-6B48-8461-B5DC2B050006}" name="Column933"/>
+    <tableColumn id="934" xr3:uid="{2B737C5A-8741-9B44-AABB-A84872F453B1}" name="Column934"/>
+    <tableColumn id="935" xr3:uid="{F159E17B-868A-AC40-A6F6-97C925FC0E28}" name="Column935"/>
+    <tableColumn id="936" xr3:uid="{68109EF2-6B30-8F4D-B45A-04216C270F72}" name="Column936"/>
+    <tableColumn id="937" xr3:uid="{51B8666D-FD40-9B45-A8CA-D58AE82D2470}" name="Column937"/>
+    <tableColumn id="938" xr3:uid="{B7AE0446-36B3-684E-8301-E77A2C172413}" name="Column938"/>
+    <tableColumn id="939" xr3:uid="{55B2CD15-2111-534F-978B-9D014BC68C41}" name="Column939"/>
+    <tableColumn id="940" xr3:uid="{8BC853D0-B967-8E4C-9573-E9A0ACA47F51}" name="Column940"/>
+    <tableColumn id="941" xr3:uid="{F7632490-B493-F542-B8F9-B34982E0825B}" name="Column941"/>
+    <tableColumn id="942" xr3:uid="{D196A8CD-D68B-7045-BD7A-01AA4E4B5687}" name="Column942"/>
+    <tableColumn id="943" xr3:uid="{A6EC49EC-4647-7C4F-8F49-D7F686E187A6}" name="Column943"/>
+    <tableColumn id="944" xr3:uid="{140C1DA8-AC52-B54A-B5FC-D24D4943A7DA}" name="Column944"/>
+    <tableColumn id="945" xr3:uid="{52D8A183-F76A-244E-AF16-F63D4C92754C}" name="Column945"/>
+    <tableColumn id="946" xr3:uid="{70EE2F1B-BC53-4945-8B8F-9347542A52C8}" name="Column946"/>
+    <tableColumn id="947" xr3:uid="{A4FE35E9-BBB1-1E42-9B87-8B87A13B55B3}" name="Column947"/>
+    <tableColumn id="948" xr3:uid="{B21B62C4-32A1-0D4D-A52F-134023DE4681}" name="Column948"/>
+    <tableColumn id="949" xr3:uid="{2A149491-AE32-8444-98B0-C065A20BC98E}" name="Column949"/>
+    <tableColumn id="950" xr3:uid="{570476D6-0077-0341-A8D7-5146A3E4EDB9}" name="Column950"/>
+    <tableColumn id="951" xr3:uid="{DAAC9EAC-8610-FD40-A7C6-3EC67AD8296E}" name="Column951"/>
+    <tableColumn id="952" xr3:uid="{6BB1B6FD-90C6-5049-BCCF-23353B8BC2C4}" name="Column952"/>
+    <tableColumn id="953" xr3:uid="{E285ACBC-0800-B742-88B4-493CAA2248C0}" name="Column953"/>
+    <tableColumn id="954" xr3:uid="{D8086556-27CF-C344-BF0C-9E47B6B173BF}" name="Column954"/>
+    <tableColumn id="955" xr3:uid="{EC5D662A-1EA4-CA4D-8D89-59730BBD0CC3}" name="Column955"/>
+    <tableColumn id="956" xr3:uid="{09BD72B0-02F2-CD41-B129-A0B6BB31A3E9}" name="Column956"/>
+    <tableColumn id="957" xr3:uid="{CDFDB97F-2699-104C-A467-E960FEEB909F}" name="Column957"/>
+    <tableColumn id="958" xr3:uid="{1ACC9D4B-1D0F-364B-9D0D-A3035321763D}" name="Column958"/>
+    <tableColumn id="959" xr3:uid="{BC54413B-7246-D444-A06A-6DDD68F89B35}" name="Column959"/>
+    <tableColumn id="960" xr3:uid="{159BE055-2DD0-1444-A7DD-4196C0426504}" name="Column960"/>
+    <tableColumn id="961" xr3:uid="{7B3DF65E-E2BB-AF43-A7E0-525EF2BF205C}" name="Column961"/>
+    <tableColumn id="962" xr3:uid="{E04AFEC7-EC1A-F54A-ADC8-6AFA6C9853A1}" name="Column962"/>
+    <tableColumn id="963" xr3:uid="{5D8F3BDA-647D-A14F-A61D-56983179342E}" name="Column963"/>
+    <tableColumn id="964" xr3:uid="{BA677955-D8B2-BE4C-B2E3-E31EF277F043}" name="Column964"/>
+    <tableColumn id="965" xr3:uid="{F837BFD6-2C6B-3E40-9440-0661201C9F35}" name="Column965"/>
+    <tableColumn id="966" xr3:uid="{58CAF654-2A8E-6F4B-B0C7-FB317DF34C8A}" name="Column966"/>
+    <tableColumn id="967" xr3:uid="{966587EE-655F-9E42-AB90-86B78BD114AA}" name="Column967"/>
+    <tableColumn id="968" xr3:uid="{CC91C0F5-0584-4F4E-A3CB-465B5EBF171E}" name="Column968"/>
+    <tableColumn id="969" xr3:uid="{38AD6433-7B46-3B4A-888B-C09F0703F4BF}" name="Column969"/>
+    <tableColumn id="970" xr3:uid="{314525EC-8523-7B4A-9B2E-307672154B6C}" name="Column970"/>
+    <tableColumn id="971" xr3:uid="{848DC44D-6300-024E-8081-0588AFD88842}" name="Column971"/>
+    <tableColumn id="972" xr3:uid="{DB58DE8D-FBE8-7343-9943-2EA481606B12}" name="Column972"/>
+    <tableColumn id="973" xr3:uid="{41C777B7-0F11-C24C-8424-EC7B8EF512A2}" name="Column973"/>
+    <tableColumn id="974" xr3:uid="{3FACE38E-1A22-E645-94D1-83DED6D2CC33}" name="Column974"/>
+    <tableColumn id="975" xr3:uid="{0D4E1490-C7B8-EF41-B10A-3507F2C84E60}" name="Column975"/>
+    <tableColumn id="976" xr3:uid="{308FD713-7420-4C4E-894B-9918106079EB}" name="Column976"/>
+    <tableColumn id="977" xr3:uid="{FCA5EE59-3AB5-0B43-B11C-8F8740856678}" name="Column977"/>
+    <tableColumn id="978" xr3:uid="{83EFF4B3-F1E8-7549-9AB7-6F831E783095}" name="Column978"/>
+    <tableColumn id="979" xr3:uid="{0DC97B16-E506-CF45-82C1-E598534CB30D}" name="Column979"/>
+    <tableColumn id="980" xr3:uid="{33441D85-E9D2-534E-B367-B9659C49C555}" name="Column980"/>
+    <tableColumn id="981" xr3:uid="{32A90EE3-1C82-FF4A-AB17-EAE8E5179CB1}" name="Column981"/>
+    <tableColumn id="982" xr3:uid="{A063141E-4863-0C44-8FAA-FA736C7C1598}" name="Column982"/>
+    <tableColumn id="983" xr3:uid="{FEEB34CF-F6BE-A44B-A5A8-C34CEB3D9AD4}" name="Column983"/>
+    <tableColumn id="984" xr3:uid="{F1E7D355-8D8B-FF46-960F-F8D416C0E61C}" name="Column984"/>
+    <tableColumn id="985" xr3:uid="{13A64A21-F72D-AF42-BE8A-EC4E1D9C0000}" name="Column985"/>
+    <tableColumn id="986" xr3:uid="{A7D690EB-2C4C-BB41-9B5D-61C2D5D4AFC9}" name="Column986"/>
+    <tableColumn id="987" xr3:uid="{436A49D3-FFAF-0045-A32D-F5082BE77903}" name="Column987"/>
+    <tableColumn id="988" xr3:uid="{385CF7BD-60D8-144C-A4A1-029E6B3AA226}" name="Column988"/>
+    <tableColumn id="989" xr3:uid="{7B1237ED-751A-6D4C-AC10-5008AB07AEE2}" name="Column989"/>
+    <tableColumn id="990" xr3:uid="{207128BD-3414-0B4A-8833-155A8BE236E6}" name="Column990"/>
+    <tableColumn id="991" xr3:uid="{79080996-2502-0949-82C3-A395FBAC7AA5}" name="Column991"/>
+    <tableColumn id="992" xr3:uid="{8E89FF54-2158-4F48-A154-864FE909E098}" name="Column992"/>
+    <tableColumn id="993" xr3:uid="{17F50468-6CC2-2249-808A-933428EFDFCC}" name="Column993"/>
+    <tableColumn id="994" xr3:uid="{02AFCA80-3721-0943-B88B-F1955277BE4E}" name="Column994"/>
+    <tableColumn id="995" xr3:uid="{A221EF75-06BB-7344-AC5D-09042B93713E}" name="Column995"/>
+    <tableColumn id="996" xr3:uid="{0AF5C58D-1B2A-1642-903A-A3B693CF3D0C}" name="Column996"/>
+    <tableColumn id="997" xr3:uid="{D5539403-0B0F-8048-B11C-A700CEB14A6C}" name="Column997"/>
+    <tableColumn id="998" xr3:uid="{1A14742C-68B0-1C4E-9CA7-1E75308CF5A1}" name="Column998"/>
+    <tableColumn id="999" xr3:uid="{7DB0F6CA-44B7-8541-A5C1-D8AFEF359A00}" name="Column999"/>
+    <tableColumn id="1000" xr3:uid="{B5A82219-6C45-8B4A-AF6C-026C374CFDBB}" name="Column1000"/>
+    <tableColumn id="1001" xr3:uid="{4307DD5B-A6A1-BC4A-A168-189937BDC8A6}" name="Column1001"/>
+    <tableColumn id="1002" xr3:uid="{93CB5196-AE41-3D4A-A852-51581B1805F2}" name="Column1002"/>
+    <tableColumn id="1003" xr3:uid="{56293825-8B43-3543-A28A-9EAA81479A5D}" name="Column1003"/>
+    <tableColumn id="1004" xr3:uid="{3584BC03-B21D-044D-9B67-46934272ED1B}" name="Column1004"/>
+    <tableColumn id="1005" xr3:uid="{9B17E2BD-42AA-854C-AC81-5B78F6283504}" name="Column1005"/>
+    <tableColumn id="1006" xr3:uid="{254EBA87-6744-694E-B090-671AD72B581F}" name="Column1006"/>
+    <tableColumn id="1007" xr3:uid="{36C36BE7-5149-9548-BF23-6ED31E95034E}" name="Column1007"/>
+    <tableColumn id="1008" xr3:uid="{A315C71A-ED7C-D940-9847-83825E581C09}" name="Column1008"/>
+    <tableColumn id="1009" xr3:uid="{87FADE13-3FC5-CD46-94D3-BA4EDF581ECE}" name="Column1009"/>
+    <tableColumn id="1010" xr3:uid="{8653B553-2419-924B-9805-D9AA0E16CBE5}" name="Column1010"/>
+    <tableColumn id="1011" xr3:uid="{B8A4CA19-85A1-5645-AB4B-3B9394671848}" name="Column1011"/>
+    <tableColumn id="1012" xr3:uid="{8ADC78A6-CA99-AD4D-BEF7-BC17DD3BDFA0}" name="Column1012"/>
+    <tableColumn id="1013" xr3:uid="{D7F82E24-C56E-1A49-911F-42B916353BBA}" name="Column1013"/>
+    <tableColumn id="1014" xr3:uid="{4D82211B-E1B3-ED4A-807E-8F40B2F12AA7}" name="Column1014"/>
+    <tableColumn id="1015" xr3:uid="{325A340C-F050-9F45-B52F-7EF0CB6751B8}" name="Column1015"/>
+    <tableColumn id="1016" xr3:uid="{B2458536-8CA0-EF45-B764-D5486FA6E492}" name="Column1016"/>
+    <tableColumn id="1017" xr3:uid="{733505DF-807A-E043-9951-2300B22C9E30}" name="Column1017"/>
+    <tableColumn id="1018" xr3:uid="{FC60E9BC-EF19-4245-BAF6-8D759AB0AB33}" name="Column1018"/>
+    <tableColumn id="1019" xr3:uid="{C1CEC7BC-70DA-B64A-8B89-62ABE7069DF7}" name="Column1019"/>
+    <tableColumn id="1020" xr3:uid="{6FEDBAEB-C862-BF4F-8C70-656007AAEED1}" name="Column1020"/>
+    <tableColumn id="1021" xr3:uid="{E8727677-01DA-D341-A934-98BF03554E44}" name="Column1021"/>
+    <tableColumn id="1022" xr3:uid="{9CF37F14-CC0A-904F-9521-8E11467C1A6A}" name="Column1022"/>
+    <tableColumn id="1023" xr3:uid="{0542CF7E-3628-D940-9483-8962C3BE9365}" name="Column1023"/>
+    <tableColumn id="1024" xr3:uid="{35DC8246-30EA-6741-9FD3-4822FBE18034}" name="Column1024"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2811,18 +2827,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF7C151-3B7D-574A-881F-7391C3C2EDAC}">
-  <dimension ref="A1:BL93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE65322-9E0A-7A45-9C36-668BB13B834C}">
+  <dimension ref="A1:BL94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.6640625" customWidth="1"/>
     <col min="2" max="2" width="23" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="88.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="58.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="68" style="3" customWidth="1"/>
     <col min="6" max="6" width="101.5" style="3" customWidth="1"/>
     <col min="7" max="64" width="13.33203125" style="3" customWidth="1"/>
   </cols>
@@ -4115,535 +4131,552 @@
       <c r="B58" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C58" s="6"/>
+      <c r="C58" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="D58" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E61" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="E79" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>379</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" xr:uid="{3AF8686F-15A0-9045-83F3-9F309F53E556}"/>
-    <hyperlink ref="E93" r:id="rId2" xr:uid="{AE0E8611-B44F-2B49-82E4-1F075AC89438}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{57D44E5B-F05F-4247-A1E8-17B16E6BFB2A}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{341302AD-3E4C-4045-8899-137E8885875F}"/>
+    <hyperlink ref="E93" r:id="rId3" xr:uid="{39683A05-519C-EE4D-B2B3-2BDF91E32A97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E930BB2D-C44C-DD4D-8143-F52124DEA322}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05496FD6-808C-9347-85C8-49F9AAE993CE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4659,7 +4692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219AFA50-CB42-1E4F-A11F-369704C22491}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43EE7E1-0373-B04B-B351-75EF026B6831}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/cci/cci-sensor.xlsx
+++ b/data/cci/cci-sensor.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies2/data/cci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amw23\Documents\GitHub\cci-vocabularies\data\cci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3301A262-25CD-874C-B069-3DFD0625195F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB13482-939C-4300-AD8A-6259F5327A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{AC6267AA-9592-A246-9899-93CEA800D98F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{AC6267AA-9592-A246-9899-93CEA800D98F}"/>
   </bookViews>
   <sheets>
     <sheet name="cci-sensor" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="410">
   <si>
     <t>URI</t>
   </si>
@@ -1168,6 +1168,90 @@
   </si>
   <si>
     <t>https://space.oscar.wmo.int/instruments/view/poseidon_4</t>
+  </si>
+  <si>
+    <t>sens_sageII</t>
+  </si>
+  <si>
+    <t>SAGE-II</t>
+  </si>
+  <si>
+    <t>Stratospheric Aerosol and Gas Experiment - II</t>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/instruments/view/sage_ii</t>
+  </si>
+  <si>
+    <t>sens_mls</t>
+  </si>
+  <si>
+    <t>MLS</t>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/instruments/view/mls</t>
+  </si>
+  <si>
+    <t>sens_mlsAura</t>
+  </si>
+  <si>
+    <t>MLS (EOS-AURA)</t>
+  </si>
+  <si>
+    <t>Microwave Limb Sounder on EOS AURA</t>
+  </si>
+  <si>
+    <t>Microwave Limb Sounder on UARS</t>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/instruments/view/mls_eos_aura</t>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/instruments/view/poam</t>
+  </si>
+  <si>
+    <t>sens_poam</t>
+  </si>
+  <si>
+    <t>POAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polar Ozone and Aerosol Measurement </t>
+  </si>
+  <si>
+    <t>sens_sageIII</t>
+  </si>
+  <si>
+    <t>SAGE-III</t>
+  </si>
+  <si>
+    <t>Stratospheric Aerosol and Gas Experiment - III</t>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/instruments/view/sage_iii</t>
+  </si>
+  <si>
+    <t>sens_haloe</t>
+  </si>
+  <si>
+    <t>HALOE</t>
+  </si>
+  <si>
+    <t>Halogen Occultation Experiment</t>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/instruments/view/haloe</t>
+  </si>
+  <si>
+    <t>sens_maestro</t>
+  </si>
+  <si>
+    <t>MAESTRO</t>
+  </si>
+  <si>
+    <t>Measurements of Aerosol Extinction in the Stratosphere and Troposphere retrieved by Occultation</t>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/instruments/view/maestro</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1261,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00;[Red]&quot;-&quot;[$£-809]#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1405,7 +1489,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1414,30 +1498,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="15"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="21">
@@ -2828,22 +2902,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE65322-9E0A-7A45-9C36-668BB13B834C}">
-  <dimension ref="A1:BL94"/>
+  <dimension ref="A1:BL101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="60.7109375" customWidth="1"/>
     <col min="2" max="2" width="23" style="3" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="88.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="88.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="68" style="3" customWidth="1"/>
-    <col min="6" max="6" width="101.5" style="3" customWidth="1"/>
-    <col min="7" max="64" width="13.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="101.42578125" style="3" customWidth="1"/>
+    <col min="7" max="64" width="13.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2860,7 +2936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2871,11 +2947,11 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2886,11 +2962,11 @@
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -2901,466 +2977,230 @@
       <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="10"/>
-      <c r="AZ5" s="10"/>
-      <c r="BA5" s="10"/>
-      <c r="BB5" s="10"/>
-      <c r="BC5" s="10"/>
-      <c r="BD5" s="10"/>
-      <c r="BE5" s="10"/>
-      <c r="BF5" s="10"/>
-      <c r="BG5" s="10"/>
-      <c r="BH5" s="10"/>
-      <c r="BI5" s="10"/>
-      <c r="BJ5" s="10"/>
-      <c r="BK5" s="10"/>
-      <c r="BL5" s="10"/>
-    </row>
-    <row r="6" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
-      <c r="AZ6" s="10"/>
-      <c r="BA6" s="10"/>
-      <c r="BB6" s="10"/>
-      <c r="BC6" s="10"/>
-      <c r="BD6" s="10"/>
-      <c r="BE6" s="10"/>
-      <c r="BF6" s="10"/>
-      <c r="BG6" s="10"/>
-      <c r="BH6" s="10"/>
-      <c r="BI6" s="10"/>
-      <c r="BJ6" s="10"/>
-      <c r="BK6" s="10"/>
-      <c r="BL6" s="10"/>
-    </row>
-    <row r="7" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10"/>
-      <c r="AV9" s="10"/>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="10"/>
-      <c r="BA9" s="10"/>
-      <c r="BB9" s="10"/>
-      <c r="BC9" s="10"/>
-      <c r="BD9" s="10"/>
-      <c r="BE9" s="10"/>
-      <c r="BF9" s="10"/>
-      <c r="BG9" s="10"/>
-      <c r="BH9" s="10"/>
-      <c r="BI9" s="10"/>
-      <c r="BJ9" s="10"/>
-      <c r="BK9" s="10"/>
-      <c r="BL9" s="10"/>
-    </row>
-    <row r="10" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
-      <c r="AV10" s="10"/>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="10"/>
-      <c r="AZ10" s="10"/>
-      <c r="BA10" s="10"/>
-      <c r="BB10" s="10"/>
-      <c r="BC10" s="10"/>
-      <c r="BD10" s="10"/>
-      <c r="BE10" s="10"/>
-      <c r="BF10" s="10"/>
-      <c r="BG10" s="10"/>
-      <c r="BH10" s="10"/>
-      <c r="BI10" s="10"/>
-      <c r="BJ10" s="10"/>
-      <c r="BK10" s="10"/>
-      <c r="BL10" s="10"/>
-    </row>
-    <row r="11" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
         <v>76</v>
       </c>
@@ -3368,215 +3208,99 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
-      <c r="AP22" s="10"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="10"/>
-      <c r="AT22" s="10"/>
-      <c r="AU22" s="10"/>
-      <c r="AV22" s="10"/>
-      <c r="AW22" s="10"/>
-      <c r="AX22" s="10"/>
-      <c r="AY22" s="10"/>
-      <c r="AZ22" s="10"/>
-      <c r="BA22" s="10"/>
-      <c r="BB22" s="10"/>
-      <c r="BC22" s="10"/>
-      <c r="BD22" s="10"/>
-      <c r="BE22" s="10"/>
-      <c r="BF22" s="10"/>
-      <c r="BG22" s="10"/>
-      <c r="BH22" s="10"/>
-      <c r="BI22" s="10"/>
-      <c r="BJ22" s="10"/>
-      <c r="BK22" s="10"/>
-      <c r="BL22" s="10"/>
-    </row>
-    <row r="23" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>92</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="10"/>
-      <c r="AN23" s="10"/>
-      <c r="AO23" s="10"/>
-      <c r="AP23" s="10"/>
-      <c r="AQ23" s="10"/>
-      <c r="AR23" s="10"/>
-      <c r="AS23" s="10"/>
-      <c r="AT23" s="10"/>
-      <c r="AU23" s="10"/>
-      <c r="AV23" s="10"/>
-      <c r="AW23" s="10"/>
-      <c r="AX23" s="10"/>
-      <c r="AY23" s="10"/>
-      <c r="AZ23" s="10"/>
-      <c r="BA23" s="10"/>
-      <c r="BB23" s="10"/>
-      <c r="BC23" s="10"/>
-      <c r="BD23" s="10"/>
-      <c r="BE23" s="10"/>
-      <c r="BF23" s="10"/>
-      <c r="BG23" s="10"/>
-      <c r="BH23" s="10"/>
-      <c r="BI23" s="10"/>
-      <c r="BJ23" s="10"/>
-      <c r="BK23" s="10"/>
-      <c r="BL23" s="10"/>
-    </row>
-    <row r="24" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
         <v>102</v>
       </c>
@@ -3587,11 +3311,11 @@
       <c r="D26" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
         <v>106</v>
       </c>
@@ -3602,11 +3326,11 @@
       <c r="D27" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
         <v>110</v>
       </c>
@@ -3617,11 +3341,11 @@
       <c r="D28" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
         <v>114</v>
       </c>
@@ -3632,11 +3356,11 @@
       <c r="D29" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
         <v>118</v>
       </c>
@@ -3647,11 +3371,11 @@
       <c r="D30" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
         <v>122</v>
       </c>
@@ -3662,11 +3386,11 @@
       <c r="D31" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
         <v>126</v>
       </c>
@@ -3677,11 +3401,11 @@
       <c r="D32" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="4" t="s">
         <v>130</v>
       </c>
@@ -3689,14 +3413,14 @@
         <v>131</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
         <v>134</v>
       </c>
@@ -3707,11 +3431,11 @@
       <c r="D34" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
         <v>138</v>
       </c>
@@ -3722,11 +3446,11 @@
       <c r="D35" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="4" t="s">
         <v>142</v>
       </c>
@@ -3737,11 +3461,11 @@
       <c r="D36" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="4" t="s">
         <v>146</v>
       </c>
@@ -3752,11 +3476,11 @@
       <c r="D37" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
         <v>150</v>
       </c>
@@ -3767,11 +3491,11 @@
       <c r="D38" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="4" t="s">
         <v>154</v>
       </c>
@@ -3782,31 +3506,31 @@
       <c r="D39" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F40"/>
       <c r="G40"/>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="4" t="s">
         <v>163</v>
       </c>
@@ -3814,14 +3538,14 @@
         <v>164</v>
       </c>
       <c r="C41" s="6"/>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="4" t="s">
         <v>167</v>
       </c>
@@ -3829,14 +3553,14 @@
         <v>168</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="4" t="s">
         <v>171</v>
       </c>
@@ -3847,11 +3571,11 @@
       <c r="D43" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="4" t="s">
         <v>175</v>
       </c>
@@ -3862,11 +3586,11 @@
       <c r="D44" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
         <v>178</v>
       </c>
@@ -3877,85 +3601,26 @@
       <c r="D45" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:64" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="30">
       <c r="A46" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-      <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
-      <c r="AD46" s="10"/>
-      <c r="AE46" s="10"/>
-      <c r="AF46" s="10"/>
-      <c r="AG46" s="10"/>
-      <c r="AH46" s="10"/>
-      <c r="AI46" s="10"/>
-      <c r="AJ46" s="10"/>
-      <c r="AK46" s="10"/>
-      <c r="AL46" s="10"/>
-      <c r="AM46" s="10"/>
-      <c r="AN46" s="10"/>
-      <c r="AO46" s="10"/>
-      <c r="AP46" s="10"/>
-      <c r="AQ46" s="10"/>
-      <c r="AR46" s="10"/>
-      <c r="AS46" s="10"/>
-      <c r="AT46" s="10"/>
-      <c r="AU46" s="10"/>
-      <c r="AV46" s="10"/>
-      <c r="AW46" s="10"/>
-      <c r="AX46" s="10"/>
-      <c r="AY46" s="10"/>
-      <c r="AZ46" s="10"/>
-      <c r="BA46" s="10"/>
-      <c r="BB46" s="10"/>
-      <c r="BC46" s="10"/>
-      <c r="BD46" s="10"/>
-      <c r="BE46" s="10"/>
-      <c r="BF46" s="10"/>
-      <c r="BG46" s="10"/>
-      <c r="BH46" s="10"/>
-      <c r="BI46" s="10"/>
-      <c r="BJ46" s="10"/>
-      <c r="BK46" s="10"/>
-      <c r="BL46" s="10"/>
-    </row>
-    <row r="47" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="4" t="s">
         <v>186</v>
       </c>
@@ -3963,14 +3628,14 @@
         <v>187</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:64" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
         <v>190</v>
       </c>
@@ -3981,11 +3646,11 @@
       <c r="D48" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="4" t="s">
         <v>194</v>
       </c>
@@ -3996,11 +3661,11 @@
       <c r="D49" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="4" t="s">
         <v>198</v>
       </c>
@@ -4011,11 +3676,11 @@
       <c r="D50" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="4" t="s">
         <v>202</v>
       </c>
@@ -4028,11 +3693,11 @@
       <c r="D51" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="4" t="s">
         <v>207</v>
       </c>
@@ -4045,11 +3710,11 @@
       <c r="D52" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="4" t="s">
         <v>212</v>
       </c>
@@ -4060,11 +3725,11 @@
       <c r="D53" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="4" t="s">
         <v>216</v>
       </c>
@@ -4075,11 +3740,11 @@
       <c r="D54" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="4" t="s">
         <v>220</v>
       </c>
@@ -4090,11 +3755,11 @@
       <c r="D55" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="4" t="s">
         <v>224</v>
       </c>
@@ -4105,11 +3770,11 @@
       <c r="D56" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="4" t="s">
         <v>228</v>
       </c>
@@ -4120,11 +3785,11 @@
       <c r="D57" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="4" t="s">
         <v>232</v>
       </c>
@@ -4137,11 +3802,11 @@
       <c r="D58" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="4" t="s">
         <v>237</v>
       </c>
@@ -4152,11 +3817,11 @@
       <c r="D59" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="4" t="s">
         <v>241</v>
       </c>
@@ -4171,8 +3836,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
         <v>245</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -4185,8 +3850,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
         <v>249</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -4199,8 +3864,8 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
         <v>253</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -4213,8 +3878,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
         <v>257</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -4227,8 +3892,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
         <v>261</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -4241,8 +3906,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="14" t="s">
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
         <v>265</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -4255,8 +3920,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="14" t="s">
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
         <v>269</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -4269,8 +3934,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="14" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
         <v>273</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -4283,8 +3948,8 @@
         <v>276</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="14" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
         <v>277</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -4293,28 +3958,28 @@
       <c r="D69" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="E69" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>281</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="8" t="s">
         <v>284</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>286</v>
       </c>
@@ -4327,12 +3992,12 @@
       <c r="D71" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="E71" s="8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="14" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
         <v>291</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -4341,25 +4006,25 @@
       <c r="D72" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E72" s="8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>295</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="8" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -4369,11 +4034,11 @@
       <c r="D74" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="8" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>303</v>
       </c>
@@ -4383,11 +4048,11 @@
       <c r="D75" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>306</v>
       </c>
@@ -4397,11 +4062,11 @@
       <c r="D76" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="E76" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>309</v>
       </c>
@@ -4411,11 +4076,11 @@
       <c r="D77" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>313</v>
       </c>
@@ -4428,11 +4093,11 @@
       <c r="D78" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="8" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="30">
       <c r="A79" t="s">
         <v>318</v>
       </c>
@@ -4445,11 +4110,11 @@
       <c r="D79" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="E79" s="8" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>322</v>
       </c>
@@ -4463,7 +4128,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>326</v>
       </c>
@@ -4477,7 +4142,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>330</v>
       </c>
@@ -4491,7 +4156,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>334</v>
       </c>
@@ -4505,7 +4170,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>338</v>
       </c>
@@ -4519,7 +4184,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>342</v>
       </c>
@@ -4530,7 +4195,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>345</v>
       </c>
@@ -4544,7 +4209,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>349</v>
       </c>
@@ -4561,7 +4226,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>354</v>
       </c>
@@ -4578,7 +4243,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>359</v>
       </c>
@@ -4592,7 +4257,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>363</v>
       </c>
@@ -4606,49 +4271,49 @@
         <v>366</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>367</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D91" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="E91" s="13" t="s">
+      <c r="E91" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>371</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="D92" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="E92" s="13" t="s">
+      <c r="E92" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>375</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D93" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="E93" s="13" t="s">
+      <c r="E93" s="8" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>379</v>
       </c>
@@ -4658,8 +4323,106 @@
       <c r="D94" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="E94" s="13" t="s">
+      <c r="E94" s="8" t="s">
         <v>381</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>382</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>386</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>389</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>395</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>398</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>402</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>406</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -4667,10 +4430,11 @@
     <hyperlink ref="E3" r:id="rId1" xr:uid="{57D44E5B-F05F-4247-A1E8-17B16E6BFB2A}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{341302AD-3E4C-4045-8899-137E8885875F}"/>
     <hyperlink ref="E93" r:id="rId3" xr:uid="{39683A05-519C-EE4D-B2B3-2BDF91E32A97}"/>
+    <hyperlink ref="E101" r:id="rId4" xr:uid="{1C225F62-A2CB-4BAD-B6C9-EA8744A53BD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4681,10 +4445,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1023" width="13.33203125" customWidth="1"/>
-    <col min="1024" max="1024" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1023" width="13.28515625" customWidth="1"/>
+    <col min="1024" max="1024" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4697,10 +4461,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1023" width="13.33203125" customWidth="1"/>
-    <col min="1024" max="1024" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1023" width="13.28515625" customWidth="1"/>
+    <col min="1024" max="1024" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/cci/cci-sensor.xlsx
+++ b/data/cci/cci-sensor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amw23\Documents\GitHub\cci-vocabularies\data\cci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB13482-939C-4300-AD8A-6259F5327A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BBE7DF-4C63-4A86-92DF-2DFFF951F08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{AC6267AA-9592-A246-9899-93CEA800D98F}"/>
   </bookViews>
@@ -1489,7 +1489,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1511,7 +1511,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="15"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="21">
@@ -4337,7 +4336,7 @@
       <c r="D95" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="E95" s="10" t="s">
+      <c r="E95" t="s">
         <v>385</v>
       </c>
     </row>
@@ -4351,7 +4350,7 @@
       <c r="D96" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="E96" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4365,7 +4364,7 @@
       <c r="D97" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E97" t="s">
         <v>393</v>
       </c>
     </row>
@@ -4379,7 +4378,7 @@
       <c r="D98" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E98" t="s">
         <v>394</v>
       </c>
     </row>
@@ -4393,7 +4392,7 @@
       <c r="D99" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E99" s="10" t="s">
+      <c r="E99" t="s">
         <v>401</v>
       </c>
     </row>
@@ -4407,7 +4406,7 @@
       <c r="D100" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E100" s="10" t="s">
+      <c r="E100" t="s">
         <v>405</v>
       </c>
     </row>
@@ -4430,11 +4429,10 @@
     <hyperlink ref="E3" r:id="rId1" xr:uid="{57D44E5B-F05F-4247-A1E8-17B16E6BFB2A}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{341302AD-3E4C-4045-8899-137E8885875F}"/>
     <hyperlink ref="E93" r:id="rId3" xr:uid="{39683A05-519C-EE4D-B2B3-2BDF91E32A97}"/>
-    <hyperlink ref="E101" r:id="rId4" xr:uid="{1C225F62-A2CB-4BAD-B6C9-EA8744A53BD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data/cci/cci-sensor.xlsx
+++ b/data/cci/cci-sensor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amw23\Documents\GitHub\cci-vocabularies\data\cci\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365-my.sharepoint.com/personal/alison_waterfall_stfc_ac_uk/Documents/Documents/GitHub/cci-vocabularies/data/cci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BBE7DF-4C63-4A86-92DF-2DFFF951F08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{26BBE7DF-4C63-4A86-92DF-2DFFF951F08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9818955-6961-4C12-952A-B8D495986EC7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{AC6267AA-9592-A246-9899-93CEA800D98F}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="414">
   <si>
     <t>URI</t>
   </si>
@@ -1252,6 +1252,18 @@
   </si>
   <si>
     <t>https://space.oscar.wmo.int/instruments/view/maestro</t>
+  </si>
+  <si>
+    <t>sens_mopitt</t>
+  </si>
+  <si>
+    <t>MOPITT</t>
+  </si>
+  <si>
+    <t>Measurement Of Pollution In The Troposphere</t>
+  </si>
+  <si>
+    <t>https://space.oscar.wmo.int/instruments/view/mopitt</t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1501,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1511,7 +1523,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Accent" xfId="7" xr:uid="{7985A975-9802-3248-9910-E2AB4182EA1B}"/>
@@ -2901,10 +2912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE65322-9E0A-7A45-9C36-668BB13B834C}">
-  <dimension ref="A1:BL101"/>
+  <dimension ref="A1:BL102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4420,8 +4431,22 @@
       <c r="D101" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" t="s">
         <v>409</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>410</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -4431,8 +4456,9 @@
     <hyperlink ref="E93" r:id="rId3" xr:uid="{39683A05-519C-EE4D-B2B3-2BDF91E32A97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
